--- a/Assets/StreamingAssets/metal/새 폴더/기록영상 메타데이터(221119).xlsx
+++ b/Assets/StreamingAssets/metal/새 폴더/기록영상 메타데이터(221119).xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView minimized="1" xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="17640" tabRatio="969"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="17640" tabRatio="838"/>
   </bookViews>
   <sheets>
     <sheet name="기록영상(373편)" sheetId="1" r:id="rId1"/>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2981" uniqueCount="2045">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3728" uniqueCount="2421">
   <si>
     <t>인천 첫 해안 폭격, 한국
 THE FIRST SHORE BOMBARDMENT OF INCHON, KOREA</t>
@@ -10359,6 +10359,1138 @@
   </si>
   <si>
     <t>1_흥남 철수, 한국.jpg</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>225_유엔군 서울로 진격하다, 수원 남부 10 마일, 한국 ; 수원 남부 4-12 마일, 맥아더 장군.mp4</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>/movies/00/225_유엔군 서울로 진격하다, 수원 남부 10 마일, 한국 ; 수원 남부 4-12 마일, 맥아더 장군.mp4</t>
+  </si>
+  <si>
+    <t>195_한국에 미국 해병대 제 1사단(제1 여단), 안동, A 부대장(CO) 제1 탱크 부대   w.mp4</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>/movies/00/1_흥남 철수, 한국.mp4</t>
+  </si>
+  <si>
+    <t>/movies/00/2_한국에 무스탕.mp4</t>
+  </si>
+  <si>
+    <t>/movies/00/3_심리전- 한국에서의 전투 무기.mp4</t>
+  </si>
+  <si>
+    <t>/movies/00/4_제뢰제거함 활동 원산, 한국, 북한 .mp4</t>
+  </si>
+  <si>
+    <t>/movies/00/5_평화 회담 무산리, 한국.mp4</t>
+  </si>
+  <si>
+    <t>/movies/00/6_평화 회담 개성, 한국.mp4</t>
+  </si>
+  <si>
+    <t>/movies/00/7_대한민국 해군사관학교.mp4</t>
+  </si>
+  <si>
+    <t>/movies/00/8_부산에서의 활동, 한국.mp4</t>
+  </si>
+  <si>
+    <t>/movies/00/9_유엔 서울로 후퇴, 서울.mp4</t>
+  </si>
+  <si>
+    <t>/movies/00/10_THIS IS KOREA 미공개 영상.mp4</t>
+  </si>
+  <si>
+    <t>/movies/00/11_ 전쟁 고아, 한국.mp4</t>
+  </si>
+  <si>
+    <t>/movies/00/12_한국의 유엔군.mp4</t>
+  </si>
+  <si>
+    <t>/movies/00/13_한국의 유엔군 .mp4</t>
+  </si>
+  <si>
+    <t>/movies/00/14_한국의 유엔군.mp4</t>
+  </si>
+  <si>
+    <t>/movies/00/15_한국의 캐나다군, 임진강.mp4</t>
+  </si>
+  <si>
+    <t>/movies/00/16_Little Switch 작전, 부산, 한국.mp4</t>
+  </si>
+  <si>
+    <t>/movies/00/17_북한에 대한 항공모함 공격.mp4</t>
+  </si>
+  <si>
+    <t>/movies/00/18_해병대 제 1사단 활동에 들어가다. 벙커, 언덕, 지역, 한국.mp4</t>
+  </si>
+  <si>
+    <t>/movies/00/19_미국 해군전함 뉴저지 (BB-62) 호 적을 폭격하다 원산, 한국.mp4</t>
+  </si>
+  <si>
+    <t>/movies/00/20_정예 구축함 사단 161 한국으로 출격 .mp4</t>
+  </si>
+  <si>
+    <t>/movies/00/21_BIG SWITCH 작전, 거제도 , 한국.mp4</t>
+  </si>
+  <si>
+    <t>/movies/00/22_한국 회복을 위한 미국 정부 수송, 부산, 한국.mp4</t>
+  </si>
+  <si>
+    <t>/movies/00/23_저격 산등성이 구역- 금화 지역, 한국.mp4</t>
+  </si>
+  <si>
+    <t>/movies/00/24_전쟁에서의 여성, 무산리, 한국.mp4</t>
+  </si>
+  <si>
+    <t>/movies/00/25_미주리함 (BB-63) 인천과 청진 해안을 떠나다, 한국 미수리, 미국해군전함.mp4</t>
+  </si>
+  <si>
+    <t>/movies/00/26_상륙강습 원산, 북한.mp4</t>
+  </si>
+  <si>
+    <t>/movies/00/27_한국에 헬리콥터 로켓.mp4</t>
+  </si>
+  <si>
+    <t>/movies/00/28_HELICOPTER OPERATIONS. Korea.mp4</t>
+  </si>
+  <si>
+    <t>/movies/00/29_한강을 건너다 한국.mp4</t>
+  </si>
+  <si>
+    <t>/movies/00/30_제1 사단, 미국 해병대USMC, 로켓 중대 한국.mp4</t>
+  </si>
+  <si>
+    <t>/movies/00/31_고지 벙커안 해병대 한국 .mp4</t>
+  </si>
+  <si>
+    <t>/movies/00/32_한국에 해병대.mp4</t>
+  </si>
+  <si>
+    <t>/movies/00/33_CRIPPLED CHICK ISLAND 프로젝트 여도, 한국.mp4</t>
+  </si>
+  <si>
+    <t>/movies/00/34_평화 회담, 판문점, 함국.mp4</t>
+  </si>
+  <si>
+    <t>/movies/00/35_개성 회담 판문점, 한국.mp4</t>
+  </si>
+  <si>
+    <t>/movies/00/36_인천 첫 해안 폭격, 한국.mp4</t>
+  </si>
+  <si>
+    <t>/movies/00/37_인천 첫 해안 폭격, 한국.mp4</t>
+  </si>
+  <si>
+    <t>/movies/00/38_인천 폭격, 한국.mp4</t>
+  </si>
+  <si>
+    <t>/movies/00/39_인천 폭격, 한국.mp4</t>
+  </si>
+  <si>
+    <t>/movies/00/40_Heartbreak 고지, 인제면 지역, 한국.mp4</t>
+  </si>
+  <si>
+    <t>/movies/00/41_사진총 한국.mp4</t>
+  </si>
+  <si>
+    <t>/movies/00/42_THIS IS KOREA 미공개 영상 .mp4</t>
+  </si>
+  <si>
+    <t>/movies/00/43_평화 회담 판문점, 한국.mp4</t>
+  </si>
+  <si>
+    <t>/movies/00/44_흥남 철수 활동, 한국.mp4</t>
+  </si>
+  <si>
+    <t>/movies/00/45_THIS IS KOREA 미공개 영상 .mp4</t>
+  </si>
+  <si>
+    <t>/movies/00/46_진남포 항구에서 지뢰제거 작전, 한국.mp4</t>
+  </si>
+  <si>
+    <t>/movies/00/47_인천에서의 D-DAY 활동, 한국.mp4</t>
+  </si>
+  <si>
+    <t>/movies/00/48_한국에서 해병대 퇴각.mp4</t>
+  </si>
+  <si>
+    <t>/movies/00/49_구축함 원산 포격, 한국.mp4</t>
+  </si>
+  <si>
+    <t>/movies/00/50_구축함 원산 포격, 한국.mp4</t>
+  </si>
+  <si>
+    <t>/movies/00/51_한국에 캐나다군, 임진강.mp4</t>
+  </si>
+  <si>
+    <t>/movies/00/52_이승만 대통령 취임식 서울, 한국.mp4</t>
+  </si>
+  <si>
+    <t>/movies/00/53_유엔 &amp; 공산군 휴전 협상 판문점, 한국.mp4</t>
+  </si>
+  <si>
+    <t>/movies/00/54_초계 어뢰정 작전 진해, 한국.mp4</t>
+  </si>
+  <si>
+    <t>/movies/00/55_헬리콥터 반-지뢰 작전 원산 항공, 북한.mp4</t>
+  </si>
+  <si>
+    <t>/movies/00/56_유엔 &amp; 공산군 휴전 협상 판문점, 한국.mp4</t>
+  </si>
+  <si>
+    <t>/movies/00/57_한국에 해병대와 (동해안).mp4</t>
+  </si>
+  <si>
+    <t>/movies/00/58_This is korea 미공개 .mp4</t>
+  </si>
+  <si>
+    <t>/movies/00/59_전쟁의 하루 한국.mp4</t>
+  </si>
+  <si>
+    <t>/movies/00/60_원산 피난, 한국.mp4</t>
+  </si>
+  <si>
+    <t>/movies/00/61_ 흥남 철수 한국.mp4</t>
+  </si>
+  <si>
+    <t>/movies/00/62_흥남 포격, 한국.mp4</t>
+  </si>
+  <si>
+    <t>/movies/00/63_인천 피난, 한국.mp4</t>
+  </si>
+  <si>
+    <t>/movies/00/64_한국 인천에서의 D-DAY.mp4</t>
+  </si>
+  <si>
+    <t>/movies/00/65_진남포에서 지뢰제거 작전, 한국.mp4</t>
+  </si>
+  <si>
+    <t>/movies/00/66_미국 해병대의 한국에서의 퇴각.mp4</t>
+  </si>
+  <si>
+    <t>/movies/00/67_흥남 부두 활동, 한국.mp4</t>
+  </si>
+  <si>
+    <t>/movies/00/68_흥남 철수, 한국.mp4</t>
+  </si>
+  <si>
+    <t>/movies/00/69_한국 휴전선.mp4</t>
+  </si>
+  <si>
+    <t>/movies/00/70_BIG SWITCH, 무산리와 판문점, 한국.mp4</t>
+  </si>
+  <si>
+    <t>/movies/00/71_LITTLE SWITCH, 음성 포함 인터뷰, 무산리, 한국.mp4</t>
+  </si>
+  <si>
+    <t>/movies/00/72_헌병대 (MP) 차량 정찰, 제10 군단, 한국.mp4</t>
+  </si>
+  <si>
+    <t>/movies/00/73_SP-1 전쟁포로, 부산, 한국.mp4</t>
+  </si>
+  <si>
+    <t>/movies/00/74_선전 포격 회의, 판문점, 한국, 등.mp4</t>
+  </si>
+  <si>
+    <t>/movies/00/75_유엔이 한국에 병력을 파견하다.mp4</t>
+  </si>
+  <si>
+    <t>/movies/00/76_한국에 캐나다 병력을 위한 기동 훈련.mp4</t>
+  </si>
+  <si>
+    <t>/movies/00/77_더글라스 맥아더 장군 한국 방문.mp4</t>
+  </si>
+  <si>
+    <t>/movies/00/78_카톨릭 성당, 원산, 한국.mp4</t>
+  </si>
+  <si>
+    <t>/movies/00/79_카톨릭 성당, 원산, 한국.mp4</t>
+  </si>
+  <si>
+    <t>/movies/00/80_한국 행진곡, 부산, 한국.mp4</t>
+  </si>
+  <si>
+    <t>/movies/00/81_흥남 철수, UDT, 한국.mp4</t>
+  </si>
+  <si>
+    <t>/movies/00/82_혜산진 항공뷰, 미국해군모함 필리핀 바다 (CV-47) 연료 보급과 보급품 인수 탑승; .mp4</t>
+  </si>
+  <si>
+    <t>/movies/00/83_한국 전쟁, 조 디마지오와 레프티 오돌, 함흥&amp;김포 공군 기지 .mp4</t>
+  </si>
+  <si>
+    <t>/movies/00/84_도판 다리에 낙하산 투하를 동반한 작전, 한국.mp4</t>
+  </si>
+  <si>
+    <t>/movies/00/85_제1 해병대 사단을 위한 대니 케이 쇼, 제5 여단 한국.mp4</t>
+  </si>
+  <si>
+    <t>/movies/00/86_미국 해병대 정찰 &amp; 한국에서의 활동 구동Ku-Dong, 한국.mp4</t>
+  </si>
+  <si>
+    <t>/movies/00/87_THIS IS KOREA 미공개 영상 .mp4</t>
+  </si>
+  <si>
+    <t>/movies/00/88_제1 해병대 사단을 위한 대니 케이 쇼 한국.mp4</t>
+  </si>
+  <si>
+    <t>/movies/00/89_한국 흥남 활동; 일본 도쿄 크리스마스 장식.mp4</t>
+  </si>
+  <si>
+    <t>/movies/00/90_정찰 비행대대. VP-6; 북한 흥남 항구 활동.mp4</t>
+  </si>
+  <si>
+    <t>/movies/00/91_미국해군전함 뉴저지 (BB-62) 작전개시, 개성, 한국 지역 .mp4</t>
+  </si>
+  <si>
+    <t>/movies/00/92_OLD BALDY 전투, 제2 보병 사단 지역, 한국.mp4</t>
+  </si>
+  <si>
+    <t>/movies/00/93_매킨리 산 D DAY, 매킨리 산 탑승 인천, 한국.mp4</t>
+  </si>
+  <si>
+    <t>/movies/00/94_Little Switch 작전- 무신리와 K-16, 한국.mp4</t>
+  </si>
+  <si>
+    <t>/movies/00/95_LITTLE SWITCH (포로 송환), 판문점과 무산리, 한국.mp4</t>
+  </si>
+  <si>
+    <t>/movies/00/파일 오류</t>
+  </si>
+  <si>
+    <t>/movies/00/97_지뢰제거선 (MSB) 작전, 원산발, 한국.mp4</t>
+  </si>
+  <si>
+    <t>/movies/00/98_제 101 통신 대대 건설, 춘천, 한국.mp4</t>
+  </si>
+  <si>
+    <t>/movies/00/99_트루먼 대통령 한국에 대해 발표.mp4</t>
+  </si>
+  <si>
+    <t>/movies/00/100_정보 수색 정찰, 제7 사단 17 보병대대, INF, 응가리, KOREA.mp4</t>
+  </si>
+  <si>
+    <t>/movies/00/101_일반활동, 미국해군전함 맨체스터의 송진 해변을 공격하다, 한국.mp4</t>
+  </si>
+  <si>
+    <t>/movies/00/102_한국군 제1 사단 (개성 지역 내와 그 근방 지역 부근 우호 게릴라 작전) 한국.mp4</t>
+  </si>
+  <si>
+    <t>/movies/00/103_제27 보병 여단,강을 넘다, 한강, 한국.mp4</t>
+  </si>
+  <si>
+    <t>/movies/00/104_해병대 근접항공지원 (제1 사단) 한국.mp4</t>
+  </si>
+  <si>
+    <t>/movies/00/105_미국해군전함 라이먼 K. 스웬슨 (DD-729) 탑승 인천 침입 작전, 한국.mp4</t>
+  </si>
+  <si>
+    <t>/movies/00/106_인천에서의 활동, 한국; 병원 환자 이송; 작전용 부두 교각; 크리스마스 트리.mp4</t>
+  </si>
+  <si>
+    <t>/movies/00/107_작전 변경 유엔 전쟁 포로 (POW) #1 캠프, 거제도, 한국.mp4</t>
+  </si>
+  <si>
+    <t>/movies/00/108_R &amp; R, K-16 공군 기지 공군 기지 서울, 제40 미국 보병 사단 지역, 한국.mp4</t>
+  </si>
+  <si>
+    <t>/movies/00/109_미국해군모함 에식스(CV-9) 비행갑판에 F2H 충돌과 화재 , 한국발.mp4</t>
+  </si>
+  <si>
+    <t>/movies/00/110_육군 간호대와 WMSC 활동, 서울, 한국.mp4</t>
+  </si>
+  <si>
+    <t>/movies/00/111_식품 패키지 배부, PONCHON, 한국 ; VIP의 제 40 사단 지역 순회, 한국.mp4</t>
+  </si>
+  <si>
+    <t>/movies/00/112_보병 산악 작전, 제40 사단 지역, 한국.mp4</t>
+  </si>
+  <si>
+    <t>/movies/00/113_래리 핀리 쇼, 미국위문협회USO 행사 1098, 제40 미국 보병 사단, 한국.mp4</t>
+  </si>
+  <si>
+    <t>/movies/00/114_유엔한국민사원조위원회. (UNCACK) 활동, 중앙 구호 위원회 회의, 부산, 한국; 등.mp4</t>
+  </si>
+  <si>
+    <t>/movies/00/115_THUNDER FROM THE SKY, 한국 전술 공군 이야기.mp4</t>
+  </si>
+  <si>
+    <t>/movies/00/116_육군 수송 이야기, 한국 부산 ; 육군 수송 이야기, 인천, 한국.mp4</t>
+  </si>
+  <si>
+    <t>/movies/00/117_96 야전 포병 대대, 양구,제10 전방 포병대 활주로, 한국, 포레스트셔먼 하네다공군기지,.mp4</t>
+  </si>
+  <si>
+    <t>/movies/00/118_오스트레일리안 F-21'S (전투기) 부산, 한국 ; 손상된 F-51 전투기, 부산, 한국.mp4</t>
+  </si>
+  <si>
+    <t>/movies/00/119_헬리콥터 운용, 원주, ; 40 사단 극동을 향해 승선, 포트 메이슨, 샌프란시스코,.mp4</t>
+  </si>
+  <si>
+    <t>/movies/00/120_ 프린스턴 탑승, CV-37, 항공모함, 제1 왕실 해병 특공대 급습 한국을 떠나며, 북한.mp4</t>
+  </si>
+  <si>
+    <t>/movies/00/121_항복 전단 투하, 대구, 한국 ; 전투기 조종과 T6 (MOSQUITO 전투기), 대구.mp4</t>
+  </si>
+  <si>
+    <t>/movies/00/122_7 기갑 여단 강 건넘, 춘천 남부, 한국 ; 제8 기갑 공격 ; 잔혹 행위 7기갑 강 건넘.mp4</t>
+  </si>
+  <si>
+    <t>/movies/00/123_패트리지 중장 (제5 공군AF사령관), ; 북위 38도선으로부터 북쪽으로 10마일, 제187 여단,.mp4</t>
+  </si>
+  <si>
+    <t>/movies/00/124_ 조지 I. 백 장군 도착, 극동 사령부, 대구, 한국 ; 한국 전쟁, 피난민, 함안, 한국.mp4</t>
+  </si>
+  <si>
+    <t>/movies/00/125_주한 군사 고문단(KMAG), 한국.mp4</t>
+  </si>
+  <si>
+    <t>/movies/00/126_흥남 철수, 한국.mp4</t>
+  </si>
+  <si>
+    <t>/movies/00/127_한국에 온 잭 버니, 철원.mp4</t>
+  </si>
+  <si>
+    <t>/movies/00/128_SP-1 전쟁 포로, 부산, 한국.mp4</t>
+  </si>
+  <si>
+    <t>/movies/00/129_전투 선적작전, 인천, 한국 ; 잔혹 행위, 평양, 한국.mp4</t>
+  </si>
+  <si>
+    <t>/movies/00/130_평화 협상 회담, 개성과 무산리, 한국.mp4</t>
+  </si>
+  <si>
+    <t>/movies/00/131_PIPE DREAM 작전, 제24 보병 사단 훈련, 한국.mp4</t>
+  </si>
+  <si>
+    <t>/movies/00/132_서울 철수와 방어, 중서부, 한국.mp4</t>
+  </si>
+  <si>
+    <t>/movies/00/133_EUSAK 의장대, 대구, 한국.mp4</t>
+  </si>
+  <si>
+    <t>/movies/00/134_헬리콥터 작전, 대구, 한국.mp4</t>
+  </si>
+  <si>
+    <t>/movies/00/135_서울을 위한 쌀, 서울, 한국.mp4</t>
+  </si>
+  <si>
+    <t>/movies/00/136_수색 정찰, 한국 ; 제187 공수, 무산리.mp4</t>
+  </si>
+  <si>
+    <t>/movies/00/137_F-86 작전, 진격 공군 활주로 , 대구, 한국.mp4</t>
+  </si>
+  <si>
+    <t>/movies/00/138_탱크와 정찰, 전주 남부, 한국.mp4</t>
+  </si>
+  <si>
+    <t>/movies/00/139_한국군 제1 사단, 수원 남부, 한국.mp4</t>
+  </si>
+  <si>
+    <t>/movies/00/140_한국행진곡, 부산, 한국.mp4</t>
+  </si>
+  <si>
+    <t>/movies/00/141_ 박격포 소대, 인천, 한국.mp4</t>
+  </si>
+  <si>
+    <t>/movies/00/142_유엔 캐나다 부대, 밀양, 한국.mp4</t>
+  </si>
+  <si>
+    <t>/movies/00/143_한국에 해병대, 마산.mp4</t>
+  </si>
+  <si>
+    <t>/movies/00/144_흥남 철수, 한국.mp4</t>
+  </si>
+  <si>
+    <t>/movies/00/145_흥남 철수, 한국.mp4</t>
+  </si>
+  <si>
+    <t>/movies/00/146_정찰 활동, 함흥, 한국.mp4</t>
+  </si>
+  <si>
+    <t>/movies/00/147_흥남 철수, 한국.mp4</t>
+  </si>
+  <si>
+    <t>/movies/00/148_흥남 철수, 한국.mp4</t>
+  </si>
+  <si>
+    <t>/movies/00/149_흥남 철수, 한국.mp4</t>
+  </si>
+  <si>
+    <t>/movies/00/150_잔혹 행위, 덕산 니켈 광산, 함흥, 북한.mp4</t>
+  </si>
+  <si>
+    <t>/movies/00/151_군사제, 부상자&amp;위생병, 안주, 한국.mp4</t>
+  </si>
+  <si>
+    <t>/movies/00/152_제1 한국군 사단, PAKCHONG 부근, 한국.mp4</t>
+  </si>
+  <si>
+    <t>/movies/00/153_낙하산 강하, 숙천, 한국 ; 한국 전쟁, 청주, 한국.mp4</t>
+  </si>
+  <si>
+    <t>/movies/00/154_폭탄 피해와 부상자의 항공 후송, 한국.mp4</t>
+  </si>
+  <si>
+    <t>/movies/00/155_제7 육군 사단이 이원에 도착, 한국.mp4</t>
+  </si>
+  <si>
+    <t>/movies/00/156_김포 공항(FIELD), 한국에 해경 항공전대, 한국.mp4</t>
+  </si>
+  <si>
+    <t>/movies/00/157_유엔의 날, 서울, 한국 ; 한국 전쟁, 숙천.mp4</t>
+  </si>
+  <si>
+    <t>/movies/00/158_해방 기념식, 서울, 한국.mp4</t>
+  </si>
+  <si>
+    <t>/movies/00/159_서울 탈환, 한국.mp4</t>
+  </si>
+  <si>
+    <t>/movies/00/160_한강을 건넘, 제1 미해병대 사단, 한국.mp4</t>
+  </si>
+  <si>
+    <t>/movies/00/161_한강을 건넘, 제1 미해병대 사단, 한국.mp4</t>
+  </si>
+  <si>
+    <t>/movies/00/162_한국의 서울로 향하는 해병대.mp4</t>
+  </si>
+  <si>
+    <t>/movies/00/163_제9 육군 기갑 연대, 낙동강, 한국.mp4</t>
+  </si>
+  <si>
+    <t>/movies/00/164_미육군 활동, 제1 기갑 부대, 왜관, 한국.mp4</t>
+  </si>
+  <si>
+    <t>/movies/00/165_전쟁, 수원, 한국.mp4</t>
+  </si>
+  <si>
+    <t>/movies/00/165_한국 전쟁, 포항, 한국.mp4</t>
+  </si>
+  <si>
+    <t>/movies/00/167_인천 작전, 한국.mp4</t>
+  </si>
+  <si>
+    <t>/movies/00/168_Big Switch작전, 자유의 마을, 한국.mp4</t>
+  </si>
+  <si>
+    <t>/movies/00/169_Big Switch작전, 자유의 마을, 한국.mp4</t>
+  </si>
+  <si>
+    <t>/movies/00/170_Big Switch작전, 자유의 마을, 한국.mp4</t>
+  </si>
+  <si>
+    <t>/movies/00/171_BIG SWITCH작전, 자유의 마을문산, 한국.mp4</t>
+  </si>
+  <si>
+    <t>/movies/00/172_SP-1 전쟁 포로, 부산, 한국.mp4</t>
+  </si>
+  <si>
+    <t>/movies/00/173_오스트레일리아 병력과 캐나다 PRINCESS PAT 여단, 한국; PRINCESS PAT 캐나다 병력.mp4</t>
+  </si>
+  <si>
+    <t>/movies/00/174_미국 해병대와, 제7 여단, 제1사단, 인제, 한국.mp4</t>
+  </si>
+  <si>
+    <t>/movies/00/175_한국에 매슈 B 리즈웨이 장군, 서울 ; 방어, 서울 지역, 한국.mp4</t>
+  </si>
+  <si>
+    <t>/movies/00/176_캐나다 유엔 병력, 밀양, 한국 ; 습식 주행 기술, 캐나다 유엔 군, 밀양.mp4</t>
+  </si>
+  <si>
+    <t>/movies/00/177_한국 전쟁, 의정부 ; 피난민, 부산, 한국 ; 퇴각, 흥남 지역, 한국, 보쿠도(BOKU-DO).mp4</t>
+  </si>
+  <si>
+    <t>/movies/00/178_제7 여단과, 제1 해병대 사단이 함흥 남부로 진격하다 ,한국.mp4</t>
+  </si>
+  <si>
+    <t>/movies/00/179_한국 전쟁, 제1 해병대 사단과, 코조, 한국.mp4</t>
+  </si>
+  <si>
+    <t>/movies/00/180_ 한국 앞 바다에서미국해군전함 밸리 포지 (CV 45) 탑승 공중 작전.mp4</t>
+  </si>
+  <si>
+    <t>/movies/00/181_ 한국 앞 바다에서미국해군전함 밸리 포지 (CV 45) 탑승 공중 작전.mp4</t>
+  </si>
+  <si>
+    <t>/movies/00/182_전투기 조종사와 T-6 (MOSQUITO 정찰기) 대구, 한국.mp4</t>
+  </si>
+  <si>
+    <t>/movies/00/183_한국 전쟁, 평양, 한국 ; 한국 전쟁 ; 정수 지점, 한국.mp4</t>
+  </si>
+  <si>
+    <t>/movies/00/184_한국 전쟁 ; 조치원, 한국, 제63 FA ; 한국 전쟁, 대전.mp4</t>
+  </si>
+  <si>
+    <t>/movies/00/185_전쟁포로 [POW, 한국] 활동, 거제도, 한국.mp4</t>
+  </si>
+  <si>
+    <t>/movies/00/186_후퇴, 의정부, 한국 ; 전투 사진가, 북위 38도 ; 전투 사진가, 의정부, 한국 ; 후퇴, 의정부.mp4</t>
+  </si>
+  <si>
+    <t>/movies/00/187_제임스 A 밴 플리트 중장, 제3 사단, POAN-NIE, 한국 ; 유엔 부대, 영국과 벨기에, 북위 38도.mp4</t>
+  </si>
+  <si>
+    <t>/movies/00/188_제 27 여단 (울프하운드) ,제65연대, 서울의 5 MI N, 한국 ;리즈웨이가I 군단지역을 방문하다,.mp4</t>
+  </si>
+  <si>
+    <t>/movies/00/189_화천, 한국 북동쪽 15마일 지점의 포병대를 위한 항공 작전 ; 무산에 공중투하,.mp4</t>
+  </si>
+  <si>
+    <t>/movies/00/190_거제도에 PW 건설, 부산 남쪽 약 60마일 지점, 한국.mp4</t>
+  </si>
+  <si>
+    <t>/movies/00/191_제24 사단의 제 19, 21 여단이 철의 삼각지대 선봉에 서다.mp4</t>
+  </si>
+  <si>
+    <t>/movies/00/192_후퇴, 중서부 한국 ; 제임스 A 밴 플리트 중장 그리스군 방문, 한국.mp4</t>
+  </si>
+  <si>
+    <t>/movies/00/193_한국군 제1사단, 서울의 미사일경사거리(MSR)에 24 MI N, 한국 ; 임진강 건넘, .mp4</t>
+  </si>
+  <si>
+    <t>/movies/00/194_704 언덕 이야기, 인천 북부, 한국 ; 언덕 공격, 인천, 한국.mp4</t>
+  </si>
+  <si>
+    <t>/movies/00/195_한국에 미국 해병대 제 1사단(제1 여단), 안동, A 부대장(CO) 제1 탱크 부대.mp4</t>
+  </si>
+  <si>
+    <t>/movies/00/196_한국에 미국 해병대 제1 사단과, 찬동과 , 찬동 북부(N), 한국; 장날.mp4</t>
+  </si>
+  <si>
+    <t>/movies/00/197_한국 전쟁, 안양, 한국 ; 한국 전쟁, 전방에 메슈 B 리즈웨이 장군, 인천.mp4</t>
+  </si>
+  <si>
+    <t>/movies/00/198_남아프리카 공군 (날으는 치타 비행함대) 수원, 한국 ; 흥남 철수 (수중폭파반),.mp4</t>
+  </si>
+  <si>
+    <t>/movies/00/199_한국에 F-86', 김포 ; NK ; F-80s 겨울 장면, 김포, 한국 ; B-26 임무, CJONGNE,북한.mp4</t>
+  </si>
+  <si>
+    <t>/movies/00/200_첫번째 해병대 철수,제1 해병대 사단. 장진호 지역으로부터, 코토 리, 한국.mp4</t>
+  </si>
+  <si>
+    <t>/movies/00/201_더글라스 맥아더 장군이 활주로와 부상 대피 도착, 터키 병력 피난민, 평양 활주로.mp4</t>
+  </si>
+  <si>
+    <t>/movies/00/202_한국전쟁,평양,한국전쟁,순천,터키인,평양,식량을 민간인들에게 주다..mp4</t>
+  </si>
+  <si>
+    <t>/movies/00/203_제 9 군단직할부대 철수, SINOYE 부근,포대,제82 포병대,155MM 곡사포,제1기갑 사단,시변리.mp4</t>
+  </si>
+  <si>
+    <t>/movies/00/204_한강을 건너는 피난민, 그리스 병력의 도착, ; 제2대대, 제187 한국군. 지역, 수원.mp4</t>
+  </si>
+  <si>
+    <t>/movies/00/205_원산 해변 상륙, 원산, 한국 ; 수중해체팀 ; 원산 해변에서.mp4</t>
+  </si>
+  <si>
+    <t>/movies/00/206_대전의 폐허; 잔혹 행위; 적장비,45MM 총,전몰 전우를 위한 카톨릭 미사,.mp4</t>
+  </si>
+  <si>
+    <t>/movies/00/207_한국 전쟁. 김포 공항, 인천, 한국 ; 제32 여단, 제7 사단, 제1사단 해병대 대체, 인천.mp4</t>
+  </si>
+  <si>
+    <t>/movies/00/208_미국해군전함 밸리 포지 (CV45) 탑승 공중 작전;인천에서의 활동(침입),.mp4</t>
+  </si>
+  <si>
+    <t>/movies/00/209_한국에 대한 미국 해군 전함의 공중 공격 항공 영상.mp4</t>
+  </si>
+  <si>
+    <t>/movies/00/210_한국 전쟁. 남한 훈련생, 대구 ; 남한 신병 ; 제 35 여단 사령부에 콜린스 장군,.mp4</t>
+  </si>
+  <si>
+    <t>/movies/00/211_B-29 이 북한을 습격한다, ; B-29s,북한에 대한 기습 공격.mp4</t>
+  </si>
+  <si>
+    <t>/movies/00/212_대구 ; 군식당,; 롤 샐러드 카터 ; 마산 전선의 전쟁 ;아킨 장군, 도쿄,일본.mp4</t>
+  </si>
+  <si>
+    <t>/movies/00/213_안동; 크레이그 준장 소총 부대 인원을 인터뷰, 한국 마산에 통신센터 설치하다.mp4</t>
+  </si>
+  <si>
+    <t>/movies/00/214_미국해군전함 산디아오의 조지 클라이머와 , 한국으로 가는 도중 (제2 대대,제5 해병대).mp4</t>
+  </si>
+  <si>
+    <t>/movies/00/215_한국 영토에 선전 전단을 뿌리다 (제5 공군) ; 제5 공군 기지에서 한국 전쟁, 일본.mp4</t>
+  </si>
+  <si>
+    <t>/movies/00/216_한국 전쟁 (카톨릭 미사), 대전, 한국 ; 개신교 예배 ; 한국전쟁, 대전, 한국; .mp4</t>
+  </si>
+  <si>
+    <t>/movies/00/217_탱크의 활약, A CO., 제140 탱크 부대, 제40 사단, 한국.mp4</t>
+  </si>
+  <si>
+    <t>/movies/00/218_제3 대대, 제19th 보병 연대, 한국, 서울 지역 ; 유엔 병력 철수, 서울 지역.mp4</t>
+  </si>
+  <si>
+    <t>/movies/00/219_ F-80 ; 압록강 항공뷰, 한국(CAG)No.3항공기; 한국을 위한 혈액, 도쿄에서 평양, 북한.mp4</t>
+  </si>
+  <si>
+    <t>/movies/00/220_, 제7사단, 언기강 부근;미국 해병대, 울산 외곽 해병1시단;유엔 공격을 시작하다,.mp4</t>
+  </si>
+  <si>
+    <t>/movies/00/221_제5 기갑 연대., 제1 기병 사단, 반격, 가평, 한국 ; 한국군1사단. ; CU, .mp4</t>
+  </si>
+  <si>
+    <t>/movies/00/222_ 티비에 나오는 자유 무역항 선원의 정신, 자유무역함 ; 미국해군전함 재취역,.mp4</t>
+  </si>
+  <si>
+    <t>/movies/00/223_에드워드 아몰드 장군의 진급, 청주, ; 더글라스 맥아더 김포,제35연대 순찰,영등포,.mp4</t>
+  </si>
+  <si>
+    <t>/movies/00/224_이탈리아 해군을 호위하는 구축함, 버지니아 ; 스웨덴 간호사 ; 캐나다 여단이 떠나다.mp4</t>
+  </si>
+  <si>
+    <t>/movies/00/226_크리스마스, ; 피난민, 크리스마스 트리, 서울, 리즈웨이 장군, 특수 근무,.mp4</t>
+  </si>
+  <si>
+    <t>/movies/00/227_제1 해병대 철수, 흥남, 한국 ; 제1 해병대 철수, 하가루 리에서 함흥으로, 장진호 철수.mp4</t>
+  </si>
+  <si>
+    <t>/movies/00/228_풍기 한국군 8사단 붙잡힌 NK 포로; 신호 구축 ; 사망 확인, 대전 ; 귀향 왜관.mp4</t>
+  </si>
+  <si>
+    <t>/movies/00/229_인천 ; O P 스미스 소장, 해병1사단 도시를 남한에게 넘기다 ; 국회의사당 ; 김포공항.mp4</t>
+  </si>
+  <si>
+    <t>/movies/00/230_미국해군전함 미주리 탑승 (한국 해안에서 모의 도착) ; 빅 모 탑승, 진주만, .mp4</t>
+  </si>
+  <si>
+    <t>/movies/00/231_한국 육사, 부산 ; 제24 보병 여단의 LIASON 비행기. ; 중박격포. 제5 기갑연대. 기갑 1사단.mp4</t>
+  </si>
+  <si>
+    <t>/movies/00/232_극동 공군, 오키나와; C-119 , 제314 전투 화물 날개, 일본에서 김포,한국;이타즈케,일본.mp4</t>
+  </si>
+  <si>
+    <t>/movies/00/233_엘런 스미스 한국 부대에 훈장 수여 이승대통령에게 훈장받다,; 리즈웨이, 오키나와.mp4</t>
+  </si>
+  <si>
+    <t>/movies/00/234_프랭크 밀번 소장, I 군단, 안양,81MM 박격포 ; 제187연대, ; 제35 보병. 한강으로 향하다,.mp4</t>
+  </si>
+  <si>
+    <t>/movies/00/235_리지웨이, 양평 ; , 흥남 ; 주한 군사 고문단,; 24 사단,; 레벤 C 엘런 소장, 대구, 서울, .mp4</t>
+  </si>
+  <si>
+    <t>/movies/00/236_ 마셜 국방장관 북대서양 국방위원회 제4차 개회식,; 한국 아몬드 장군에 경의.mp4</t>
+  </si>
+  <si>
+    <t>/movies/00/237_압록강 댐 공격.mp4</t>
+  </si>
+  <si>
+    <t>/movies/00/238_티본 고지에 대한 에어그라운드 공격.mp4</t>
+  </si>
+  <si>
+    <t>/movies/00/239_미국해군전함 컨솔레이션(AH-15) 부상자 헬리콥터 피난.mp4</t>
+  </si>
+  <si>
+    <t>/movies/00/240_B-29 폭격.mp4</t>
+  </si>
+  <si>
+    <t>/movies/00/241_제1 해병 사단 시상 수여 (PROJ. 86-5.mp4</t>
+  </si>
+  <si>
+    <t>/movies/00/242_104번 전투 단신 - 한국 전쟁.mp4</t>
+  </si>
+  <si>
+    <t>/movies/00/243_미국해군전함 프린스턴 (CV-37) 차단폭격.mp4</t>
+  </si>
+  <si>
+    <t>/movies/00/244_사진총 푸티지 MIG Kills.mp4</t>
+  </si>
+  <si>
+    <t>/movies/00/245_미국해군전함 필리핀 파다 (CV-47)에서 비행기 이륙; 비행기 대형; 기동 부대.mp4</t>
+  </si>
+  <si>
+    <t>/movies/00/246_군사묘지.mp4</t>
+  </si>
+  <si>
+    <t>/movies/00/247_장진호 전투 그들 방식대로 싸운 후 수송선상 제1해병사단의 제5, 제7 연대의 잔유.mp4</t>
+  </si>
+  <si>
+    <t>/movies/00/248_미국해군전함 프린스턴 (CV-37) 차단폭격.mp4</t>
+  </si>
+  <si>
+    <t>/movies/00/249_전쟁의하루.mp4</t>
+  </si>
+  <si>
+    <t>/movies/00/250_포로 심문, 한국군8군단, CP.mp4</t>
+  </si>
+  <si>
+    <t>/movies/00/251_기념일 광경, 제1 연대, 제1 해병사단.mp4</t>
+  </si>
+  <si>
+    <t>/movies/00/252_후퇴.mp4</t>
+  </si>
+  <si>
+    <t>/movies/00/253_대포 폭발 477고지.mp4</t>
+  </si>
+  <si>
+    <t>/movies/00/254_필리핀 부대.mp4</t>
+  </si>
+  <si>
+    <t>/movies/00/255_한국군 8군단 한국 대통령 부대표장을 받다,한국군8군단CP.mp4</t>
+  </si>
+  <si>
+    <t>/movies/00/256_흥남 이야기.mp4</t>
+  </si>
+  <si>
+    <t>/movies/00/257_중국인에게 살해당한 미국 포로.mp4</t>
+  </si>
+  <si>
+    <t>/movies/00/258_항공 철수.mp4</t>
+  </si>
+  <si>
+    <t>/movies/00/259_평화회담.mp4.crdownload.mp4</t>
+  </si>
+  <si>
+    <t>/movies/00/260_휴전 협상 회담.mp4</t>
+  </si>
+  <si>
+    <t>/movies/00/261_평화를 위한 파트너십.mp4</t>
+  </si>
+  <si>
+    <t>/movies/00/262_155MM 자주식 자주포 (제1 한국군 사단 지원).mp4</t>
+  </si>
+  <si>
+    <t>/movies/00/263_전방 포병 관측자.mp4</t>
+  </si>
+  <si>
+    <t>/movies/00/264_제38 한국 보병군이 반격을 멈추다 (제23 보병 연대 제2 사단이 전선에 나가다).mp4</t>
+  </si>
+  <si>
+    <t>/movies/00/265_한국 사진총.mp4</t>
+  </si>
+  <si>
+    <t>/movies/00/266_일반 활동 ABD 미국해군전함 위스콘신 (BB-64) 한국 지역.mp4</t>
+  </si>
+  <si>
+    <t>/movies/00/267_고무 보트 정찰 상륙.mp4</t>
+  </si>
+  <si>
+    <t>/movies/00/268_지휘권 교대, 제1 해병사단.mp4</t>
+  </si>
+  <si>
+    <t>/movies/00/269_더글라스 맥아더 장군.mp4</t>
+  </si>
+  <si>
+    <t>/movies/00/270_수송대대.mp4</t>
+  </si>
+  <si>
+    <t>/movies/00/271_흥남 이야기.mp4</t>
+  </si>
+  <si>
+    <t>/movies/00/272_한국전쟁.mp4</t>
+  </si>
+  <si>
+    <t>/movies/00/273_제24 사단의 공격 (전투 의료).mp4</t>
+  </si>
+  <si>
+    <t>/movies/00/274_더글라스 맥아더 장군의 전방 방문.mp4</t>
+  </si>
+  <si>
+    <t>/movies/00/275_리지웨이 장군.mp4</t>
+  </si>
+  <si>
+    <t>/movies/00/276_폭격을 맞는 제27 보병 부대 (울프하운드).mp4</t>
+  </si>
+  <si>
+    <t>/movies/00/277_은성훈장 수여.mp4</t>
+  </si>
+  <si>
+    <t>/movies/00/278_김포로부터의 고아 피난.mp4</t>
+  </si>
+  <si>
+    <t>/movies/00/279_C-46의 D.D.T 살포.mp4</t>
+  </si>
+  <si>
+    <t>/movies/00/280_탱크 보병 순찰.mp4</t>
+  </si>
+  <si>
+    <t>/movies/00/281_제65 한국군 순찰 중.mp4</t>
+  </si>
+  <si>
+    <t>/movies/00/282_헌병 활동.mp4</t>
+  </si>
+  <si>
+    <t>/movies/00/283_휴전회담.mp4</t>
+  </si>
+  <si>
+    <t>/movies/00/284_영국 순양함의 홍군용기 전폭기 선별신.mp4</t>
+  </si>
+  <si>
+    <t>/movies/00/285_드와이트 D. 아이젠하워 장군 도착.mp4</t>
+  </si>
+  <si>
+    <t>/movies/00/286_전투 카메라맨의 역할.mp4</t>
+  </si>
+  <si>
+    <t>/movies/00/287_중공군이 한국전쟁에 참전하다.mp4</t>
+  </si>
+  <si>
+    <t>/movies/00/288_CRIPPLED CHICK 프로젝트.mp4</t>
+  </si>
+  <si>
+    <t>/movies/00/289_90.6 기동부대의 인천 지역 폭격.mp4</t>
+  </si>
+  <si>
+    <t>/movies/00/290_한국 육군 활동.mp4</t>
+  </si>
+  <si>
+    <t>/movies/00/291_제8 한국군, 제16 연대 전열 정비, 제10 군단 지구, 785 언덕 기지.mp4</t>
+  </si>
+  <si>
+    <t>/movies/00/292_흥남 이야기.mp4</t>
+  </si>
+  <si>
+    <t>/movies/00/293_해병대원이 줄지어 나오다.mp4</t>
+  </si>
+  <si>
+    <t>/movies/00/294_제3 공병 전투 여단, 제24 사단, FUGASSE (네이팜) 준비.mp4</t>
+  </si>
+  <si>
+    <t>/movies/00/295_이승만.mp4</t>
+  </si>
+  <si>
+    <t>/movies/00/296_미국해군전함 레이테 선상 작전.mp4</t>
+  </si>
+  <si>
+    <t>/movies/00/297_제96 화력 대대 &amp; 제8 공병.mp4</t>
+  </si>
+  <si>
+    <t>/movies/00/298_공중투하, 제187 공수 연대 전투단 (RCT).mp4</t>
+  </si>
+  <si>
+    <t>/movies/00/299_김포 공군 기지 대니 케이트 공연단.mp4</t>
+  </si>
+  <si>
+    <t>/movies/00/300_김포 공군 기지 대니 케이트 쇼.mp4</t>
+  </si>
+  <si>
+    <t>/movies/00/301_제1 전방 관측 대대.mp4</t>
+  </si>
+  <si>
+    <t>/movies/00/302_안나 로즈버그의 제17 연대, 제7 사단 방문.mp4</t>
+  </si>
+  <si>
+    <t>/movies/00/303_제임스 A. 반 장군 함대와 제11 ROKs 연대.mp4</t>
+  </si>
+  <si>
+    <t>/movies/00/304_에티오피아군.mp4</t>
+  </si>
+  <si>
+    <t>/movies/00/305_제1 해병사단.mp4</t>
+  </si>
+  <si>
+    <t>/movies/00/306_미해병대 제1 해병 사단, 부대가 헬리콥터를 통해 전방으로 이동.mp4</t>
+  </si>
+  <si>
+    <t>/movies/00/307_캐나다 여단.mp4</t>
+  </si>
+  <si>
+    <t>/movies/00/308_전쟁포로.mp4</t>
+  </si>
+  <si>
+    <t>/movies/00/309_휴전 교섭 회담.mp4</t>
+  </si>
+  <si>
+    <t>/movies/00/310_인천, 한국 - 상륙 이후.mp4</t>
+  </si>
+  <si>
+    <t>/movies/00/311_BIG SWITCH 작전.mp4</t>
+  </si>
+  <si>
+    <t>/movies/00/312_한국전쟁 마지막 날 -- 벙커 인양.mp4</t>
+  </si>
+  <si>
+    <t>/movies/00/313_한국전쟁 마지막 날 -- 벙커 인양.mp4</t>
+  </si>
+  <si>
+    <t>/movies/00/314_전투기 사진 중대 (MN-7893).mp4</t>
+  </si>
+  <si>
+    <t>/movies/00/315_BIG SWITCH 작전.mp4</t>
+  </si>
+  <si>
+    <t>/movies/00/316_BIG SWITCH 작전 자유의 마을문산판문점.mp4</t>
+  </si>
+  <si>
+    <t>/movies/00/317_휴전협정.mp4</t>
+  </si>
+  <si>
+    <t>/movies/00/318_휴식 인원; 맹폭 &amp; 소이탄 낙하; MIG-15 한국 지역 파괴.mp4</t>
+  </si>
+  <si>
+    <t>/movies/00/319_미국해군전함 컨솔레이션 (AH-15) 부상병 대피.mp4</t>
+  </si>
+  <si>
+    <t>/movies/00/320_종합적 항공모함 작전.mp4</t>
+  </si>
+  <si>
+    <t>/movies/00/321_전쟁의하루 .mp4</t>
+  </si>
+  <si>
+    <t>/movies/00/322_전쟁의하루 .mp4</t>
+  </si>
+  <si>
+    <t>/movies/00/323_UNC MAC (유엔 사령부, 군사 정전 위원회) 활동.mp4</t>
+  </si>
+  <si>
+    <t>/movies/00/324_원산 항구 해군 작전.mp4</t>
+  </si>
+  <si>
+    <t>/movies/00/325_제1 해병사단 활동 고도리와 하가루리 지역.mp4</t>
+  </si>
+  <si>
+    <t>/movies/00/326_미국 해군 전함 필리핀 바다 (CV-47) 전투 중; 조종실 작전.mp4</t>
+  </si>
+  <si>
+    <t>/movies/00/327_흥남 항구 활동.mp4</t>
+  </si>
+  <si>
+    <t>/movies/00/328_CL's, BB's, 그리고 DD's 참가; 피난민; U.N. 깃발.mp4</t>
+  </si>
+  <si>
+    <t>/movies/00/329_한국 카메라총.mp4</t>
+  </si>
+  <si>
+    <t>/movies/00/330_제187 RCT 공수.mp4</t>
+  </si>
+  <si>
+    <t>/movies/00/331_391 고지 탈환.mp4</t>
+  </si>
+  <si>
+    <t>/movies/00/332_전쟁.mp4</t>
+  </si>
+  <si>
+    <t>/movies/00/333_무기 시범 (화력 작전).mp4</t>
+  </si>
+  <si>
+    <t>/movies/00/334_532 엔지니어 보트 &amp; 해안 여단, 제2 공병 여단.mp4</t>
+  </si>
+  <si>
+    <t>/movies/00/335_급습 단체 (특별활동 그룹 X 부대) 게릴라 공격.mp4</t>
+  </si>
+  <si>
+    <t>/movies/00/336_수색정찰.mp4</t>
+  </si>
+  <si>
+    <t>/movies/00/337_첫 전방관측대대.mp4</t>
+  </si>
+  <si>
+    <t>/movies/00/338_심리전.mp4</t>
+  </si>
+  <si>
+    <t>/movies/00/339_K-14 고지.mp4</t>
+  </si>
+  <si>
+    <t>/movies/00/340_오마 N. 브래들리 장군 2 사단 활주로 방문.mp4</t>
+  </si>
+  <si>
+    <t>/movies/00/341_D CO 작전 첫번째, 탱크 대대, 해병 사단.mp4</t>
+  </si>
+  <si>
+    <t>/movies/00/342_비둘기.mp4</t>
+  </si>
+  <si>
+    <t>/movies/00/343_ 3사단, 제65 보병대대, 기동부대.mp4</t>
+  </si>
+  <si>
+    <t>/movies/00/344_포로 심문.mp4</t>
+  </si>
+  <si>
+    <t>/movies/00/345_휴전 회담 재개.mp4</t>
+  </si>
+  <si>
+    <t>/movies/00/346_포병 훈련소.mp4</t>
+  </si>
+  <si>
+    <t>/movies/00/347_교통을 통제하는 헌병대.mp4</t>
+  </si>
+  <si>
+    <t>/movies/00/348_지뢰제거 순찰.mp4</t>
+  </si>
+  <si>
+    <t>/movies/00/349_제630 공병들이 인제로의 길을 뚫다.mp4</t>
+  </si>
+  <si>
+    <t>/movies/00/350_제58 공병들이 만든 부교.mp4</t>
+  </si>
+  <si>
+    <t>/movies/00/351_난민.mp4</t>
+  </si>
+  <si>
+    <t>/movies/00/352_육군 종군 대대 전쟁포로 시설.mp4</t>
+  </si>
+  <si>
+    <t>/movies/00/353_육군야전병원 (MASH).mp4</t>
+  </si>
+  <si>
+    <t>/movies/00/354_휴전회담.mp4</t>
+  </si>
+  <si>
+    <t>/movies/00/355_휴전회담.mp4</t>
+  </si>
+  <si>
+    <t>/movies/00/356_도서관 스토크 쇼트 #1626.mp4</t>
+  </si>
+  <si>
+    <t>/movies/00/357_BIG SWITCH 작전.mp4</t>
+  </si>
+  <si>
+    <t>/movies/00/358_구축함전대 122 귀향.mp4</t>
+  </si>
+  <si>
+    <t>/movies/00/359_필름 소개 펜타곤 워싱턴 .mp4</t>
+  </si>
+  <si>
+    <t>/movies/00/360_조지 C. 마셜 국방장관 연설, 육군사관학교 졸업식, 뉴욕.mp4</t>
+  </si>
+  <si>
+    <t>/movies/00/361_유엔 안보리 검토.mp4</t>
+  </si>
+  <si>
+    <t>/movies/00/362_매슈 B 리즈웨이 장군과 J 로턴 콜린스 장군 만남.mp4</t>
+  </si>
+  <si>
+    <t>/movies/00/363_해리 S. 트루먼 대통련 독립기념일 연설, 모누멘트 그룬즈, 워싱턴, DC.mp4</t>
+  </si>
+  <si>
+    <t>/movies/00/364_미국 산업 현장 (주 정부).mp4</t>
+  </si>
+  <si>
+    <t>/movies/00/365_함대 활동 (후방지원).mp4</t>
+  </si>
+  <si>
+    <t>/movies/00/366_탱크 보병 정찰 .mp4</t>
+  </si>
+  <si>
+    <t>/movies/00/367_심리전 제 25사단 LIAISON (심리전).mp4</t>
+  </si>
+  <si>
+    <t>/movies/00/368_미국해군전함 BOXER (CV-2 탑승).mp4</t>
+  </si>
+  <si>
+    <t>/movies/00/369_아이젠하워 장군의 워싱턴 출발, 항공 수송 본부 터미널.mp4</t>
+  </si>
+  <si>
+    <t>/movies/00/370_앨번 윌리엄 바클리 부통령 기자회견.mp4</t>
+  </si>
+  <si>
+    <t>/movies/00/371_OMAR N. BRADLEY 장군 최전선 방문.mp4</t>
+  </si>
+  <si>
+    <t>/movies/00/372_포병 관측, 878 언덕.mp4</t>
+  </si>
+  <si>
+    <t>/movies/00/373_한국 현장, 서울; 제칠일안시일예수재림교회, 서울; 고아원.mp4</t>
+  </si>
+  <si>
+    <t>한국 현장, 서울; 제칠일안시일예수재림교회, 서울; 고아원
+KOREAN SCENES, SEOUL ; SEVENTH DAY ADVENTIST CHURCH, SEOUL ; ORPHANAGE</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
 </sst>
@@ -11194,13 +12326,13 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="B2:N375"/>
+  <dimension ref="B2:Q375"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" zoomScaleSheetLayoutView="75" workbookViewId="0">
       <pane xSplit="1" ySplit="2" topLeftCell="B371" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="P373" sqref="P373"/>
+      <selection pane="bottomRight" activeCell="C375" sqref="C375"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -11211,15 +12343,16 @@
     <col min="4" max="4" width="13" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="33.625" style="3" customWidth="1"/>
     <col min="6" max="7" width="19.875" style="2" customWidth="1"/>
-    <col min="8" max="8" width="13.25" customWidth="1"/>
+    <col min="8" max="8" width="57.375" customWidth="1"/>
     <col min="9" max="9" width="39.75" customWidth="1"/>
     <col min="10" max="10" width="29.875" customWidth="1"/>
     <col min="11" max="11" width="17.625" customWidth="1"/>
-    <col min="12" max="12" width="24.25" customWidth="1"/>
+    <col min="12" max="12" width="71.75" customWidth="1"/>
     <col min="13" max="13" width="29.5" customWidth="1"/>
+    <col min="17" max="17" width="99.875" style="2" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:14" ht="29.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="2:17" ht="29.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B2" s="1" t="s">
         <v>742</v>
       </c>
@@ -11247,8 +12380,11 @@
       <c r="J2" s="20" t="s">
         <v>1671</v>
       </c>
-    </row>
-    <row r="3" spans="2:14" ht="98.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="Q2" s="7" t="s">
+        <v>704</v>
+      </c>
+    </row>
+    <row r="3" spans="2:17" ht="98.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B3" s="2">
         <v>1</v>
       </c>
@@ -11288,8 +12424,14 @@
         <f xml:space="preserve"> HOUR(F3) * 3600 + MINUTE(F3) * 60 + SECOND(F3)</f>
         <v>652</v>
       </c>
-    </row>
-    <row r="4" spans="2:14" ht="130.9" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="P3" t="s">
+        <v>2048</v>
+      </c>
+      <c r="Q3" s="9" t="s">
+        <v>953</v>
+      </c>
+    </row>
+    <row r="4" spans="2:17" ht="130.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B4" s="2">
         <v>2</v>
       </c>
@@ -11329,8 +12471,14 @@
         <f t="shared" ref="N4:N67" si="2" xml:space="preserve"> HOUR(F4) * 3600 + MINUTE(F4) * 60 + SECOND(F4)</f>
         <v>517</v>
       </c>
-    </row>
-    <row r="5" spans="2:14" ht="130.9" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="P4" t="s">
+        <v>2049</v>
+      </c>
+      <c r="Q4" s="4" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="5" spans="2:17" ht="130.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B5" s="2">
         <v>3</v>
       </c>
@@ -11370,8 +12518,14 @@
         <f t="shared" si="2"/>
         <v>502</v>
       </c>
-    </row>
-    <row r="6" spans="2:14" ht="130.9" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="P5" t="s">
+        <v>2050</v>
+      </c>
+      <c r="Q5" s="4" t="s">
+        <v>891</v>
+      </c>
+    </row>
+    <row r="6" spans="2:17" ht="130.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B6" s="2">
         <v>4</v>
       </c>
@@ -11411,8 +12565,14 @@
         <f t="shared" si="2"/>
         <v>337</v>
       </c>
-    </row>
-    <row r="7" spans="2:14" ht="114.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="P6" t="s">
+        <v>2051</v>
+      </c>
+      <c r="Q6" s="4" t="s">
+        <v>867</v>
+      </c>
+    </row>
+    <row r="7" spans="2:17" ht="114.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B7" s="2">
         <v>5</v>
       </c>
@@ -11452,8 +12612,14 @@
         <f t="shared" si="2"/>
         <v>174</v>
       </c>
-    </row>
-    <row r="8" spans="2:14" ht="130.9" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="P7" t="s">
+        <v>2052</v>
+      </c>
+      <c r="Q7" s="4" t="s">
+        <v>884</v>
+      </c>
+    </row>
+    <row r="8" spans="2:17" ht="130.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B8" s="2">
         <v>6</v>
       </c>
@@ -11493,8 +12659,14 @@
         <f t="shared" si="2"/>
         <v>215</v>
       </c>
-    </row>
-    <row r="9" spans="2:14" ht="49.15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="P8" t="s">
+        <v>2053</v>
+      </c>
+      <c r="Q8" s="4" t="s">
+        <v>839</v>
+      </c>
+    </row>
+    <row r="9" spans="2:17" ht="49.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B9" s="2">
         <v>7</v>
       </c>
@@ -11534,8 +12706,14 @@
         <f t="shared" si="2"/>
         <v>663</v>
       </c>
-    </row>
-    <row r="10" spans="2:14" ht="130.9" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="P9" t="s">
+        <v>2054</v>
+      </c>
+      <c r="Q9" s="4" t="s">
+        <v>356</v>
+      </c>
+    </row>
+    <row r="10" spans="2:17" ht="130.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B10" s="2">
         <v>8</v>
       </c>
@@ -11578,8 +12756,14 @@
         <f t="shared" si="2"/>
         <v>595</v>
       </c>
-    </row>
-    <row r="11" spans="2:14" ht="130.9" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="P10" t="s">
+        <v>2055</v>
+      </c>
+      <c r="Q10" s="4" t="s">
+        <v>841</v>
+      </c>
+    </row>
+    <row r="11" spans="2:17" ht="130.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B11" s="2">
         <v>9</v>
       </c>
@@ -11622,8 +12806,14 @@
         <f t="shared" si="2"/>
         <v>595</v>
       </c>
-    </row>
-    <row r="12" spans="2:14" ht="130.9" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="P11" t="s">
+        <v>2056</v>
+      </c>
+      <c r="Q11" s="4" t="s">
+        <v>663</v>
+      </c>
+    </row>
+    <row r="12" spans="2:17" ht="130.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B12" s="2">
         <v>10</v>
       </c>
@@ -11663,8 +12853,14 @@
         <f t="shared" si="2"/>
         <v>802</v>
       </c>
-    </row>
-    <row r="13" spans="2:14" ht="130.9" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="P12" t="s">
+        <v>2057</v>
+      </c>
+      <c r="Q12" s="4" t="s">
+        <v>880</v>
+      </c>
+    </row>
+    <row r="13" spans="2:17" ht="130.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B13" s="2">
         <v>11</v>
       </c>
@@ -11704,8 +12900,14 @@
         <f t="shared" si="2"/>
         <v>674</v>
       </c>
-    </row>
-    <row r="14" spans="2:14" ht="147.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="P13" t="s">
+        <v>2058</v>
+      </c>
+      <c r="Q13" s="4" t="s">
+        <v>396</v>
+      </c>
+    </row>
+    <row r="14" spans="2:17" ht="147.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B14" s="2">
         <v>12</v>
       </c>
@@ -11745,8 +12947,14 @@
         <f t="shared" si="2"/>
         <v>457</v>
       </c>
-    </row>
-    <row r="15" spans="2:14" ht="147.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="P14" t="s">
+        <v>2059</v>
+      </c>
+      <c r="Q14" s="4" t="s">
+        <v>808</v>
+      </c>
+    </row>
+    <row r="15" spans="2:17" ht="147.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B15" s="2">
         <v>13</v>
       </c>
@@ -11786,8 +12994,14 @@
         <f t="shared" si="2"/>
         <v>497</v>
       </c>
-    </row>
-    <row r="16" spans="2:14" ht="114.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="P15" t="s">
+        <v>2060</v>
+      </c>
+      <c r="Q15" s="4" t="s">
+        <v>808</v>
+      </c>
+    </row>
+    <row r="16" spans="2:17" ht="114.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B16" s="2">
         <v>14</v>
       </c>
@@ -11827,8 +13041,14 @@
         <f t="shared" si="2"/>
         <v>590</v>
       </c>
-    </row>
-    <row r="17" spans="2:14" ht="114.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="P16" t="s">
+        <v>2061</v>
+      </c>
+      <c r="Q16" s="4" t="s">
+        <v>808</v>
+      </c>
+    </row>
+    <row r="17" spans="2:17" ht="114.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B17" s="2">
         <v>15</v>
       </c>
@@ -11868,8 +13088,14 @@
         <f t="shared" si="2"/>
         <v>649</v>
       </c>
-    </row>
-    <row r="18" spans="2:14" ht="81.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="P17" t="s">
+        <v>2062</v>
+      </c>
+      <c r="Q17" s="4" t="s">
+        <v>664</v>
+      </c>
+    </row>
+    <row r="18" spans="2:17" ht="81.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B18" s="2">
         <v>16</v>
       </c>
@@ -11909,8 +13135,14 @@
         <f t="shared" si="2"/>
         <v>185</v>
       </c>
-    </row>
-    <row r="19" spans="2:14" ht="98.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="P18" t="s">
+        <v>2063</v>
+      </c>
+      <c r="Q18" s="4" t="s">
+        <v>604</v>
+      </c>
+    </row>
+    <row r="19" spans="2:17" ht="98.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B19" s="2">
         <v>17</v>
       </c>
@@ -11950,8 +13182,14 @@
         <f t="shared" si="2"/>
         <v>956</v>
       </c>
-    </row>
-    <row r="20" spans="2:14" ht="130.9" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="P19" t="s">
+        <v>2064</v>
+      </c>
+      <c r="Q19" s="4" t="s">
+        <v>796</v>
+      </c>
+    </row>
+    <row r="20" spans="2:17" ht="130.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B20" s="2">
         <v>18</v>
       </c>
@@ -11991,8 +13229,14 @@
         <f t="shared" si="2"/>
         <v>413</v>
       </c>
-    </row>
-    <row r="21" spans="2:14" ht="65.650000000000006" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="P20" t="s">
+        <v>2065</v>
+      </c>
+      <c r="Q20" s="4" t="s">
+        <v>831</v>
+      </c>
+    </row>
+    <row r="21" spans="2:17" ht="65.650000000000006" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B21" s="2">
         <v>19</v>
       </c>
@@ -12032,8 +13276,14 @@
         <f t="shared" si="2"/>
         <v>101</v>
       </c>
-    </row>
-    <row r="22" spans="2:14" ht="130.9" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="P21" t="s">
+        <v>2066</v>
+      </c>
+      <c r="Q21" s="4" t="s">
+        <v>362</v>
+      </c>
+    </row>
+    <row r="22" spans="2:17" ht="130.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B22" s="2">
         <v>20</v>
       </c>
@@ -12073,8 +13323,14 @@
         <f t="shared" si="2"/>
         <v>495</v>
       </c>
-    </row>
-    <row r="23" spans="2:14" ht="130.9" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="P22" t="s">
+        <v>2067</v>
+      </c>
+      <c r="Q22" s="4" t="s">
+        <v>849</v>
+      </c>
+    </row>
+    <row r="23" spans="2:17" ht="130.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B23" s="2">
         <v>21</v>
       </c>
@@ -12114,8 +13370,14 @@
         <f t="shared" si="2"/>
         <v>605</v>
       </c>
-    </row>
-    <row r="24" spans="2:14" ht="114.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="P23" t="s">
+        <v>2068</v>
+      </c>
+      <c r="Q23" s="4" t="s">
+        <v>804</v>
+      </c>
+    </row>
+    <row r="24" spans="2:17" ht="114.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B24" s="2">
         <v>22</v>
       </c>
@@ -12155,8 +13417,14 @@
         <f t="shared" si="2"/>
         <v>597</v>
       </c>
-    </row>
-    <row r="25" spans="2:14" ht="130.9" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="P24" t="s">
+        <v>2069</v>
+      </c>
+      <c r="Q24" s="4" t="s">
+        <v>363</v>
+      </c>
+    </row>
+    <row r="25" spans="2:17" ht="130.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B25" s="2">
         <v>23</v>
       </c>
@@ -12196,8 +13464,14 @@
         <f t="shared" si="2"/>
         <v>592</v>
       </c>
-    </row>
-    <row r="26" spans="2:14" ht="98.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="P25" t="s">
+        <v>2070</v>
+      </c>
+      <c r="Q25" s="4" t="s">
+        <v>605</v>
+      </c>
+    </row>
+    <row r="26" spans="2:17" ht="98.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B26" s="2">
         <v>24</v>
       </c>
@@ -12237,8 +13511,14 @@
         <f t="shared" si="2"/>
         <v>442</v>
       </c>
-    </row>
-    <row r="27" spans="2:14" ht="147.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="P26" t="s">
+        <v>2071</v>
+      </c>
+      <c r="Q26" s="4" t="s">
+        <v>881</v>
+      </c>
+    </row>
+    <row r="27" spans="2:17" ht="147.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B27" s="2">
         <v>25</v>
       </c>
@@ -12278,8 +13558,14 @@
         <f t="shared" si="2"/>
         <v>573</v>
       </c>
-    </row>
-    <row r="28" spans="2:14" ht="163.69999999999999" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="P27" t="s">
+        <v>2072</v>
+      </c>
+      <c r="Q27" s="4" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="28" spans="2:17" ht="163.69999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B28" s="2">
         <v>26</v>
       </c>
@@ -12319,8 +13605,14 @@
         <f t="shared" si="2"/>
         <v>660</v>
       </c>
-    </row>
-    <row r="29" spans="2:14" ht="98.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="P28" t="s">
+        <v>2073</v>
+      </c>
+      <c r="Q28" s="4" t="s">
+        <v>886</v>
+      </c>
+    </row>
+    <row r="29" spans="2:17" ht="98.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B29" s="2">
         <v>27</v>
       </c>
@@ -12360,8 +13652,14 @@
         <f t="shared" si="2"/>
         <v>556</v>
       </c>
-    </row>
-    <row r="30" spans="2:14" ht="130.9" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="P29" t="s">
+        <v>2074</v>
+      </c>
+      <c r="Q29" s="4" t="s">
+        <v>355</v>
+      </c>
+    </row>
+    <row r="30" spans="2:17" ht="130.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B30" s="2">
         <v>28</v>
       </c>
@@ -12401,8 +13699,14 @@
         <f t="shared" si="2"/>
         <v>559</v>
       </c>
-    </row>
-    <row r="31" spans="2:14" ht="163.69999999999999" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="P30" t="s">
+        <v>2075</v>
+      </c>
+      <c r="Q30" s="4" t="s">
+        <v>358</v>
+      </c>
+    </row>
+    <row r="31" spans="2:17" ht="163.69999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B31" s="2">
         <v>29</v>
       </c>
@@ -12442,8 +13746,14 @@
         <f t="shared" si="2"/>
         <v>411</v>
       </c>
-    </row>
-    <row r="32" spans="2:14" ht="130.9" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="P31" t="s">
+        <v>2076</v>
+      </c>
+      <c r="Q31" s="4" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="32" spans="2:17" ht="130.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B32" s="2">
         <v>30</v>
       </c>
@@ -12483,8 +13793,14 @@
         <f t="shared" si="2"/>
         <v>417</v>
       </c>
-    </row>
-    <row r="33" spans="2:14" ht="98.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="P32" t="s">
+        <v>2077</v>
+      </c>
+      <c r="Q32" s="4" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="33" spans="2:17" ht="98.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B33" s="2">
         <v>31</v>
       </c>
@@ -12524,8 +13840,14 @@
         <f t="shared" si="2"/>
         <v>216</v>
       </c>
-    </row>
-    <row r="34" spans="2:14" ht="81.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="P33" t="s">
+        <v>2078</v>
+      </c>
+      <c r="Q33" s="4" t="s">
+        <v>795</v>
+      </c>
+    </row>
+    <row r="34" spans="2:17" ht="81.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B34" s="2">
         <v>32</v>
       </c>
@@ -12565,8 +13887,14 @@
         <f t="shared" si="2"/>
         <v>224</v>
       </c>
-    </row>
-    <row r="35" spans="2:14" ht="130.9" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="P34" t="s">
+        <v>2079</v>
+      </c>
+      <c r="Q34" s="4" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="35" spans="2:17" ht="130.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B35" s="2">
         <v>33</v>
       </c>
@@ -12606,8 +13934,14 @@
         <f t="shared" si="2"/>
         <v>634</v>
       </c>
-    </row>
-    <row r="36" spans="2:14" ht="130.9" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="P35" t="s">
+        <v>2080</v>
+      </c>
+      <c r="Q35" s="4" t="s">
+        <v>760</v>
+      </c>
+    </row>
+    <row r="36" spans="2:17" ht="130.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B36" s="2">
         <v>34</v>
       </c>
@@ -12647,8 +13981,14 @@
         <f t="shared" si="2"/>
         <v>203</v>
       </c>
-    </row>
-    <row r="37" spans="2:14" ht="114.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="P36" t="s">
+        <v>2081</v>
+      </c>
+      <c r="Q36" s="4" t="s">
+        <v>665</v>
+      </c>
+    </row>
+    <row r="37" spans="2:17" ht="114.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B37" s="2">
         <v>35</v>
       </c>
@@ -12688,8 +14028,14 @@
         <f t="shared" si="2"/>
         <v>204</v>
       </c>
-    </row>
-    <row r="38" spans="2:14" ht="163.69999999999999" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="P37" t="s">
+        <v>2082</v>
+      </c>
+      <c r="Q37" s="4" t="s">
+        <v>887</v>
+      </c>
+    </row>
+    <row r="38" spans="2:17" ht="163.69999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B38" s="2">
         <v>36</v>
       </c>
@@ -12729,8 +14075,14 @@
         <f t="shared" si="2"/>
         <v>205</v>
       </c>
-    </row>
-    <row r="39" spans="2:14" ht="212.85" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="P38" t="s">
+        <v>2083</v>
+      </c>
+      <c r="Q38" s="4" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="2:17" ht="212.85" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B39" s="15">
         <v>37</v>
       </c>
@@ -12773,8 +14125,14 @@
         <f t="shared" si="2"/>
         <v>680</v>
       </c>
-    </row>
-    <row r="40" spans="2:14" ht="180.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="P39" t="s">
+        <v>2084</v>
+      </c>
+      <c r="Q39" s="18" t="s">
+        <v>1663</v>
+      </c>
+    </row>
+    <row r="40" spans="2:17" ht="180.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B40" s="2">
         <v>38</v>
       </c>
@@ -12814,8 +14172,14 @@
         <f t="shared" si="2"/>
         <v>552</v>
       </c>
-    </row>
-    <row r="41" spans="2:14" ht="147.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="P40" t="s">
+        <v>2085</v>
+      </c>
+      <c r="Q40" s="4" t="s">
+        <v>700</v>
+      </c>
+    </row>
+    <row r="41" spans="2:17" ht="147.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B41" s="15">
         <v>39</v>
       </c>
@@ -12858,8 +14222,14 @@
         <f t="shared" si="2"/>
         <v>531</v>
       </c>
-    </row>
-    <row r="42" spans="2:14" ht="163.69999999999999" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="P41" t="s">
+        <v>2086</v>
+      </c>
+      <c r="Q41" s="18" t="s">
+        <v>1031</v>
+      </c>
+    </row>
+    <row r="42" spans="2:17" ht="163.69999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B42" s="2">
         <v>40</v>
       </c>
@@ -12899,8 +14269,14 @@
         <f t="shared" si="2"/>
         <v>684</v>
       </c>
-    </row>
-    <row r="43" spans="2:14" ht="98.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="P42" t="s">
+        <v>2087</v>
+      </c>
+      <c r="Q42" s="12" t="s">
+        <v>1032</v>
+      </c>
+    </row>
+    <row r="43" spans="2:17" ht="98.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B43" s="2">
         <v>41</v>
       </c>
@@ -12940,8 +14316,14 @@
         <f t="shared" si="2"/>
         <v>684</v>
       </c>
-    </row>
-    <row r="44" spans="2:14" ht="98.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="P43" t="s">
+        <v>2088</v>
+      </c>
+      <c r="Q43" s="4" t="s">
+        <v>875</v>
+      </c>
+    </row>
+    <row r="44" spans="2:17" ht="98.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B44" s="2">
         <v>42</v>
       </c>
@@ -12981,8 +14363,14 @@
         <f t="shared" si="2"/>
         <v>793</v>
       </c>
-    </row>
-    <row r="45" spans="2:14" ht="147.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="P44" t="s">
+        <v>2089</v>
+      </c>
+      <c r="Q44" s="4" t="s">
+        <v>930</v>
+      </c>
+    </row>
+    <row r="45" spans="2:17" ht="147.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B45" s="2">
         <v>43</v>
       </c>
@@ -13022,8 +14410,14 @@
         <f t="shared" si="2"/>
         <v>341</v>
       </c>
-    </row>
-    <row r="46" spans="2:14" ht="278.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="P45" t="s">
+        <v>2090</v>
+      </c>
+      <c r="Q45" s="4" t="s">
+        <v>359</v>
+      </c>
+    </row>
+    <row r="46" spans="2:17" ht="278.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B46" s="2">
         <v>44</v>
       </c>
@@ -13066,8 +14460,14 @@
         <f t="shared" si="2"/>
         <v>657</v>
       </c>
-    </row>
-    <row r="47" spans="2:14" ht="98.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="P46" t="s">
+        <v>2091</v>
+      </c>
+      <c r="Q46" s="4" t="s">
+        <v>933</v>
+      </c>
+    </row>
+    <row r="47" spans="2:17" ht="98.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B47" s="2">
         <v>45</v>
       </c>
@@ -13110,8 +14510,14 @@
         <f t="shared" si="2"/>
         <v>657</v>
       </c>
-    </row>
-    <row r="48" spans="2:14" ht="229.15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="P47" t="s">
+        <v>2092</v>
+      </c>
+      <c r="Q47" s="4" t="s">
+        <v>930</v>
+      </c>
+    </row>
+    <row r="48" spans="2:17" ht="229.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B48" s="2">
         <v>46</v>
       </c>
@@ -13151,8 +14557,14 @@
         <f t="shared" si="2"/>
         <v>670</v>
       </c>
-    </row>
-    <row r="49" spans="2:14" ht="180.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="P48" t="s">
+        <v>2093</v>
+      </c>
+      <c r="Q48" s="4" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="49" spans="2:17" ht="180.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B49" s="2">
         <v>47</v>
       </c>
@@ -13192,8 +14604,14 @@
         <f t="shared" si="2"/>
         <v>413</v>
       </c>
-    </row>
-    <row r="50" spans="2:14" ht="147.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="P49" t="s">
+        <v>2094</v>
+      </c>
+      <c r="Q49" s="4" t="s">
+        <v>927</v>
+      </c>
+    </row>
+    <row r="50" spans="2:17" ht="147.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B50" s="2">
         <v>48</v>
       </c>
@@ -13233,8 +14651,14 @@
         <f t="shared" si="2"/>
         <v>605</v>
       </c>
-    </row>
-    <row r="51" spans="2:14" ht="114.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="P50" t="s">
+        <v>2095</v>
+      </c>
+      <c r="Q50" s="4" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="51" spans="2:17" ht="114.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B51" s="2">
         <v>49</v>
       </c>
@@ -13274,8 +14698,14 @@
         <f t="shared" si="2"/>
         <v>527</v>
       </c>
-    </row>
-    <row r="52" spans="2:14" ht="98.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="P51" t="s">
+        <v>2096</v>
+      </c>
+      <c r="Q51" s="4" t="s">
+        <v>929</v>
+      </c>
+    </row>
+    <row r="52" spans="2:17" ht="98.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B52" s="2">
         <v>50</v>
       </c>
@@ -13315,8 +14745,14 @@
         <f t="shared" si="2"/>
         <v>461</v>
       </c>
-    </row>
-    <row r="53" spans="2:14" ht="147.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="P52" t="s">
+        <v>2097</v>
+      </c>
+      <c r="Q52" s="4" t="s">
+        <v>929</v>
+      </c>
+    </row>
+    <row r="53" spans="2:17" ht="147.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B53" s="2">
         <v>51</v>
       </c>
@@ -13356,8 +14792,14 @@
         <f t="shared" si="2"/>
         <v>580</v>
       </c>
-    </row>
-    <row r="54" spans="2:14" ht="147.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="P53" t="s">
+        <v>2098</v>
+      </c>
+      <c r="Q53" s="4" t="s">
+        <v>947</v>
+      </c>
+    </row>
+    <row r="54" spans="2:17" ht="147.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B54" s="2">
         <v>52</v>
       </c>
@@ -13397,8 +14839,14 @@
         <f t="shared" si="2"/>
         <v>151</v>
       </c>
-    </row>
-    <row r="55" spans="2:14" ht="81.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="P54" t="s">
+        <v>2099</v>
+      </c>
+      <c r="Q54" s="4" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="55" spans="2:17" ht="81.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B55" s="2">
         <v>53</v>
       </c>
@@ -13438,8 +14886,14 @@
         <f t="shared" si="2"/>
         <v>116</v>
       </c>
-    </row>
-    <row r="56" spans="2:14" ht="180.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="P55" t="s">
+        <v>2100</v>
+      </c>
+      <c r="Q55" s="4" t="s">
+        <v>864</v>
+      </c>
+    </row>
+    <row r="56" spans="2:17" ht="180.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B56" s="2">
         <v>54</v>
       </c>
@@ -13479,8 +14933,14 @@
         <f t="shared" si="2"/>
         <v>223</v>
       </c>
-    </row>
-    <row r="57" spans="2:14" ht="180.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="P56" t="s">
+        <v>2101</v>
+      </c>
+      <c r="Q56" s="4" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="57" spans="2:17" ht="180.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B57" s="2">
         <v>55</v>
       </c>
@@ -13520,8 +14980,14 @@
         <f t="shared" si="2"/>
         <v>585</v>
       </c>
-    </row>
-    <row r="58" spans="2:14" ht="130.9" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="P57" t="s">
+        <v>2102</v>
+      </c>
+      <c r="Q57" s="4" t="s">
+        <v>865</v>
+      </c>
+    </row>
+    <row r="58" spans="2:17" ht="130.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B58" s="2">
         <v>56</v>
       </c>
@@ -13564,8 +15030,14 @@
         <f t="shared" si="2"/>
         <v>214</v>
       </c>
-    </row>
-    <row r="59" spans="2:14" ht="114.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="P58" t="s">
+        <v>2103</v>
+      </c>
+      <c r="Q58" s="4" t="s">
+        <v>869</v>
+      </c>
+    </row>
+    <row r="59" spans="2:17" ht="114.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B59" s="2">
         <v>57</v>
       </c>
@@ -13608,8 +15080,14 @@
         <f t="shared" si="2"/>
         <v>214</v>
       </c>
-    </row>
-    <row r="60" spans="2:14" ht="261.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="P59" t="s">
+        <v>2104</v>
+      </c>
+      <c r="Q59" s="4" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="60" spans="2:17" ht="261.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B60" s="2">
         <v>58</v>
       </c>
@@ -13649,8 +15127,14 @@
         <f t="shared" si="2"/>
         <v>500</v>
       </c>
-    </row>
-    <row r="61" spans="2:14" ht="130.9" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="P60" t="s">
+        <v>2105</v>
+      </c>
+      <c r="Q60" s="4" t="s">
+        <v>946</v>
+      </c>
+    </row>
+    <row r="61" spans="2:17" ht="130.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B61" s="2">
         <v>59</v>
       </c>
@@ -13690,8 +15174,14 @@
         <f t="shared" si="2"/>
         <v>678</v>
       </c>
-    </row>
-    <row r="62" spans="2:14" ht="163.69999999999999" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="P61" t="s">
+        <v>2106</v>
+      </c>
+      <c r="Q61" s="4" t="s">
+        <v>815</v>
+      </c>
+    </row>
+    <row r="62" spans="2:17" ht="163.69999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B62" s="2">
         <v>60</v>
       </c>
@@ -13731,8 +15221,14 @@
         <f t="shared" si="2"/>
         <v>420</v>
       </c>
-    </row>
-    <row r="63" spans="2:14" ht="147.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="P62" t="s">
+        <v>2107</v>
+      </c>
+      <c r="Q62" s="4" t="s">
+        <v>919</v>
+      </c>
+    </row>
+    <row r="63" spans="2:17" ht="147.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B63" s="2">
         <v>61</v>
       </c>
@@ -13772,8 +15268,14 @@
         <f t="shared" si="2"/>
         <v>634</v>
       </c>
-    </row>
-    <row r="64" spans="2:14" ht="229.15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="P63" t="s">
+        <v>2108</v>
+      </c>
+      <c r="Q63" s="4" t="s">
+        <v>813</v>
+      </c>
+    </row>
+    <row r="64" spans="2:17" ht="229.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B64" s="2">
         <v>62</v>
       </c>
@@ -13813,8 +15315,14 @@
         <f t="shared" si="2"/>
         <v>588</v>
       </c>
-    </row>
-    <row r="65" spans="2:14" ht="147.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="P64" t="s">
+        <v>2109</v>
+      </c>
+      <c r="Q64" s="4" t="s">
+        <v>812</v>
+      </c>
+    </row>
+    <row r="65" spans="2:17" ht="147.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B65" s="2">
         <v>63</v>
       </c>
@@ -13854,8 +15362,14 @@
         <f t="shared" si="2"/>
         <v>282</v>
       </c>
-    </row>
-    <row r="66" spans="2:14" ht="196.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="P65" t="s">
+        <v>2110</v>
+      </c>
+      <c r="Q65" s="4" t="s">
+        <v>814</v>
+      </c>
+    </row>
+    <row r="66" spans="2:17" ht="196.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B66" s="2">
         <v>64</v>
       </c>
@@ -13895,8 +15409,14 @@
         <f t="shared" si="2"/>
         <v>401</v>
       </c>
-    </row>
-    <row r="67" spans="2:14" ht="147.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="P66" t="s">
+        <v>2111</v>
+      </c>
+      <c r="Q66" s="4" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="67" spans="2:17" ht="147.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B67" s="2">
         <v>65</v>
       </c>
@@ -13936,8 +15456,14 @@
         <f t="shared" si="2"/>
         <v>511</v>
       </c>
-    </row>
-    <row r="68" spans="2:14" ht="130.9" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="P67" t="s">
+        <v>2112</v>
+      </c>
+      <c r="Q67" s="4" t="s">
+        <v>856</v>
+      </c>
+    </row>
+    <row r="68" spans="2:17" ht="130.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B68" s="2">
         <v>66</v>
       </c>
@@ -13977,8 +15503,14 @@
         <f t="shared" ref="N68:N131" si="5" xml:space="preserve"> HOUR(F68) * 3600 + MINUTE(F68) * 60 + SECOND(F68)</f>
         <v>670</v>
       </c>
-    </row>
-    <row r="69" spans="2:14" ht="261.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="P68" t="s">
+        <v>2113</v>
+      </c>
+      <c r="Q68" s="4" t="s">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="69" spans="2:17" ht="261.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B69" s="2">
         <v>67</v>
       </c>
@@ -14018,8 +15550,14 @@
         <f t="shared" si="5"/>
         <v>652</v>
       </c>
-    </row>
-    <row r="70" spans="2:14" ht="163.69999999999999" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="P69" t="s">
+        <v>2114</v>
+      </c>
+      <c r="Q69" s="4" t="s">
+        <v>944</v>
+      </c>
+    </row>
+    <row r="70" spans="2:17" ht="163.69999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B70" s="2">
         <v>68</v>
       </c>
@@ -14059,8 +15597,14 @@
         <f t="shared" si="5"/>
         <v>603</v>
       </c>
-    </row>
-    <row r="71" spans="2:14" ht="147.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="P70" t="s">
+        <v>2115</v>
+      </c>
+      <c r="Q70" s="4" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="71" spans="2:17" ht="147.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B71" s="2">
         <v>69</v>
       </c>
@@ -14100,8 +15644,14 @@
         <f t="shared" si="5"/>
         <v>661</v>
       </c>
-    </row>
-    <row r="72" spans="2:14" ht="147.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="P71" t="s">
+        <v>2116</v>
+      </c>
+      <c r="Q71" s="4" t="s">
+        <v>759</v>
+      </c>
+    </row>
+    <row r="72" spans="2:17" ht="147.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B72" s="2">
         <v>70</v>
       </c>
@@ -14141,8 +15691,14 @@
         <f t="shared" si="5"/>
         <v>659</v>
       </c>
-    </row>
-    <row r="73" spans="2:14" ht="163.69999999999999" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="P72" t="s">
+        <v>2117</v>
+      </c>
+      <c r="Q72" s="4" t="s">
+        <v>892</v>
+      </c>
+    </row>
+    <row r="73" spans="2:17" ht="163.69999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B73" s="2">
         <v>71</v>
       </c>
@@ -14182,8 +15738,14 @@
         <f t="shared" si="5"/>
         <v>493</v>
       </c>
-    </row>
-    <row r="74" spans="2:14" ht="81.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="P73" t="s">
+        <v>2118</v>
+      </c>
+      <c r="Q73" s="4" t="s">
+        <v>850</v>
+      </c>
+    </row>
+    <row r="74" spans="2:17" ht="81.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B74" s="2">
         <v>72</v>
       </c>
@@ -14223,8 +15785,14 @@
         <f t="shared" si="5"/>
         <v>304</v>
       </c>
-    </row>
-    <row r="75" spans="2:14" ht="98.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="P74" t="s">
+        <v>2119</v>
+      </c>
+      <c r="Q74" s="4" t="s">
+        <v>866</v>
+      </c>
+    </row>
+    <row r="75" spans="2:17" ht="98.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B75" s="2">
         <v>73</v>
       </c>
@@ -14264,8 +15832,14 @@
         <f t="shared" si="5"/>
         <v>538</v>
       </c>
-    </row>
-    <row r="76" spans="2:14" ht="147.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="P75" t="s">
+        <v>2120</v>
+      </c>
+      <c r="Q75" s="4" t="s">
+        <v>935</v>
+      </c>
+    </row>
+    <row r="76" spans="2:17" ht="147.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B76" s="2">
         <v>74</v>
       </c>
@@ -14305,8 +15879,14 @@
         <f t="shared" si="5"/>
         <v>405</v>
       </c>
-    </row>
-    <row r="77" spans="2:14" ht="147.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="P76" t="s">
+        <v>2121</v>
+      </c>
+      <c r="Q76" s="4" t="s">
+        <v>863</v>
+      </c>
+    </row>
+    <row r="77" spans="2:17" ht="147.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B77" s="2">
         <v>75</v>
       </c>
@@ -14346,8 +15926,14 @@
         <f t="shared" si="5"/>
         <v>558</v>
       </c>
-    </row>
-    <row r="78" spans="2:14" ht="147.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="P77" t="s">
+        <v>2122</v>
+      </c>
+      <c r="Q77" s="4" t="s">
+        <v>357</v>
+      </c>
+    </row>
+    <row r="78" spans="2:17" ht="147.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B78" s="2">
         <v>76</v>
       </c>
@@ -14387,8 +15973,14 @@
         <f t="shared" si="5"/>
         <v>582</v>
       </c>
-    </row>
-    <row r="79" spans="2:14" ht="81.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="P78" t="s">
+        <v>2123</v>
+      </c>
+      <c r="Q78" s="4" t="s">
+        <v>899</v>
+      </c>
+    </row>
+    <row r="79" spans="2:17" ht="81.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B79" s="2">
         <v>77</v>
       </c>
@@ -14428,8 +16020,14 @@
         <f t="shared" si="5"/>
         <v>480</v>
       </c>
-    </row>
-    <row r="80" spans="2:14" ht="49.15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="P79" t="s">
+        <v>2124</v>
+      </c>
+      <c r="Q79" s="4" t="s">
+        <v>932</v>
+      </c>
+    </row>
+    <row r="80" spans="2:17" ht="49.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B80" s="2">
         <v>78</v>
       </c>
@@ -14469,8 +16067,14 @@
         <f t="shared" si="5"/>
         <v>633</v>
       </c>
-    </row>
-    <row r="81" spans="2:14" ht="98.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="P80" t="s">
+        <v>2125</v>
+      </c>
+      <c r="Q80" s="4" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="81" spans="2:17" ht="98.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B81" s="2">
         <v>79</v>
       </c>
@@ -14510,8 +16114,14 @@
         <f t="shared" si="5"/>
         <v>667</v>
       </c>
-    </row>
-    <row r="82" spans="2:14" ht="98.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="P81" t="s">
+        <v>2126</v>
+      </c>
+      <c r="Q81" s="4" t="s">
+        <v>945</v>
+      </c>
+    </row>
+    <row r="82" spans="2:17" ht="98.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B82" s="2">
         <v>80</v>
       </c>
@@ -14551,8 +16161,14 @@
         <f t="shared" si="5"/>
         <v>568</v>
       </c>
-    </row>
-    <row r="83" spans="2:14" ht="114.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="P82" t="s">
+        <v>2127</v>
+      </c>
+      <c r="Q82" s="4" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="83" spans="2:17" ht="114.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B83" s="2">
         <v>81</v>
       </c>
@@ -14592,8 +16208,14 @@
         <f t="shared" si="5"/>
         <v>224</v>
       </c>
-    </row>
-    <row r="84" spans="2:14" ht="180.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="P83" t="s">
+        <v>2128</v>
+      </c>
+      <c r="Q83" s="4" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="84" spans="2:17" ht="180.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B84" s="2">
         <v>82</v>
       </c>
@@ -14633,8 +16255,14 @@
         <f t="shared" si="5"/>
         <v>725</v>
       </c>
-    </row>
-    <row r="85" spans="2:14" ht="163.69999999999999" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="P84" t="s">
+        <v>2129</v>
+      </c>
+      <c r="Q84" s="4" t="s">
+        <v>747</v>
+      </c>
+    </row>
+    <row r="85" spans="2:17" ht="163.69999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B85" s="2">
         <v>83</v>
       </c>
@@ -14674,8 +16302,14 @@
         <f t="shared" si="5"/>
         <v>688</v>
       </c>
-    </row>
-    <row r="86" spans="2:14" ht="163.69999999999999" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="P85" t="s">
+        <v>2130</v>
+      </c>
+      <c r="Q85" s="4" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="86" spans="2:17" ht="163.69999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B86" s="2">
         <v>84</v>
       </c>
@@ -14715,8 +16349,14 @@
         <f t="shared" si="5"/>
         <v>537</v>
       </c>
-    </row>
-    <row r="87" spans="2:14" ht="130.9" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="P86" t="s">
+        <v>2131</v>
+      </c>
+      <c r="Q86" s="4" t="s">
+        <v>829</v>
+      </c>
+    </row>
+    <row r="87" spans="2:17" ht="130.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B87" s="2">
         <v>85</v>
       </c>
@@ -14756,8 +16396,14 @@
         <f t="shared" si="5"/>
         <v>348</v>
       </c>
-    </row>
-    <row r="88" spans="2:14" ht="180.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="P87" t="s">
+        <v>2132</v>
+      </c>
+      <c r="Q87" s="4" t="s">
+        <v>848</v>
+      </c>
+    </row>
+    <row r="88" spans="2:17" ht="180.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B88" s="2">
         <v>86</v>
       </c>
@@ -14797,8 +16443,14 @@
         <f t="shared" si="5"/>
         <v>345</v>
       </c>
-    </row>
-    <row r="89" spans="2:14" ht="130.9" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="P88" t="s">
+        <v>2133</v>
+      </c>
+      <c r="Q88" s="4" t="s">
+        <v>830</v>
+      </c>
+    </row>
+    <row r="89" spans="2:17" ht="130.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B89" s="2">
         <v>87</v>
       </c>
@@ -14838,8 +16490,14 @@
         <f t="shared" si="5"/>
         <v>748</v>
       </c>
-    </row>
-    <row r="90" spans="2:14" ht="114.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="P89" t="s">
+        <v>2134</v>
+      </c>
+      <c r="Q89" s="4" t="s">
+        <v>930</v>
+      </c>
+    </row>
+    <row r="90" spans="2:17" ht="114.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B90" s="2">
         <v>88</v>
       </c>
@@ -14879,8 +16537,14 @@
         <f t="shared" si="5"/>
         <v>515</v>
       </c>
-    </row>
-    <row r="91" spans="2:14" ht="163.69999999999999" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="P90" t="s">
+        <v>2135</v>
+      </c>
+      <c r="Q90" s="4" t="s">
+        <v>904</v>
+      </c>
+    </row>
+    <row r="91" spans="2:17" ht="163.69999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B91" s="2">
         <v>89</v>
       </c>
@@ -14920,8 +16584,14 @@
         <f t="shared" si="5"/>
         <v>464</v>
       </c>
-    </row>
-    <row r="92" spans="2:14" ht="147.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="P91" t="s">
+        <v>2136</v>
+      </c>
+      <c r="Q91" s="4" t="s">
+        <v>853</v>
+      </c>
+    </row>
+    <row r="92" spans="2:17" ht="147.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B92" s="2">
         <v>90</v>
       </c>
@@ -14961,8 +16631,14 @@
         <f t="shared" si="5"/>
         <v>661</v>
       </c>
-    </row>
-    <row r="93" spans="2:14" ht="130.9" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="P92" t="s">
+        <v>2137</v>
+      </c>
+      <c r="Q92" s="4" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="93" spans="2:17" ht="130.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B93" s="2">
         <v>91</v>
       </c>
@@ -15002,8 +16678,14 @@
         <f t="shared" si="5"/>
         <v>661</v>
       </c>
-    </row>
-    <row r="94" spans="2:14" ht="212.85" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="P93" t="s">
+        <v>2138</v>
+      </c>
+      <c r="Q93" s="4" t="s">
+        <v>915</v>
+      </c>
+    </row>
+    <row r="94" spans="2:17" ht="212.85" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B94" s="2">
         <v>92</v>
       </c>
@@ -15043,8 +16725,14 @@
         <f t="shared" si="5"/>
         <v>1612</v>
       </c>
-    </row>
-    <row r="95" spans="2:14" ht="180.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="P94" t="s">
+        <v>2139</v>
+      </c>
+      <c r="Q94" s="4" t="s">
+        <v>902</v>
+      </c>
+    </row>
+    <row r="95" spans="2:17" ht="180.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B95" s="2">
         <v>93</v>
       </c>
@@ -15084,8 +16772,14 @@
         <f t="shared" si="5"/>
         <v>405</v>
       </c>
-    </row>
-    <row r="96" spans="2:14" ht="147.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="P95" t="s">
+        <v>2140</v>
+      </c>
+      <c r="Q95" s="4" t="s">
+        <v>762</v>
+      </c>
+    </row>
+    <row r="96" spans="2:17" ht="147.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B96" s="2">
         <v>94</v>
       </c>
@@ -15125,8 +16819,14 @@
         <f t="shared" si="5"/>
         <v>615</v>
       </c>
-    </row>
-    <row r="97" spans="2:14" ht="98.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="P96" t="s">
+        <v>2141</v>
+      </c>
+      <c r="Q96" s="4" t="s">
+        <v>763</v>
+      </c>
+    </row>
+    <row r="97" spans="2:17" ht="98.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B97" s="2">
         <v>95</v>
       </c>
@@ -15166,8 +16866,14 @@
         <f t="shared" si="5"/>
         <v>450</v>
       </c>
-    </row>
-    <row r="98" spans="2:14" ht="229.15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="P97" t="s">
+        <v>2142</v>
+      </c>
+      <c r="Q97" s="4" t="s">
+        <v>918</v>
+      </c>
+    </row>
+    <row r="98" spans="2:17" ht="229.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B98" s="2">
         <v>96</v>
       </c>
@@ -15207,8 +16913,14 @@
         <f t="shared" si="5"/>
         <v>265</v>
       </c>
-    </row>
-    <row r="99" spans="2:14" ht="98.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="P98" t="s">
+        <v>2143</v>
+      </c>
+      <c r="Q98" s="4" t="s">
+        <v>902</v>
+      </c>
+    </row>
+    <row r="99" spans="2:17" ht="98.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B99" s="2">
         <v>97</v>
       </c>
@@ -15248,8 +16960,14 @@
         <f t="shared" si="5"/>
         <v>710</v>
       </c>
-    </row>
-    <row r="100" spans="2:14" ht="147.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="P99" t="s">
+        <v>2144</v>
+      </c>
+      <c r="Q99" s="4" t="s">
+        <v>901</v>
+      </c>
+    </row>
+    <row r="100" spans="2:17" ht="147.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B100" s="2">
         <v>98</v>
       </c>
@@ -15289,8 +17007,14 @@
         <f t="shared" si="5"/>
         <v>419</v>
       </c>
-    </row>
-    <row r="101" spans="2:14" ht="163.69999999999999" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="P100" t="s">
+        <v>2145</v>
+      </c>
+      <c r="Q100" s="4" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="101" spans="2:17" ht="163.69999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B101" s="2">
         <v>99</v>
       </c>
@@ -15330,8 +17054,14 @@
         <f t="shared" si="5"/>
         <v>330</v>
       </c>
-    </row>
-    <row r="102" spans="2:14" ht="65.650000000000006" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="P101" t="s">
+        <v>2146</v>
+      </c>
+      <c r="Q101" s="4" t="s">
+        <v>928</v>
+      </c>
+    </row>
+    <row r="102" spans="2:17" ht="65.650000000000006" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B102" s="2">
         <v>100</v>
       </c>
@@ -15371,8 +17101,14 @@
         <f t="shared" si="5"/>
         <v>361</v>
       </c>
-    </row>
-    <row r="103" spans="2:14" ht="130.9" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="P102" t="s">
+        <v>2147</v>
+      </c>
+      <c r="Q102" s="4" t="s">
+        <v>593</v>
+      </c>
+    </row>
+    <row r="103" spans="2:17" ht="130.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B103" s="2">
         <v>101</v>
       </c>
@@ -15412,8 +17148,14 @@
         <f t="shared" si="5"/>
         <v>690</v>
       </c>
-    </row>
-    <row r="104" spans="2:14" ht="147.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="P103" t="s">
+        <v>2148</v>
+      </c>
+      <c r="Q103" s="4" t="s">
+        <v>589</v>
+      </c>
+    </row>
+    <row r="104" spans="2:17" ht="147.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B104" s="2">
         <v>102</v>
       </c>
@@ -15453,8 +17195,14 @@
         <f t="shared" si="5"/>
         <v>576</v>
       </c>
-    </row>
-    <row r="105" spans="2:14" ht="196.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="P104" t="s">
+        <v>2149</v>
+      </c>
+      <c r="Q104" s="4" t="s">
+        <v>408</v>
+      </c>
+    </row>
+    <row r="105" spans="2:17" ht="196.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B105" s="2">
         <v>103</v>
       </c>
@@ -15494,8 +17242,14 @@
         <f t="shared" si="5"/>
         <v>589</v>
       </c>
-    </row>
-    <row r="106" spans="2:14" ht="229.15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="P105" t="s">
+        <v>2150</v>
+      </c>
+      <c r="Q105" s="4" t="s">
+        <v>903</v>
+      </c>
+    </row>
+    <row r="106" spans="2:17" ht="229.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B106" s="2">
         <v>104</v>
       </c>
@@ -15535,8 +17289,14 @@
         <f t="shared" si="5"/>
         <v>413</v>
       </c>
-    </row>
-    <row r="107" spans="2:14" ht="180.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="P106" t="s">
+        <v>2151</v>
+      </c>
+      <c r="Q106" s="4" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="107" spans="2:17" ht="180.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B107" s="2">
         <v>105</v>
       </c>
@@ -15576,8 +17336,14 @@
         <f t="shared" si="5"/>
         <v>496</v>
       </c>
-    </row>
-    <row r="108" spans="2:14" ht="196.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="P107" t="s">
+        <v>2152</v>
+      </c>
+      <c r="Q107" s="4" t="s">
+        <v>909</v>
+      </c>
+    </row>
+    <row r="108" spans="2:17" ht="196.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B108" s="2">
         <v>106</v>
       </c>
@@ -15617,8 +17383,14 @@
         <f t="shared" si="5"/>
         <v>638</v>
       </c>
-    </row>
-    <row r="109" spans="2:14" ht="147.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="P108" t="s">
+        <v>2153</v>
+      </c>
+      <c r="Q108" s="4" t="s">
+        <v>387</v>
+      </c>
+    </row>
+    <row r="109" spans="2:17" ht="147.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B109" s="2">
         <v>107</v>
       </c>
@@ -15658,8 +17430,14 @@
         <f t="shared" si="5"/>
         <v>470</v>
       </c>
-    </row>
-    <row r="110" spans="2:14" ht="163.69999999999999" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="P109" t="s">
+        <v>2154</v>
+      </c>
+      <c r="Q109" s="4" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="110" spans="2:17" ht="163.69999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B110" s="2">
         <v>108</v>
       </c>
@@ -15699,8 +17477,14 @@
         <f t="shared" si="5"/>
         <v>468</v>
       </c>
-    </row>
-    <row r="111" spans="2:14" ht="81.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="P110" t="s">
+        <v>2155</v>
+      </c>
+      <c r="Q110" s="4" t="s">
+        <v>590</v>
+      </c>
+    </row>
+    <row r="111" spans="2:17" ht="81.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B111" s="2">
         <v>109</v>
       </c>
@@ -15740,8 +17524,14 @@
         <f t="shared" si="5"/>
         <v>434</v>
       </c>
-    </row>
-    <row r="112" spans="2:14" ht="163.69999999999999" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="P111" t="s">
+        <v>2156</v>
+      </c>
+      <c r="Q111" s="4" t="s">
+        <v>908</v>
+      </c>
+    </row>
+    <row r="112" spans="2:17" ht="163.69999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B112" s="2">
         <v>110</v>
       </c>
@@ -15781,8 +17571,14 @@
         <f t="shared" si="5"/>
         <v>573</v>
       </c>
-    </row>
-    <row r="113" spans="2:14" ht="180.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="P112" t="s">
+        <v>2157</v>
+      </c>
+      <c r="Q112" s="4" t="s">
+        <v>900</v>
+      </c>
+    </row>
+    <row r="113" spans="2:17" ht="180.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B113" s="2">
         <v>111</v>
       </c>
@@ -15822,8 +17618,14 @@
         <f t="shared" si="5"/>
         <v>324</v>
       </c>
-    </row>
-    <row r="114" spans="2:14" ht="98.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="P113" t="s">
+        <v>2158</v>
+      </c>
+      <c r="Q113" s="4" t="s">
+        <v>923</v>
+      </c>
+    </row>
+    <row r="114" spans="2:17" ht="98.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B114" s="2">
         <v>112</v>
       </c>
@@ -15863,8 +17665,14 @@
         <f t="shared" si="5"/>
         <v>645</v>
       </c>
-    </row>
-    <row r="115" spans="2:14" ht="163.69999999999999" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="P114" t="s">
+        <v>2159</v>
+      </c>
+      <c r="Q114" s="4" t="s">
+        <v>765</v>
+      </c>
+    </row>
+    <row r="115" spans="2:17" ht="163.69999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B115" s="2">
         <v>113</v>
       </c>
@@ -15904,8 +17712,14 @@
         <f t="shared" si="5"/>
         <v>467</v>
       </c>
-    </row>
-    <row r="116" spans="2:14" ht="114.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="P115" t="s">
+        <v>2160</v>
+      </c>
+      <c r="Q115" s="4" t="s">
+        <v>917</v>
+      </c>
+    </row>
+    <row r="116" spans="2:17" ht="114.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B116" s="2">
         <v>114</v>
       </c>
@@ -15945,8 +17759,14 @@
         <f t="shared" si="5"/>
         <v>589</v>
       </c>
-    </row>
-    <row r="117" spans="2:14" ht="163.69999999999999" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="P116" t="s">
+        <v>2161</v>
+      </c>
+      <c r="Q116" s="4" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="117" spans="2:17" ht="163.69999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B117" s="2">
         <v>115</v>
       </c>
@@ -15986,8 +17806,14 @@
         <f t="shared" si="5"/>
         <v>371</v>
       </c>
-    </row>
-    <row r="118" spans="2:14" ht="147.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="P117" t="s">
+        <v>2162</v>
+      </c>
+      <c r="Q117" s="4" t="s">
+        <v>588</v>
+      </c>
+    </row>
+    <row r="118" spans="2:17" ht="147.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B118" s="2">
         <v>116</v>
       </c>
@@ -16027,8 +17853,14 @@
         <f t="shared" si="5"/>
         <v>642</v>
       </c>
-    </row>
-    <row r="119" spans="2:14" ht="130.9" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="P118" t="s">
+        <v>2163</v>
+      </c>
+      <c r="Q118" s="4" t="s">
+        <v>907</v>
+      </c>
+    </row>
+    <row r="119" spans="2:17" ht="130.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B119" s="2">
         <v>117</v>
       </c>
@@ -16068,8 +17900,14 @@
         <f t="shared" si="5"/>
         <v>448</v>
       </c>
-    </row>
-    <row r="120" spans="2:14" ht="98.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="P119" t="s">
+        <v>2164</v>
+      </c>
+      <c r="Q119" s="4" t="s">
+        <v>799</v>
+      </c>
+    </row>
+    <row r="120" spans="2:17" ht="98.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B120" s="2">
         <v>118</v>
       </c>
@@ -16109,8 +17947,14 @@
         <f t="shared" si="5"/>
         <v>382</v>
       </c>
-    </row>
-    <row r="121" spans="2:14" ht="130.9" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="P120" t="s">
+        <v>2165</v>
+      </c>
+      <c r="Q120" s="4" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="121" spans="2:17" ht="130.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B121" s="2">
         <v>119</v>
       </c>
@@ -16150,8 +17994,14 @@
         <f t="shared" si="5"/>
         <v>611</v>
       </c>
-    </row>
-    <row r="122" spans="2:14" ht="130.9" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="P121" t="s">
+        <v>2166</v>
+      </c>
+      <c r="Q121" s="4" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="122" spans="2:17" ht="130.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B122" s="2">
         <v>120</v>
       </c>
@@ -16191,8 +18041,14 @@
         <f t="shared" si="5"/>
         <v>584</v>
       </c>
-    </row>
-    <row r="123" spans="2:14" ht="98.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="P122" t="s">
+        <v>2167</v>
+      </c>
+      <c r="Q122" s="4" t="s">
+        <v>794</v>
+      </c>
+    </row>
+    <row r="123" spans="2:17" ht="98.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B123" s="2">
         <v>121</v>
       </c>
@@ -16232,8 +18088,14 @@
         <f t="shared" si="5"/>
         <v>559</v>
       </c>
-    </row>
-    <row r="124" spans="2:14" ht="98.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="P123" t="s">
+        <v>2168</v>
+      </c>
+      <c r="Q123" s="4" t="s">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="124" spans="2:17" ht="98.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B124" s="2">
         <v>122</v>
       </c>
@@ -16273,8 +18135,14 @@
         <f t="shared" si="5"/>
         <v>493</v>
       </c>
-    </row>
-    <row r="125" spans="2:14" ht="147.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="P124" t="s">
+        <v>2169</v>
+      </c>
+      <c r="Q124" s="4" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="125" spans="2:17" ht="147.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B125" s="2">
         <v>123</v>
       </c>
@@ -16314,8 +18182,14 @@
         <f t="shared" si="5"/>
         <v>549</v>
       </c>
-    </row>
-    <row r="126" spans="2:14" ht="147.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="P125" t="s">
+        <v>2170</v>
+      </c>
+      <c r="Q125" s="4" t="s">
+        <v>727</v>
+      </c>
+    </row>
+    <row r="126" spans="2:17" ht="147.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B126" s="2">
         <v>124</v>
       </c>
@@ -16355,8 +18229,14 @@
         <f t="shared" si="5"/>
         <v>357</v>
       </c>
-    </row>
-    <row r="127" spans="2:14" ht="180.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="P126" t="s">
+        <v>2171</v>
+      </c>
+      <c r="Q126" s="4" t="s">
+        <v>781</v>
+      </c>
+    </row>
+    <row r="127" spans="2:17" ht="180.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B127" s="2">
         <v>125</v>
       </c>
@@ -16396,8 +18276,14 @@
         <f t="shared" si="5"/>
         <v>432</v>
       </c>
-    </row>
-    <row r="128" spans="2:14" ht="147.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="P127" t="s">
+        <v>2172</v>
+      </c>
+      <c r="Q127" s="4" t="s">
+        <v>819</v>
+      </c>
+    </row>
+    <row r="128" spans="2:17" ht="147.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B128" s="2">
         <v>126</v>
       </c>
@@ -16437,8 +18323,14 @@
         <f t="shared" si="5"/>
         <v>598</v>
       </c>
-    </row>
-    <row r="129" spans="2:14" ht="49.15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="P128" t="s">
+        <v>2173</v>
+      </c>
+      <c r="Q128" s="4" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="129" spans="2:17" ht="49.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B129" s="2">
         <v>127</v>
       </c>
@@ -16478,8 +18370,14 @@
         <f t="shared" si="5"/>
         <v>463</v>
       </c>
-    </row>
-    <row r="130" spans="2:14" ht="114.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="P129" t="s">
+        <v>2174</v>
+      </c>
+      <c r="Q129" s="4" t="s">
+        <v>361</v>
+      </c>
+    </row>
+    <row r="130" spans="2:17" ht="114.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B130" s="2">
         <v>128</v>
       </c>
@@ -16519,8 +18417,14 @@
         <f t="shared" si="5"/>
         <v>646</v>
       </c>
-    </row>
-    <row r="131" spans="2:14" ht="130.9" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="P130" t="s">
+        <v>2175</v>
+      </c>
+      <c r="Q130" s="4" t="s">
+        <v>934</v>
+      </c>
+    </row>
+    <row r="131" spans="2:17" ht="130.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B131" s="2">
         <v>129</v>
       </c>
@@ -16560,8 +18464,14 @@
         <f t="shared" si="5"/>
         <v>379</v>
       </c>
-    </row>
-    <row r="132" spans="2:14" ht="180.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="P131" t="s">
+        <v>2176</v>
+      </c>
+      <c r="Q131" s="4" t="s">
+        <v>916</v>
+      </c>
+    </row>
+    <row r="132" spans="2:17" ht="180.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B132" s="2">
         <v>130</v>
       </c>
@@ -16601,8 +18511,14 @@
         <f t="shared" ref="N132:N195" si="8" xml:space="preserve"> HOUR(F132) * 3600 + MINUTE(F132) * 60 + SECOND(F132)</f>
         <v>702</v>
       </c>
-    </row>
-    <row r="133" spans="2:14" ht="147.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="P132" t="s">
+        <v>2177</v>
+      </c>
+      <c r="Q132" s="4" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="133" spans="2:17" ht="147.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B133" s="2">
         <v>131</v>
       </c>
@@ -16642,8 +18558,14 @@
         <f t="shared" si="8"/>
         <v>589</v>
       </c>
-    </row>
-    <row r="134" spans="2:14" ht="147.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="P133" t="s">
+        <v>2178</v>
+      </c>
+      <c r="Q133" s="4" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="134" spans="2:17" ht="147.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B134" s="2">
         <v>132</v>
       </c>
@@ -16683,8 +18605,14 @@
         <f t="shared" si="8"/>
         <v>554</v>
       </c>
-    </row>
-    <row r="135" spans="2:14" ht="65.650000000000006" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="P134" t="s">
+        <v>2179</v>
+      </c>
+      <c r="Q134" s="4" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="135" spans="2:17" ht="65.650000000000006" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B135" s="2">
         <v>133</v>
       </c>
@@ -16724,8 +18652,14 @@
         <f t="shared" si="8"/>
         <v>464</v>
       </c>
-    </row>
-    <row r="136" spans="2:14" ht="98.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="P135" t="s">
+        <v>2180</v>
+      </c>
+      <c r="Q135" s="4" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="136" spans="2:17" ht="98.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B136" s="2">
         <v>134</v>
       </c>
@@ -16765,8 +18699,14 @@
         <f t="shared" si="8"/>
         <v>634</v>
       </c>
-    </row>
-    <row r="137" spans="2:14" ht="163.69999999999999" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="P136" t="s">
+        <v>2181</v>
+      </c>
+      <c r="Q136" s="4" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="137" spans="2:17" ht="163.69999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B137" s="2">
         <v>135</v>
       </c>
@@ -16806,8 +18746,14 @@
         <f t="shared" si="8"/>
         <v>524</v>
       </c>
-    </row>
-    <row r="138" spans="2:14" ht="180.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="P137" t="s">
+        <v>2182</v>
+      </c>
+      <c r="Q137" s="4" t="s">
+        <v>948</v>
+      </c>
+    </row>
+    <row r="138" spans="2:17" ht="180.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B138" s="2">
         <v>136</v>
       </c>
@@ -16847,8 +18793,14 @@
         <f t="shared" si="8"/>
         <v>667</v>
       </c>
-    </row>
-    <row r="139" spans="2:14" ht="98.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="P138" t="s">
+        <v>2183</v>
+      </c>
+      <c r="Q138" s="4" t="s">
+        <v>767</v>
+      </c>
+    </row>
+    <row r="139" spans="2:17" ht="98.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B139" s="2">
         <v>137</v>
       </c>
@@ -16888,8 +18840,14 @@
         <f t="shared" si="8"/>
         <v>587</v>
       </c>
-    </row>
-    <row r="140" spans="2:14" ht="114.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="P139" t="s">
+        <v>2184</v>
+      </c>
+      <c r="Q139" s="4" t="s">
+        <v>871</v>
+      </c>
+    </row>
+    <row r="140" spans="2:17" ht="114.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B140" s="2">
         <v>138</v>
       </c>
@@ -16929,8 +18887,14 @@
         <f t="shared" si="8"/>
         <v>510</v>
       </c>
-    </row>
-    <row r="141" spans="2:14" ht="147.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="P140" t="s">
+        <v>2185</v>
+      </c>
+      <c r="Q140" s="4" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="141" spans="2:17" ht="147.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B141" s="2">
         <v>139</v>
       </c>
@@ -16970,8 +18934,14 @@
         <f t="shared" si="8"/>
         <v>565</v>
       </c>
-    </row>
-    <row r="142" spans="2:14" ht="65.650000000000006" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="P141" t="s">
+        <v>2186</v>
+      </c>
+      <c r="Q141" s="4" t="s">
+        <v>855</v>
+      </c>
+    </row>
+    <row r="142" spans="2:17" ht="65.650000000000006" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B142" s="2">
         <v>140</v>
       </c>
@@ -17011,8 +18981,14 @@
         <f t="shared" si="8"/>
         <v>513</v>
       </c>
-    </row>
-    <row r="143" spans="2:14" ht="114.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="P142" t="s">
+        <v>2187</v>
+      </c>
+      <c r="Q142" s="4" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="143" spans="2:17" ht="114.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B143" s="2">
         <v>141</v>
       </c>
@@ -17052,8 +19028,14 @@
         <f t="shared" si="8"/>
         <v>395</v>
       </c>
-    </row>
-    <row r="144" spans="2:14" ht="114.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="P143" t="s">
+        <v>2188</v>
+      </c>
+      <c r="Q143" s="4" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="144" spans="2:17" ht="114.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B144" s="2">
         <v>142</v>
       </c>
@@ -17093,8 +19075,14 @@
         <f t="shared" si="8"/>
         <v>392</v>
       </c>
-    </row>
-    <row r="145" spans="2:14" ht="147.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="P144" t="s">
+        <v>2189</v>
+      </c>
+      <c r="Q144" s="4" t="s">
+        <v>931</v>
+      </c>
+    </row>
+    <row r="145" spans="2:17" ht="147.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B145" s="2">
         <v>143</v>
       </c>
@@ -17134,8 +19122,14 @@
         <f t="shared" si="8"/>
         <v>670</v>
       </c>
-    </row>
-    <row r="146" spans="2:14" ht="49.15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="P145" t="s">
+        <v>2190</v>
+      </c>
+      <c r="Q145" s="4" t="s">
+        <v>949</v>
+      </c>
+    </row>
+    <row r="146" spans="2:17" ht="49.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B146" s="2">
         <v>144</v>
       </c>
@@ -17175,8 +19169,14 @@
         <f t="shared" si="8"/>
         <v>472</v>
       </c>
-    </row>
-    <row r="147" spans="2:14" ht="163.69999999999999" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="P146" t="s">
+        <v>2191</v>
+      </c>
+      <c r="Q146" s="4" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="147" spans="2:17" ht="163.69999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B147" s="2">
         <v>145</v>
       </c>
@@ -17216,8 +19216,14 @@
         <f t="shared" si="8"/>
         <v>442</v>
       </c>
-    </row>
-    <row r="148" spans="2:14" ht="130.9" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="P147" t="s">
+        <v>2192</v>
+      </c>
+      <c r="Q147" s="4" t="s">
+        <v>905</v>
+      </c>
+    </row>
+    <row r="148" spans="2:17" ht="130.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B148" s="2">
         <v>146</v>
       </c>
@@ -17257,8 +19263,14 @@
         <f t="shared" si="8"/>
         <v>361</v>
       </c>
-    </row>
-    <row r="149" spans="2:14" ht="114.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="P148" t="s">
+        <v>2193</v>
+      </c>
+      <c r="Q148" s="4" t="s">
+        <v>810</v>
+      </c>
+    </row>
+    <row r="149" spans="2:17" ht="114.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B149" s="2">
         <v>147</v>
       </c>
@@ -17298,8 +19310,14 @@
         <f t="shared" si="8"/>
         <v>570</v>
       </c>
-    </row>
-    <row r="150" spans="2:14" ht="98.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="P149" t="s">
+        <v>2194</v>
+      </c>
+      <c r="Q149" s="4" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="150" spans="2:17" ht="98.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B150" s="2">
         <v>148</v>
       </c>
@@ -17339,8 +19357,14 @@
         <f t="shared" si="8"/>
         <v>685</v>
       </c>
-    </row>
-    <row r="151" spans="2:14" ht="81.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="P150" t="s">
+        <v>2195</v>
+      </c>
+      <c r="Q150" s="4" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="151" spans="2:17" ht="81.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B151" s="2">
         <v>149</v>
       </c>
@@ -17380,8 +19404,14 @@
         <f t="shared" si="8"/>
         <v>644</v>
       </c>
-    </row>
-    <row r="152" spans="2:14" ht="65.650000000000006" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="P151" t="s">
+        <v>2196</v>
+      </c>
+      <c r="Q151" s="4" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="152" spans="2:17" ht="65.650000000000006" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B152" s="2">
         <v>150</v>
       </c>
@@ -17421,8 +19451,14 @@
         <f t="shared" si="8"/>
         <v>649</v>
       </c>
-    </row>
-    <row r="153" spans="2:14" ht="130.9" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="P152" t="s">
+        <v>2197</v>
+      </c>
+      <c r="Q152" s="4" t="s">
+        <v>805</v>
+      </c>
+    </row>
+    <row r="153" spans="2:17" ht="130.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B153" s="2">
         <v>151</v>
       </c>
@@ -17462,8 +19498,14 @@
         <f t="shared" si="8"/>
         <v>466</v>
       </c>
-    </row>
-    <row r="154" spans="2:14" ht="114.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="P153" t="s">
+        <v>2198</v>
+      </c>
+      <c r="Q153" s="4" t="s">
+        <v>854</v>
+      </c>
+    </row>
+    <row r="154" spans="2:17" ht="114.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B154" s="2">
         <v>152</v>
       </c>
@@ -17503,8 +19545,14 @@
         <f t="shared" si="8"/>
         <v>531</v>
       </c>
-    </row>
-    <row r="155" spans="2:14" ht="130.9" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="P154" t="s">
+        <v>2199</v>
+      </c>
+      <c r="Q154" s="4" t="s">
+        <v>898</v>
+      </c>
+    </row>
+    <row r="155" spans="2:17" ht="130.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B155" s="2">
         <v>153</v>
       </c>
@@ -17544,8 +19592,14 @@
         <f t="shared" si="8"/>
         <v>528</v>
       </c>
-    </row>
-    <row r="156" spans="2:14" ht="98.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="P155" t="s">
+        <v>2200</v>
+      </c>
+      <c r="Q155" s="4" t="s">
+        <v>836</v>
+      </c>
+    </row>
+    <row r="156" spans="2:17" ht="98.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B156" s="2">
         <v>154</v>
       </c>
@@ -17585,8 +19639,14 @@
         <f t="shared" si="8"/>
         <v>523</v>
       </c>
-    </row>
-    <row r="157" spans="2:14" ht="163.69999999999999" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="P156" t="s">
+        <v>2201</v>
+      </c>
+      <c r="Q156" s="4" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="157" spans="2:17" ht="163.69999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B157" s="2">
         <v>155</v>
       </c>
@@ -17626,8 +19686,14 @@
         <f t="shared" si="8"/>
         <v>652</v>
       </c>
-    </row>
-    <row r="158" spans="2:14" ht="81.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="P157" t="s">
+        <v>2202</v>
+      </c>
+      <c r="Q157" s="4" t="s">
+        <v>897</v>
+      </c>
+    </row>
+    <row r="158" spans="2:17" ht="81.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B158" s="2">
         <v>156</v>
       </c>
@@ -17667,8 +19733,14 @@
         <f t="shared" si="8"/>
         <v>486</v>
       </c>
-    </row>
-    <row r="159" spans="2:14" ht="147.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="P158" t="s">
+        <v>2203</v>
+      </c>
+      <c r="Q158" s="4" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="159" spans="2:17" ht="147.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B159" s="2">
         <v>157</v>
       </c>
@@ -17708,8 +19780,14 @@
         <f t="shared" si="8"/>
         <v>427</v>
       </c>
-    </row>
-    <row r="160" spans="2:14" ht="65.650000000000006" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="P159" t="s">
+        <v>2204</v>
+      </c>
+      <c r="Q159" s="4" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="160" spans="2:17" ht="65.650000000000006" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B160" s="2">
         <v>158</v>
       </c>
@@ -17749,8 +19827,14 @@
         <f t="shared" si="8"/>
         <v>523</v>
       </c>
-    </row>
-    <row r="161" spans="2:14" ht="196.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="P160" t="s">
+        <v>2205</v>
+      </c>
+      <c r="Q160" s="4" t="s">
+        <v>878</v>
+      </c>
+    </row>
+    <row r="161" spans="2:17" ht="196.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B161" s="2">
         <v>159</v>
       </c>
@@ -17790,8 +19874,14 @@
         <f t="shared" si="8"/>
         <v>641</v>
       </c>
-    </row>
-    <row r="162" spans="2:14" ht="163.69999999999999" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="P161" t="s">
+        <v>2206</v>
+      </c>
+      <c r="Q161" s="4" t="s">
+        <v>366</v>
+      </c>
+    </row>
+    <row r="162" spans="2:17" ht="163.69999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B162" s="2">
         <v>160</v>
       </c>
@@ -17831,8 +19921,14 @@
         <f t="shared" si="8"/>
         <v>591</v>
       </c>
-    </row>
-    <row r="163" spans="2:14" ht="147.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="P162" t="s">
+        <v>2207</v>
+      </c>
+      <c r="Q162" s="4" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="163" spans="2:17" ht="147.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B163" s="2">
         <v>161</v>
       </c>
@@ -17872,8 +19968,14 @@
         <f t="shared" si="8"/>
         <v>533</v>
       </c>
-    </row>
-    <row r="164" spans="2:14" ht="180.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="P163" t="s">
+        <v>2208</v>
+      </c>
+      <c r="Q163" s="4" t="s">
+        <v>807</v>
+      </c>
+    </row>
+    <row r="164" spans="2:17" ht="180.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B164" s="2">
         <v>162</v>
       </c>
@@ -17913,8 +20015,14 @@
         <f t="shared" si="8"/>
         <v>573</v>
       </c>
-    </row>
-    <row r="165" spans="2:14" ht="163.69999999999999" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="P164" t="s">
+        <v>2209</v>
+      </c>
+      <c r="Q164" s="4" t="s">
+        <v>820</v>
+      </c>
+    </row>
+    <row r="165" spans="2:17" ht="163.69999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B165" s="2">
         <v>163</v>
       </c>
@@ -17954,8 +20062,14 @@
         <f t="shared" si="8"/>
         <v>404</v>
       </c>
-    </row>
-    <row r="166" spans="2:14" ht="130.9" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="P165" t="s">
+        <v>2210</v>
+      </c>
+      <c r="Q165" s="4" t="s">
+        <v>754</v>
+      </c>
+    </row>
+    <row r="166" spans="2:17" ht="130.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B166" s="2">
         <v>164</v>
       </c>
@@ -17995,8 +20109,14 @@
         <f t="shared" si="8"/>
         <v>396</v>
       </c>
-    </row>
-    <row r="167" spans="2:14" ht="98.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="P166" t="s">
+        <v>2211</v>
+      </c>
+      <c r="Q166" s="4" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="167" spans="2:17" ht="98.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B167" s="2">
         <v>165</v>
       </c>
@@ -18036,8 +20156,14 @@
         <f t="shared" si="8"/>
         <v>599</v>
       </c>
-    </row>
-    <row r="168" spans="2:14" ht="147.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="P167" t="s">
+        <v>2212</v>
+      </c>
+      <c r="Q167" s="4" t="s">
+        <v>784</v>
+      </c>
+    </row>
+    <row r="168" spans="2:17" ht="147.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B168" s="2">
         <v>166</v>
       </c>
@@ -18077,8 +20203,14 @@
         <f t="shared" si="8"/>
         <v>369</v>
       </c>
-    </row>
-    <row r="169" spans="2:14" ht="98.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="P168" t="s">
+        <v>2213</v>
+      </c>
+      <c r="Q168" s="4" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="169" spans="2:17" ht="98.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B169" s="2">
         <v>167</v>
       </c>
@@ -18118,8 +20250,14 @@
         <f t="shared" si="8"/>
         <v>328</v>
       </c>
-    </row>
-    <row r="170" spans="2:14" ht="32.65" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="P169" t="s">
+        <v>2214</v>
+      </c>
+      <c r="Q169" s="4" t="s">
+        <v>906</v>
+      </c>
+    </row>
+    <row r="170" spans="2:17" ht="32.65" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B170" s="2">
         <v>168</v>
       </c>
@@ -18159,8 +20297,14 @@
         <f t="shared" si="8"/>
         <v>576</v>
       </c>
-    </row>
-    <row r="171" spans="2:14" ht="32.65" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="P170" t="s">
+        <v>2215</v>
+      </c>
+      <c r="Q170" s="4" t="s">
+        <v>806</v>
+      </c>
+    </row>
+    <row r="171" spans="2:17" ht="32.65" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B171" s="2">
         <v>169</v>
       </c>
@@ -18200,8 +20344,14 @@
         <f t="shared" si="8"/>
         <v>610</v>
       </c>
-    </row>
-    <row r="172" spans="2:14" ht="65.650000000000006" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="P171" t="s">
+        <v>2216</v>
+      </c>
+      <c r="Q171" s="4" t="s">
+        <v>806</v>
+      </c>
+    </row>
+    <row r="172" spans="2:17" ht="65.650000000000006" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B172" s="2">
         <v>170</v>
       </c>
@@ -18241,8 +20391,14 @@
         <f t="shared" si="8"/>
         <v>312</v>
       </c>
-    </row>
-    <row r="173" spans="2:14" ht="130.9" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="P172" t="s">
+        <v>2217</v>
+      </c>
+      <c r="Q172" s="4" t="s">
+        <v>806</v>
+      </c>
+    </row>
+    <row r="173" spans="2:17" ht="130.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B173" s="2">
         <v>171</v>
       </c>
@@ -18282,8 +20438,14 @@
         <f t="shared" si="8"/>
         <v>677</v>
       </c>
-    </row>
-    <row r="174" spans="2:14" ht="130.9" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="P173" t="s">
+        <v>2218</v>
+      </c>
+      <c r="Q173" s="4" t="s">
+        <v>768</v>
+      </c>
+    </row>
+    <row r="174" spans="2:17" ht="130.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B174" s="2">
         <v>172</v>
       </c>
@@ -18323,8 +20485,14 @@
         <f t="shared" si="8"/>
         <v>548</v>
       </c>
-    </row>
-    <row r="175" spans="2:14" ht="147.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="P174" t="s">
+        <v>2219</v>
+      </c>
+      <c r="Q174" s="4" t="s">
+        <v>934</v>
+      </c>
+    </row>
+    <row r="175" spans="2:17" ht="147.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B175" s="2">
         <v>173</v>
       </c>
@@ -18364,8 +20532,14 @@
         <f t="shared" si="8"/>
         <v>552</v>
       </c>
-    </row>
-    <row r="176" spans="2:14" ht="114.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="P175" t="s">
+        <v>2220</v>
+      </c>
+      <c r="Q175" s="4" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="176" spans="2:17" ht="114.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B176" s="2">
         <v>174</v>
       </c>
@@ -18405,8 +20579,14 @@
         <f t="shared" si="8"/>
         <v>692</v>
       </c>
-    </row>
-    <row r="177" spans="2:14" ht="147.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="P176" t="s">
+        <v>2221</v>
+      </c>
+      <c r="Q176" s="4" t="s">
+        <v>833</v>
+      </c>
+    </row>
+    <row r="177" spans="2:17" ht="147.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B177" s="2">
         <v>175</v>
       </c>
@@ -18446,8 +20626,14 @@
         <f t="shared" si="8"/>
         <v>535</v>
       </c>
-    </row>
-    <row r="178" spans="2:14" ht="147.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="P177" t="s">
+        <v>2222</v>
+      </c>
+      <c r="Q177" s="4" t="s">
+        <v>826</v>
+      </c>
+    </row>
+    <row r="178" spans="2:17" ht="147.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B178" s="2">
         <v>176</v>
       </c>
@@ -18487,8 +20673,14 @@
         <f t="shared" si="8"/>
         <v>625</v>
       </c>
-    </row>
-    <row r="179" spans="2:14" ht="147.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="P178" t="s">
+        <v>2223</v>
+      </c>
+      <c r="Q178" s="4" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="179" spans="2:17" ht="147.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B179" s="2">
         <v>177</v>
       </c>
@@ -18528,8 +20720,14 @@
         <f t="shared" si="8"/>
         <v>585</v>
       </c>
-    </row>
-    <row r="180" spans="2:14" ht="130.9" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="P179" t="s">
+        <v>2224</v>
+      </c>
+      <c r="Q179" s="12" t="s">
+        <v>1280</v>
+      </c>
+    </row>
+    <row r="180" spans="2:17" ht="130.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B180" s="2">
         <v>178</v>
       </c>
@@ -18569,8 +20767,14 @@
         <f t="shared" si="8"/>
         <v>397</v>
       </c>
-    </row>
-    <row r="181" spans="2:14" ht="130.9" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="P180" t="s">
+        <v>2225</v>
+      </c>
+      <c r="Q180" s="4" t="s">
+        <v>823</v>
+      </c>
+    </row>
+    <row r="181" spans="2:17" ht="130.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B181" s="2">
         <v>179</v>
       </c>
@@ -18610,8 +20814,14 @@
         <f t="shared" si="8"/>
         <v>456</v>
       </c>
-    </row>
-    <row r="182" spans="2:14" ht="114.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="P181" t="s">
+        <v>2226</v>
+      </c>
+      <c r="Q181" s="4" t="s">
+        <v>761</v>
+      </c>
+    </row>
+    <row r="182" spans="2:17" ht="114.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B182" s="2">
         <v>180</v>
       </c>
@@ -18651,8 +20861,14 @@
         <f t="shared" si="8"/>
         <v>652</v>
       </c>
-    </row>
-    <row r="183" spans="2:14" ht="81.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="P182" t="s">
+        <v>2227</v>
+      </c>
+      <c r="Q182" s="4" t="s">
+        <v>822</v>
+      </c>
+    </row>
+    <row r="183" spans="2:17" ht="81.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B183" s="2">
         <v>181</v>
       </c>
@@ -18692,8 +20908,14 @@
         <f t="shared" si="8"/>
         <v>636</v>
       </c>
-    </row>
-    <row r="184" spans="2:14" ht="114.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="P183" t="s">
+        <v>2228</v>
+      </c>
+      <c r="Q183" s="4" t="s">
+        <v>822</v>
+      </c>
+    </row>
+    <row r="184" spans="2:17" ht="114.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B184" s="2">
         <v>182</v>
       </c>
@@ -18733,8 +20955,14 @@
         <f t="shared" si="8"/>
         <v>585</v>
       </c>
-    </row>
-    <row r="185" spans="2:14" ht="163.69999999999999" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="P184" t="s">
+        <v>2229</v>
+      </c>
+      <c r="Q184" s="4" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="185" spans="2:17" ht="163.69999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B185" s="2">
         <v>183</v>
       </c>
@@ -18774,8 +21002,14 @@
         <f t="shared" si="8"/>
         <v>558</v>
       </c>
-    </row>
-    <row r="186" spans="2:14" ht="163.69999999999999" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="P185" t="s">
+        <v>2230</v>
+      </c>
+      <c r="Q185" s="4" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="186" spans="2:17" ht="163.69999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B186" s="2">
         <v>184</v>
       </c>
@@ -18815,8 +21049,14 @@
         <f t="shared" si="8"/>
         <v>669</v>
       </c>
-    </row>
-    <row r="187" spans="2:14" ht="65.650000000000006" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="P186" t="s">
+        <v>2231</v>
+      </c>
+      <c r="Q186" s="4" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="187" spans="2:17" ht="65.650000000000006" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B187" s="2">
         <v>185</v>
       </c>
@@ -18856,8 +21096,14 @@
         <f t="shared" si="8"/>
         <v>488</v>
       </c>
-    </row>
-    <row r="188" spans="2:14" ht="130.9" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="P187" t="s">
+        <v>2232</v>
+      </c>
+      <c r="Q187" s="4" t="s">
+        <v>766</v>
+      </c>
+    </row>
+    <row r="188" spans="2:17" ht="130.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B188" s="2">
         <v>186</v>
       </c>
@@ -18897,8 +21143,14 @@
         <f t="shared" si="8"/>
         <v>628</v>
       </c>
-    </row>
-    <row r="189" spans="2:14" ht="130.9" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="P188" t="s">
+        <v>2233</v>
+      </c>
+      <c r="Q188" s="4" t="s">
+        <v>730</v>
+      </c>
+    </row>
+    <row r="189" spans="2:17" ht="130.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B189" s="2">
         <v>187</v>
       </c>
@@ -18938,8 +21190,14 @@
         <f t="shared" si="8"/>
         <v>432</v>
       </c>
-    </row>
-    <row r="190" spans="2:14" ht="130.9" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="P189" t="s">
+        <v>2234</v>
+      </c>
+      <c r="Q189" s="4" t="s">
+        <v>802</v>
+      </c>
+    </row>
+    <row r="190" spans="2:17" ht="130.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B190" s="2">
         <v>188</v>
       </c>
@@ -18979,8 +21237,14 @@
         <f t="shared" si="8"/>
         <v>393</v>
       </c>
-    </row>
-    <row r="191" spans="2:14" ht="114.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="P190" t="s">
+        <v>2235</v>
+      </c>
+      <c r="Q190" s="4" t="s">
+        <v>803</v>
+      </c>
+    </row>
+    <row r="191" spans="2:17" ht="114.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B191" s="2">
         <v>189</v>
       </c>
@@ -19020,8 +21284,14 @@
         <f t="shared" si="8"/>
         <v>445</v>
       </c>
-    </row>
-    <row r="192" spans="2:14" ht="98.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="P191" t="s">
+        <v>2236</v>
+      </c>
+      <c r="Q191" s="4" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="192" spans="2:17" ht="98.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B192" s="2">
         <v>190</v>
       </c>
@@ -19061,8 +21331,14 @@
         <f t="shared" si="8"/>
         <v>643</v>
       </c>
-    </row>
-    <row r="193" spans="2:14" ht="65.650000000000006" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="P192" t="s">
+        <v>2237</v>
+      </c>
+      <c r="Q192" s="4" t="s">
+        <v>828</v>
+      </c>
+    </row>
+    <row r="193" spans="2:17" ht="65.650000000000006" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B193" s="2">
         <v>191</v>
       </c>
@@ -19102,8 +21378,14 @@
         <f t="shared" si="8"/>
         <v>385</v>
       </c>
-    </row>
-    <row r="194" spans="2:14" ht="81.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="P193" t="s">
+        <v>2238</v>
+      </c>
+      <c r="Q193" s="4" t="s">
+        <v>405</v>
+      </c>
+    </row>
+    <row r="194" spans="2:17" ht="81.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B194" s="2">
         <v>192</v>
       </c>
@@ -19143,8 +21425,14 @@
         <f t="shared" si="8"/>
         <v>403</v>
       </c>
-    </row>
-    <row r="195" spans="2:14" ht="114.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="P194" t="s">
+        <v>2239</v>
+      </c>
+      <c r="Q194" s="4" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="195" spans="2:17" ht="114.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B195" s="2">
         <v>193</v>
       </c>
@@ -19184,8 +21472,14 @@
         <f t="shared" si="8"/>
         <v>398</v>
       </c>
-    </row>
-    <row r="196" spans="2:14" ht="81.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="P195" t="s">
+        <v>2240</v>
+      </c>
+      <c r="Q195" s="4" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="196" spans="2:17" ht="81.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B196" s="2">
         <v>194</v>
       </c>
@@ -19225,8 +21519,14 @@
         <f t="shared" ref="N196:N259" si="11" xml:space="preserve"> HOUR(F196) * 3600 + MINUTE(F196) * 60 + SECOND(F196)</f>
         <v>515</v>
       </c>
-    </row>
-    <row r="197" spans="2:14" ht="147.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="P196" t="s">
+        <v>2241</v>
+      </c>
+      <c r="Q196" s="4" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="197" spans="2:17" ht="147.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B197" s="2">
         <v>195</v>
       </c>
@@ -19249,7 +21549,7 @@
         <v>1316</v>
       </c>
       <c r="J197" s="8" t="s">
-        <v>1316</v>
+        <v>2047</v>
       </c>
       <c r="K197" s="8" t="s">
         <v>1865</v>
@@ -19266,8 +21566,14 @@
         <f t="shared" si="11"/>
         <v>674</v>
       </c>
-    </row>
-    <row r="198" spans="2:14" ht="130.9" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="P197" s="21" t="s">
+        <v>2242</v>
+      </c>
+      <c r="Q197" s="4" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="198" spans="2:17" ht="130.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B198" s="2">
         <v>196</v>
       </c>
@@ -19307,8 +21613,14 @@
         <f t="shared" si="11"/>
         <v>665</v>
       </c>
-    </row>
-    <row r="199" spans="2:14" ht="130.9" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="P198" t="s">
+        <v>2243</v>
+      </c>
+      <c r="Q198" s="4" t="s">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="199" spans="2:17" ht="130.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B199" s="2">
         <v>197</v>
       </c>
@@ -19348,8 +21660,14 @@
         <f t="shared" si="11"/>
         <v>434</v>
       </c>
-    </row>
-    <row r="200" spans="2:14" ht="65.650000000000006" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="P199" t="s">
+        <v>2244</v>
+      </c>
+      <c r="Q199" s="4" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="200" spans="2:17" ht="65.650000000000006" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B200" s="2">
         <v>198</v>
       </c>
@@ -19389,8 +21707,14 @@
         <f t="shared" si="11"/>
         <v>640</v>
       </c>
-    </row>
-    <row r="201" spans="2:14" ht="81.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="P200" t="s">
+        <v>2245</v>
+      </c>
+      <c r="Q200" s="4" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="201" spans="2:17" ht="81.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B201" s="2">
         <v>199</v>
       </c>
@@ -19430,8 +21754,14 @@
         <f t="shared" si="11"/>
         <v>651</v>
       </c>
-    </row>
-    <row r="202" spans="2:14" ht="81.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="P201" t="s">
+        <v>2246</v>
+      </c>
+      <c r="Q201" s="4" t="s">
+        <v>793</v>
+      </c>
+    </row>
+    <row r="202" spans="2:17" ht="81.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B202" s="2">
         <v>200</v>
       </c>
@@ -19471,8 +21801,14 @@
         <f t="shared" si="11"/>
         <v>684</v>
       </c>
-    </row>
-    <row r="203" spans="2:14" ht="147.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="P202" t="s">
+        <v>2247</v>
+      </c>
+      <c r="Q202" s="4" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="203" spans="2:17" ht="147.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B203" s="2">
         <v>201</v>
       </c>
@@ -19512,8 +21848,14 @@
         <f t="shared" si="11"/>
         <v>490</v>
       </c>
-    </row>
-    <row r="204" spans="2:14" ht="147.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="P203" t="s">
+        <v>2248</v>
+      </c>
+      <c r="Q203" s="4" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="204" spans="2:17" ht="147.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B204" s="2">
         <v>202</v>
       </c>
@@ -19553,8 +21895,14 @@
         <f t="shared" si="11"/>
         <v>651</v>
       </c>
-    </row>
-    <row r="205" spans="2:14" ht="98.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="P204" t="s">
+        <v>2249</v>
+      </c>
+      <c r="Q204" s="4" t="s">
+        <v>843</v>
+      </c>
+    </row>
+    <row r="205" spans="2:17" ht="98.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B205" s="2">
         <v>203</v>
       </c>
@@ -19594,8 +21942,14 @@
         <f t="shared" si="11"/>
         <v>653</v>
       </c>
-    </row>
-    <row r="206" spans="2:14" ht="180.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="P205" t="s">
+        <v>2250</v>
+      </c>
+      <c r="Q205" s="4" t="s">
+        <v>782</v>
+      </c>
+    </row>
+    <row r="206" spans="2:17" ht="180.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B206" s="2">
         <v>204</v>
       </c>
@@ -19635,8 +21989,14 @@
         <f t="shared" si="11"/>
         <v>449</v>
       </c>
-    </row>
-    <row r="207" spans="2:14" ht="114.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="P206" t="s">
+        <v>2251</v>
+      </c>
+      <c r="Q206" s="12" t="s">
+        <v>1336</v>
+      </c>
+    </row>
+    <row r="207" spans="2:17" ht="114.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B207" s="2">
         <v>205</v>
       </c>
@@ -19676,8 +22036,14 @@
         <f t="shared" si="11"/>
         <v>645</v>
       </c>
-    </row>
-    <row r="208" spans="2:14" ht="81.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="P207" t="s">
+        <v>2252</v>
+      </c>
+      <c r="Q207" s="12" t="s">
+        <v>1339</v>
+      </c>
+    </row>
+    <row r="208" spans="2:17" ht="81.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B208" s="2">
         <v>206</v>
       </c>
@@ -19717,8 +22083,14 @@
         <f t="shared" si="11"/>
         <v>375</v>
       </c>
-    </row>
-    <row r="209" spans="2:14" ht="147.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="P208" t="s">
+        <v>2253</v>
+      </c>
+      <c r="Q208" s="4" t="s">
+        <v>728</v>
+      </c>
+    </row>
+    <row r="209" spans="2:17" ht="147.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B209" s="2">
         <v>207</v>
       </c>
@@ -19758,8 +22130,14 @@
         <f t="shared" si="11"/>
         <v>367</v>
       </c>
-    </row>
-    <row r="210" spans="2:14" ht="130.9" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="P209" t="s">
+        <v>2254</v>
+      </c>
+      <c r="Q209" s="12" t="s">
+        <v>1345</v>
+      </c>
+    </row>
+    <row r="210" spans="2:17" ht="130.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B210" s="2">
         <v>208</v>
       </c>
@@ -19799,8 +22177,14 @@
         <f t="shared" si="11"/>
         <v>414</v>
       </c>
-    </row>
-    <row r="211" spans="2:14" ht="49.15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="P210" t="s">
+        <v>2255</v>
+      </c>
+      <c r="Q210" s="4" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="211" spans="2:17" ht="49.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B211" s="2">
         <v>209</v>
       </c>
@@ -19840,8 +22224,14 @@
         <f t="shared" si="11"/>
         <v>369</v>
       </c>
-    </row>
-    <row r="212" spans="2:14" ht="98.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="P211" t="s">
+        <v>2256</v>
+      </c>
+      <c r="Q211" s="4" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="212" spans="2:17" ht="98.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B212" s="2">
         <v>210</v>
       </c>
@@ -19881,8 +22271,14 @@
         <f t="shared" si="11"/>
         <v>422</v>
       </c>
-    </row>
-    <row r="213" spans="2:14" ht="65.650000000000006" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="P212" t="s">
+        <v>2257</v>
+      </c>
+      <c r="Q212" s="4" t="s">
+        <v>666</v>
+      </c>
+    </row>
+    <row r="213" spans="2:17" ht="65.650000000000006" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B213" s="2">
         <v>211</v>
       </c>
@@ -19922,8 +22318,14 @@
         <f t="shared" si="11"/>
         <v>420</v>
       </c>
-    </row>
-    <row r="214" spans="2:14" ht="196.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="P213" t="s">
+        <v>2258</v>
+      </c>
+      <c r="Q213" s="12" t="s">
+        <v>1359</v>
+      </c>
+    </row>
+    <row r="214" spans="2:17" ht="196.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B214" s="2">
         <v>212</v>
       </c>
@@ -19963,8 +22365,14 @@
         <f t="shared" si="11"/>
         <v>3584</v>
       </c>
-    </row>
-    <row r="215" spans="2:14" ht="98.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="P214" t="s">
+        <v>2259</v>
+      </c>
+      <c r="Q214" s="4" t="s">
+        <v>845</v>
+      </c>
+    </row>
+    <row r="215" spans="2:17" ht="98.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B215" s="2">
         <v>213</v>
       </c>
@@ -20004,8 +22412,14 @@
         <f t="shared" si="11"/>
         <v>389</v>
       </c>
-    </row>
-    <row r="216" spans="2:14" ht="98.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="P215" t="s">
+        <v>2260</v>
+      </c>
+      <c r="Q215" s="4" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="216" spans="2:17" ht="98.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B216" s="2">
         <v>214</v>
       </c>
@@ -20045,8 +22459,14 @@
         <f t="shared" si="11"/>
         <v>409</v>
       </c>
-    </row>
-    <row r="217" spans="2:14" ht="147.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="P216" t="s">
+        <v>2261</v>
+      </c>
+      <c r="Q216" s="4" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="217" spans="2:17" ht="147.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B217" s="2">
         <v>215</v>
       </c>
@@ -20086,8 +22506,14 @@
         <f t="shared" si="11"/>
         <v>428</v>
       </c>
-    </row>
-    <row r="218" spans="2:14" ht="147.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="P217" t="s">
+        <v>2262</v>
+      </c>
+      <c r="Q217" s="4" t="s">
+        <v>844</v>
+      </c>
+    </row>
+    <row r="218" spans="2:17" ht="147.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B218" s="2">
         <v>216</v>
       </c>
@@ -20127,8 +22553,14 @@
         <f t="shared" si="11"/>
         <v>455</v>
       </c>
-    </row>
-    <row r="219" spans="2:14" ht="81.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="P218" t="s">
+        <v>2263</v>
+      </c>
+      <c r="Q218" s="4" t="s">
+        <v>388</v>
+      </c>
+    </row>
+    <row r="219" spans="2:17" ht="81.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B219" s="2">
         <v>217</v>
       </c>
@@ -20168,8 +22600,14 @@
         <f t="shared" si="11"/>
         <v>33</v>
       </c>
-    </row>
-    <row r="220" spans="2:14" ht="130.9" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="P219" t="s">
+        <v>2264</v>
+      </c>
+      <c r="Q219" s="4" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="220" spans="2:17" ht="130.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B220" s="2">
         <v>218</v>
       </c>
@@ -20209,8 +22647,14 @@
         <f t="shared" si="11"/>
         <v>596</v>
       </c>
-    </row>
-    <row r="221" spans="2:14" ht="98.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="P220" t="s">
+        <v>2265</v>
+      </c>
+      <c r="Q220" s="4" t="s">
+        <v>401</v>
+      </c>
+    </row>
+    <row r="221" spans="2:17" ht="98.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B221" s="2">
         <v>219</v>
       </c>
@@ -20250,8 +22694,14 @@
         <f t="shared" si="11"/>
         <v>268</v>
       </c>
-    </row>
-    <row r="222" spans="2:14" ht="147.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="P221" t="s">
+        <v>2266</v>
+      </c>
+      <c r="Q221" s="4" t="s">
+        <v>748</v>
+      </c>
+    </row>
+    <row r="222" spans="2:17" ht="147.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B222" s="2">
         <v>220</v>
       </c>
@@ -20291,8 +22741,14 @@
         <f t="shared" si="11"/>
         <v>518</v>
       </c>
-    </row>
-    <row r="223" spans="2:14" ht="130.9" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="P222" t="s">
+        <v>2267</v>
+      </c>
+      <c r="Q222" s="4" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="223" spans="2:17" ht="130.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B223" s="2">
         <v>221</v>
       </c>
@@ -20332,8 +22788,14 @@
         <f t="shared" si="11"/>
         <v>495</v>
       </c>
-    </row>
-    <row r="224" spans="2:14" ht="130.9" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="P223" t="s">
+        <v>2268</v>
+      </c>
+      <c r="Q223" s="4" t="s">
+        <v>779</v>
+      </c>
+    </row>
+    <row r="224" spans="2:17" ht="130.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B224" s="2">
         <v>222</v>
       </c>
@@ -20373,8 +22835,14 @@
         <f t="shared" si="11"/>
         <v>645</v>
       </c>
-    </row>
-    <row r="225" spans="2:14" ht="130.9" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="P224" t="s">
+        <v>2269</v>
+      </c>
+      <c r="Q224" s="4" t="s">
+        <v>797</v>
+      </c>
+    </row>
+    <row r="225" spans="2:17" ht="130.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B225" s="2">
         <v>223</v>
       </c>
@@ -20414,8 +22882,14 @@
         <f t="shared" si="11"/>
         <v>562</v>
       </c>
-    </row>
-    <row r="226" spans="2:14" ht="130.9" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="P225" t="s">
+        <v>2270</v>
+      </c>
+      <c r="Q225" s="4" t="s">
+        <v>872</v>
+      </c>
+    </row>
+    <row r="226" spans="2:17" ht="130.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B226" s="2">
         <v>224</v>
       </c>
@@ -20455,8 +22929,14 @@
         <f t="shared" si="11"/>
         <v>592</v>
       </c>
-    </row>
-    <row r="227" spans="2:14" ht="114.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="P226" t="s">
+        <v>2271</v>
+      </c>
+      <c r="Q226" s="4" t="s">
+        <v>798</v>
+      </c>
+    </row>
+    <row r="227" spans="2:17" ht="114.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B227" s="2">
         <v>225</v>
       </c>
@@ -20479,7 +22959,7 @@
         <v>1382</v>
       </c>
       <c r="J227" s="8" t="s">
-        <v>1382</v>
+        <v>2045</v>
       </c>
       <c r="K227" s="8" t="s">
         <v>1895</v>
@@ -20496,8 +22976,14 @@
         <f t="shared" si="11"/>
         <v>565</v>
       </c>
-    </row>
-    <row r="228" spans="2:14" ht="180.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="P227" s="21" t="s">
+        <v>2046</v>
+      </c>
+      <c r="Q227" s="4" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="228" spans="2:17" ht="180.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B228" s="2">
         <v>226</v>
       </c>
@@ -20537,8 +23023,14 @@
         <f t="shared" si="11"/>
         <v>692</v>
       </c>
-    </row>
-    <row r="229" spans="2:14" ht="98.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="P228" t="s">
+        <v>2272</v>
+      </c>
+      <c r="Q228" s="4" t="s">
+        <v>790</v>
+      </c>
+    </row>
+    <row r="229" spans="2:17" ht="98.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B229" s="2">
         <v>227</v>
       </c>
@@ -20578,8 +23070,14 @@
         <f t="shared" si="11"/>
         <v>758</v>
       </c>
-    </row>
-    <row r="230" spans="2:14" ht="163.69999999999999" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="P229" t="s">
+        <v>2273</v>
+      </c>
+      <c r="Q229" s="4" t="s">
+        <v>801</v>
+      </c>
+    </row>
+    <row r="230" spans="2:17" ht="163.69999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B230" s="2">
         <v>228</v>
       </c>
@@ -20619,8 +23117,14 @@
         <f t="shared" si="11"/>
         <v>9</v>
       </c>
-    </row>
-    <row r="231" spans="2:14" ht="180.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="P230" t="s">
+        <v>2274</v>
+      </c>
+      <c r="Q230" s="4" t="s">
+        <v>791</v>
+      </c>
+    </row>
+    <row r="231" spans="2:17" ht="180.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B231" s="2">
         <v>229</v>
       </c>
@@ -20660,8 +23164,14 @@
         <f t="shared" si="11"/>
         <v>633</v>
       </c>
-    </row>
-    <row r="232" spans="2:14" ht="114.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="P231" t="s">
+        <v>2275</v>
+      </c>
+      <c r="Q231" s="4" t="s">
+        <v>873</v>
+      </c>
+    </row>
+    <row r="232" spans="2:17" ht="114.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B232" s="2">
         <v>230</v>
       </c>
@@ -20701,8 +23211,14 @@
         <f t="shared" si="11"/>
         <v>470</v>
       </c>
-    </row>
-    <row r="233" spans="2:14" ht="114.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="P232" t="s">
+        <v>2276</v>
+      </c>
+      <c r="Q232" s="4" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="233" spans="2:17" ht="114.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B233" s="2">
         <v>231</v>
       </c>
@@ -20742,8 +23258,14 @@
         <f t="shared" si="11"/>
         <v>660</v>
       </c>
-    </row>
-    <row r="234" spans="2:14" ht="114.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="P233" t="s">
+        <v>2277</v>
+      </c>
+      <c r="Q233" s="4" t="s">
+        <v>800</v>
+      </c>
+    </row>
+    <row r="234" spans="2:17" ht="114.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B234" s="2">
         <v>232</v>
       </c>
@@ -20783,8 +23305,14 @@
         <f t="shared" si="11"/>
         <v>581</v>
       </c>
-    </row>
-    <row r="235" spans="2:14" ht="130.9" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="P234" t="s">
+        <v>2278</v>
+      </c>
+      <c r="Q234" s="4" t="s">
+        <v>780</v>
+      </c>
+    </row>
+    <row r="235" spans="2:17" ht="130.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B235" s="2">
         <v>233</v>
       </c>
@@ -20824,8 +23352,14 @@
         <f t="shared" si="11"/>
         <v>534</v>
       </c>
-    </row>
-    <row r="236" spans="2:14" ht="163.69999999999999" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="P235" t="s">
+        <v>2279</v>
+      </c>
+      <c r="Q235" s="4" t="s">
+        <v>668</v>
+      </c>
+    </row>
+    <row r="236" spans="2:17" ht="163.69999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B236" s="2">
         <v>234</v>
       </c>
@@ -20865,8 +23399,14 @@
         <f t="shared" si="11"/>
         <v>669</v>
       </c>
-    </row>
-    <row r="237" spans="2:14" ht="163.69999999999999" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="P236" t="s">
+        <v>2280</v>
+      </c>
+      <c r="Q236" s="4" t="s">
+        <v>921</v>
+      </c>
+    </row>
+    <row r="237" spans="2:17" ht="163.69999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B237" s="2">
         <v>235</v>
       </c>
@@ -20906,8 +23446,14 @@
         <f t="shared" si="11"/>
         <v>620</v>
       </c>
-    </row>
-    <row r="238" spans="2:14" ht="147.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="P237" t="s">
+        <v>2281</v>
+      </c>
+      <c r="Q237" s="4" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="238" spans="2:17" ht="147.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B238" s="2">
         <v>236</v>
       </c>
@@ -20947,8 +23493,14 @@
         <f t="shared" si="11"/>
         <v>362</v>
       </c>
-    </row>
-    <row r="239" spans="2:14" ht="81.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="P238" t="s">
+        <v>2282</v>
+      </c>
+      <c r="Q238" s="4" t="s">
+        <v>920</v>
+      </c>
+    </row>
+    <row r="239" spans="2:17" ht="81.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B239" s="2">
         <v>237</v>
       </c>
@@ -20988,8 +23540,14 @@
         <f t="shared" si="11"/>
         <v>299</v>
       </c>
-    </row>
-    <row r="240" spans="2:14" ht="196.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="P239" t="s">
+        <v>2283</v>
+      </c>
+      <c r="Q239" s="4" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="240" spans="2:17" ht="196.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B240" s="2">
         <v>238</v>
       </c>
@@ -21029,8 +23587,14 @@
         <f t="shared" si="11"/>
         <v>643</v>
       </c>
-    </row>
-    <row r="241" spans="2:14" ht="147.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="P240" t="s">
+        <v>2284</v>
+      </c>
+      <c r="Q240" s="4" t="s">
+        <v>701</v>
+      </c>
+    </row>
+    <row r="241" spans="2:17" ht="147.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B241" s="2">
         <v>239</v>
       </c>
@@ -21070,8 +23634,14 @@
         <f t="shared" si="11"/>
         <v>480</v>
       </c>
-    </row>
-    <row r="242" spans="2:14" ht="32.65" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="P241" t="s">
+        <v>2285</v>
+      </c>
+      <c r="Q241" s="4" t="s">
+        <v>837</v>
+      </c>
+    </row>
+    <row r="242" spans="2:17" ht="32.65" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B242" s="2">
         <v>240</v>
       </c>
@@ -21111,8 +23681,14 @@
         <f t="shared" si="11"/>
         <v>59</v>
       </c>
-    </row>
-    <row r="243" spans="2:14" ht="98.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="P242" t="s">
+        <v>2286</v>
+      </c>
+      <c r="Q242" s="4" t="s">
+        <v>772</v>
+      </c>
+    </row>
+    <row r="243" spans="2:17" ht="98.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B243" s="2">
         <v>241</v>
       </c>
@@ -21152,8 +23728,14 @@
         <f t="shared" si="11"/>
         <v>292</v>
       </c>
-    </row>
-    <row r="244" spans="2:14" ht="163.69999999999999" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="P243" t="s">
+        <v>2287</v>
+      </c>
+      <c r="Q243" s="4" t="s">
+        <v>764</v>
+      </c>
+    </row>
+    <row r="244" spans="2:17" ht="163.69999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B244" s="2">
         <v>242</v>
       </c>
@@ -21193,8 +23775,14 @@
         <f t="shared" si="11"/>
         <v>1236</v>
       </c>
-    </row>
-    <row r="245" spans="2:14" ht="98.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="P244" t="s">
+        <v>2288</v>
+      </c>
+      <c r="Q244" s="4" t="s">
+        <v>859</v>
+      </c>
+    </row>
+    <row r="245" spans="2:17" ht="98.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B245" s="2">
         <v>243</v>
       </c>
@@ -21234,8 +23822,14 @@
         <f t="shared" si="11"/>
         <v>404</v>
       </c>
-    </row>
-    <row r="246" spans="2:14" ht="65.650000000000006" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="P245" t="s">
+        <v>2289</v>
+      </c>
+      <c r="Q245" s="4" t="s">
+        <v>893</v>
+      </c>
+    </row>
+    <row r="246" spans="2:17" ht="65.650000000000006" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B246" s="2">
         <v>244</v>
       </c>
@@ -21275,8 +23869,14 @@
         <f t="shared" si="11"/>
         <v>495</v>
       </c>
-    </row>
-    <row r="247" spans="2:14" ht="98.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="P246" t="s">
+        <v>2290</v>
+      </c>
+      <c r="Q246" s="4" t="s">
+        <v>879</v>
+      </c>
+    </row>
+    <row r="247" spans="2:17" ht="98.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B247" s="2">
         <v>245</v>
       </c>
@@ -21316,8 +23916,14 @@
         <f t="shared" si="11"/>
         <v>352</v>
       </c>
-    </row>
-    <row r="248" spans="2:14" ht="98.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="P247" t="s">
+        <v>2291</v>
+      </c>
+      <c r="Q247" s="4" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="248" spans="2:17" ht="98.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B248" s="2">
         <v>246</v>
       </c>
@@ -21357,8 +23963,14 @@
         <f t="shared" si="11"/>
         <v>403</v>
       </c>
-    </row>
-    <row r="249" spans="2:14" ht="81.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="P248" t="s">
+        <v>2292</v>
+      </c>
+      <c r="Q248" s="4" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="249" spans="2:17" ht="81.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B249" s="2">
         <v>247</v>
       </c>
@@ -21398,8 +24010,14 @@
         <f t="shared" si="11"/>
         <v>338</v>
       </c>
-    </row>
-    <row r="250" spans="2:14" ht="163.69999999999999" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="P249" t="s">
+        <v>2293</v>
+      </c>
+      <c r="Q249" s="4" t="s">
+        <v>729</v>
+      </c>
+    </row>
+    <row r="250" spans="2:17" ht="163.69999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B250" s="2">
         <v>248</v>
       </c>
@@ -21439,8 +24057,14 @@
         <f t="shared" si="11"/>
         <v>672</v>
       </c>
-    </row>
-    <row r="251" spans="2:14" ht="147.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="P250" t="s">
+        <v>2294</v>
+      </c>
+      <c r="Q250" s="4" t="s">
+        <v>893</v>
+      </c>
+    </row>
+    <row r="251" spans="2:17" ht="147.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B251" s="2">
         <v>249</v>
       </c>
@@ -21480,8 +24104,14 @@
         <f t="shared" si="11"/>
         <v>349</v>
       </c>
-    </row>
-    <row r="252" spans="2:14" ht="114.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="P251" t="s">
+        <v>2295</v>
+      </c>
+      <c r="Q251" s="4" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="252" spans="2:17" ht="114.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B252" s="2">
         <v>250</v>
       </c>
@@ -21521,8 +24151,14 @@
         <f t="shared" si="11"/>
         <v>508</v>
       </c>
-    </row>
-    <row r="253" spans="2:14" ht="163.69999999999999" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="P252" t="s">
+        <v>2296</v>
+      </c>
+      <c r="Q252" s="4" t="s">
+        <v>682</v>
+      </c>
+    </row>
+    <row r="253" spans="2:17" ht="163.69999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B253" s="2">
         <v>251</v>
       </c>
@@ -21562,8 +24198,14 @@
         <f t="shared" si="11"/>
         <v>464</v>
       </c>
-    </row>
-    <row r="254" spans="2:14" ht="114.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="P253" t="s">
+        <v>2297</v>
+      </c>
+      <c r="Q253" s="4" t="s">
+        <v>894</v>
+      </c>
+    </row>
+    <row r="254" spans="2:17" ht="114.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B254" s="2">
         <v>252</v>
       </c>
@@ -21603,8 +24245,14 @@
         <f t="shared" si="11"/>
         <v>585</v>
       </c>
-    </row>
-    <row r="255" spans="2:14" ht="98.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="P254" t="s">
+        <v>2298</v>
+      </c>
+      <c r="Q254" s="4" t="s">
+        <v>941</v>
+      </c>
+    </row>
+    <row r="255" spans="2:17" ht="98.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B255" s="2">
         <v>253</v>
       </c>
@@ -21644,8 +24292,14 @@
         <f t="shared" si="11"/>
         <v>557</v>
       </c>
-    </row>
-    <row r="256" spans="2:14" ht="147.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="P255" t="s">
+        <v>2299</v>
+      </c>
+      <c r="Q255" s="4" t="s">
+        <v>939</v>
+      </c>
+    </row>
+    <row r="256" spans="2:17" ht="147.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B256" s="2">
         <v>254</v>
       </c>
@@ -21685,8 +24339,14 @@
         <f t="shared" si="11"/>
         <v>748</v>
       </c>
-    </row>
-    <row r="257" spans="2:14" ht="130.9" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="P256" t="s">
+        <v>2300</v>
+      </c>
+      <c r="Q256" s="4" t="s">
+        <v>769</v>
+      </c>
+    </row>
+    <row r="257" spans="2:17" ht="130.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B257" s="2">
         <v>255</v>
       </c>
@@ -21726,8 +24386,14 @@
         <f t="shared" si="11"/>
         <v>440</v>
       </c>
-    </row>
-    <row r="258" spans="2:14" ht="163.69999999999999" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="P257" t="s">
+        <v>2301</v>
+      </c>
+      <c r="Q257" s="4" t="s">
+        <v>825</v>
+      </c>
+    </row>
+    <row r="258" spans="2:17" ht="163.69999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B258" s="2">
         <v>256</v>
       </c>
@@ -21767,8 +24433,14 @@
         <f t="shared" si="11"/>
         <v>659</v>
       </c>
-    </row>
-    <row r="259" spans="2:14" ht="163.69999999999999" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="P258" t="s">
+        <v>2302</v>
+      </c>
+      <c r="Q258" s="4" t="s">
+        <v>770</v>
+      </c>
+    </row>
+    <row r="259" spans="2:17" ht="163.69999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B259" s="2">
         <v>257</v>
       </c>
@@ -21808,8 +24480,14 @@
         <f t="shared" si="11"/>
         <v>516</v>
       </c>
-    </row>
-    <row r="260" spans="2:14" ht="163.69999999999999" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="P259" t="s">
+        <v>2303</v>
+      </c>
+      <c r="Q259" s="4" t="s">
+        <v>861</v>
+      </c>
+    </row>
+    <row r="260" spans="2:17" ht="163.69999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B260" s="2">
         <v>258</v>
       </c>
@@ -21849,8 +24527,14 @@
         <f t="shared" ref="N260:N323" si="14" xml:space="preserve"> HOUR(F260) * 3600 + MINUTE(F260) * 60 + SECOND(F260)</f>
         <v>607</v>
       </c>
-    </row>
-    <row r="261" spans="2:14" ht="163.69999999999999" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="P260" t="s">
+        <v>2304</v>
+      </c>
+      <c r="Q260" s="4" t="s">
+        <v>750</v>
+      </c>
+    </row>
+    <row r="261" spans="2:17" ht="163.69999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B261" s="2">
         <v>259</v>
       </c>
@@ -21890,8 +24574,14 @@
         <f t="shared" si="14"/>
         <v>671</v>
       </c>
-    </row>
-    <row r="262" spans="2:14" ht="98.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="P261" t="s">
+        <v>2305</v>
+      </c>
+      <c r="Q261" s="4" t="s">
+        <v>749</v>
+      </c>
+    </row>
+    <row r="262" spans="2:17" ht="98.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B262" s="2">
         <v>260</v>
       </c>
@@ -21931,8 +24621,14 @@
         <f t="shared" si="14"/>
         <v>444</v>
       </c>
-    </row>
-    <row r="263" spans="2:14" ht="212.85" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="P262" t="s">
+        <v>2306</v>
+      </c>
+      <c r="Q262" s="4" t="s">
+        <v>838</v>
+      </c>
+    </row>
+    <row r="263" spans="2:17" ht="212.85" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B263" s="2">
         <v>261</v>
       </c>
@@ -21972,8 +24668,14 @@
         <f t="shared" si="14"/>
         <v>550</v>
       </c>
-    </row>
-    <row r="264" spans="2:14" ht="147.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="P263" t="s">
+        <v>2307</v>
+      </c>
+      <c r="Q263" s="4" t="s">
+        <v>787</v>
+      </c>
+    </row>
+    <row r="264" spans="2:17" ht="147.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B264" s="2">
         <v>262</v>
       </c>
@@ -22013,8 +24715,14 @@
         <f t="shared" si="14"/>
         <v>660</v>
       </c>
-    </row>
-    <row r="265" spans="2:14" ht="130.9" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="P264" t="s">
+        <v>2308</v>
+      </c>
+      <c r="Q264" s="4" t="s">
+        <v>911</v>
+      </c>
+    </row>
+    <row r="265" spans="2:17" ht="130.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B265" s="2">
         <v>263</v>
       </c>
@@ -22054,8 +24762,14 @@
         <f t="shared" si="14"/>
         <v>725</v>
       </c>
-    </row>
-    <row r="266" spans="2:14" ht="196.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="P265" t="s">
+        <v>2309</v>
+      </c>
+      <c r="Q265" s="4" t="s">
+        <v>758</v>
+      </c>
+    </row>
+    <row r="266" spans="2:17" ht="196.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B266" s="2">
         <v>264</v>
       </c>
@@ -22095,8 +24809,14 @@
         <f t="shared" si="14"/>
         <v>621</v>
       </c>
-    </row>
-    <row r="267" spans="2:14" ht="163.69999999999999" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="P266" t="s">
+        <v>2310</v>
+      </c>
+      <c r="Q266" s="4" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="267" spans="2:17" ht="163.69999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B267" s="2">
         <v>265</v>
       </c>
@@ -22139,8 +24859,14 @@
         <f t="shared" si="14"/>
         <v>875</v>
       </c>
-    </row>
-    <row r="268" spans="2:14" ht="147.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="P267" t="s">
+        <v>2311</v>
+      </c>
+      <c r="Q267" s="4" t="s">
+        <v>775</v>
+      </c>
+    </row>
+    <row r="268" spans="2:17" ht="147.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B268" s="2">
         <v>266</v>
       </c>
@@ -22180,8 +24906,14 @@
         <f t="shared" si="14"/>
         <v>671</v>
       </c>
-    </row>
-    <row r="269" spans="2:14" ht="114.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="P268" t="s">
+        <v>2312</v>
+      </c>
+      <c r="Q268" s="4" t="s">
+        <v>851</v>
+      </c>
+    </row>
+    <row r="269" spans="2:17" ht="114.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B269" s="2">
         <v>267</v>
       </c>
@@ -22221,8 +24953,14 @@
         <f t="shared" si="14"/>
         <v>513</v>
       </c>
-    </row>
-    <row r="270" spans="2:14" ht="114.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="P269" t="s">
+        <v>2313</v>
+      </c>
+      <c r="Q269" s="4" t="s">
+        <v>756</v>
+      </c>
+    </row>
+    <row r="270" spans="2:17" ht="114.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B270" s="2">
         <v>268</v>
       </c>
@@ -22262,8 +25000,14 @@
         <f t="shared" si="14"/>
         <v>197</v>
       </c>
-    </row>
-    <row r="271" spans="2:14" ht="81.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="P270" t="s">
+        <v>2314</v>
+      </c>
+      <c r="Q270" s="4" t="s">
+        <v>914</v>
+      </c>
+    </row>
+    <row r="271" spans="2:17" ht="81.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B271" s="2">
         <v>269</v>
       </c>
@@ -22303,8 +25047,14 @@
         <f t="shared" si="14"/>
         <v>365</v>
       </c>
-    </row>
-    <row r="272" spans="2:14" ht="81.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="P271" t="s">
+        <v>2315</v>
+      </c>
+      <c r="Q271" s="4" t="s">
+        <v>857</v>
+      </c>
+    </row>
+    <row r="272" spans="2:17" ht="81.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B272" s="2">
         <v>270</v>
       </c>
@@ -22344,8 +25094,14 @@
         <f t="shared" si="14"/>
         <v>494</v>
       </c>
-    </row>
-    <row r="273" spans="2:14" ht="147.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="P272" t="s">
+        <v>2316</v>
+      </c>
+      <c r="Q272" s="4" t="s">
+        <v>792</v>
+      </c>
+    </row>
+    <row r="273" spans="2:17" ht="147.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B273" s="2">
         <v>271</v>
       </c>
@@ -22385,8 +25141,14 @@
         <f t="shared" si="14"/>
         <v>408</v>
       </c>
-    </row>
-    <row r="274" spans="2:14" ht="147.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="P273" t="s">
+        <v>2317</v>
+      </c>
+      <c r="Q273" s="4" t="s">
+        <v>770</v>
+      </c>
+    </row>
+    <row r="274" spans="2:17" ht="147.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B274" s="2">
         <v>272</v>
       </c>
@@ -22426,8 +25188,14 @@
         <f t="shared" si="14"/>
         <v>373</v>
       </c>
-    </row>
-    <row r="275" spans="2:14" ht="163.69999999999999" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="P274" t="s">
+        <v>2318</v>
+      </c>
+      <c r="Q274" s="4" t="s">
+        <v>942</v>
+      </c>
+    </row>
+    <row r="275" spans="2:17" ht="163.69999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B275" s="2">
         <v>273</v>
       </c>
@@ -22467,8 +25235,14 @@
         <f t="shared" si="14"/>
         <v>531</v>
       </c>
-    </row>
-    <row r="276" spans="2:14" ht="130.9" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="P275" t="s">
+        <v>2319</v>
+      </c>
+      <c r="Q275" s="4" t="s">
+        <v>936</v>
+      </c>
+    </row>
+    <row r="276" spans="2:17" ht="130.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B276" s="2">
         <v>274</v>
       </c>
@@ -22508,8 +25282,14 @@
         <f t="shared" si="14"/>
         <v>594</v>
       </c>
-    </row>
-    <row r="277" spans="2:14" ht="147.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="P276" t="s">
+        <v>2320</v>
+      </c>
+      <c r="Q276" s="4" t="s">
+        <v>703</v>
+      </c>
+    </row>
+    <row r="277" spans="2:17" ht="147.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B277" s="2">
         <v>275</v>
       </c>
@@ -22549,8 +25329,14 @@
         <f t="shared" si="14"/>
         <v>504</v>
       </c>
-    </row>
-    <row r="278" spans="2:14" ht="130.9" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="P277" t="s">
+        <v>2321</v>
+      </c>
+      <c r="Q277" s="4" t="s">
+        <v>876</v>
+      </c>
+    </row>
+    <row r="278" spans="2:17" ht="130.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B278" s="2">
         <v>276</v>
       </c>
@@ -22590,8 +25376,14 @@
         <f t="shared" si="14"/>
         <v>559</v>
       </c>
-    </row>
-    <row r="279" spans="2:14" ht="114.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="P278" t="s">
+        <v>2322</v>
+      </c>
+      <c r="Q278" s="4" t="s">
+        <v>895</v>
+      </c>
+    </row>
+    <row r="279" spans="2:17" ht="114.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B279" s="2">
         <v>277</v>
       </c>
@@ -22631,8 +25423,14 @@
         <f t="shared" si="14"/>
         <v>420</v>
       </c>
-    </row>
-    <row r="280" spans="2:14" ht="147.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="P279" t="s">
+        <v>2323</v>
+      </c>
+      <c r="Q279" s="4" t="s">
+        <v>842</v>
+      </c>
+    </row>
+    <row r="280" spans="2:17" ht="147.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B280" s="2">
         <v>278</v>
       </c>
@@ -22672,8 +25470,14 @@
         <f t="shared" si="14"/>
         <v>578</v>
       </c>
-    </row>
-    <row r="281" spans="2:14" ht="147.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="P280" t="s">
+        <v>2324</v>
+      </c>
+      <c r="Q280" s="4" t="s">
+        <v>731</v>
+      </c>
+    </row>
+    <row r="281" spans="2:17" ht="147.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B281" s="2">
         <v>279</v>
       </c>
@@ -22713,8 +25517,14 @@
         <f t="shared" si="14"/>
         <v>713</v>
       </c>
-    </row>
-    <row r="282" spans="2:14" ht="163.69999999999999" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="P281" t="s">
+        <v>2325</v>
+      </c>
+      <c r="Q281" s="4" t="s">
+        <v>785</v>
+      </c>
+    </row>
+    <row r="282" spans="2:17" ht="163.69999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B282" s="2">
         <v>280</v>
       </c>
@@ -22754,8 +25564,14 @@
         <f t="shared" si="14"/>
         <v>593</v>
       </c>
-    </row>
-    <row r="283" spans="2:14" ht="130.9" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="P282" t="s">
+        <v>2326</v>
+      </c>
+      <c r="Q282" s="4" t="s">
+        <v>398</v>
+      </c>
+    </row>
+    <row r="283" spans="2:17" ht="130.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B283" s="2">
         <v>281</v>
       </c>
@@ -22795,8 +25611,14 @@
         <f t="shared" si="14"/>
         <v>512</v>
       </c>
-    </row>
-    <row r="284" spans="2:14" ht="130.9" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="P283" t="s">
+        <v>2327</v>
+      </c>
+      <c r="Q283" s="4" t="s">
+        <v>840</v>
+      </c>
+    </row>
+    <row r="284" spans="2:17" ht="130.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B284" s="2">
         <v>282</v>
       </c>
@@ -22836,8 +25658,14 @@
         <f t="shared" si="14"/>
         <v>442</v>
       </c>
-    </row>
-    <row r="285" spans="2:14" ht="81.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="P284" t="s">
+        <v>2328</v>
+      </c>
+      <c r="Q284" s="4" t="s">
+        <v>751</v>
+      </c>
+    </row>
+    <row r="285" spans="2:17" ht="81.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B285" s="2">
         <v>283</v>
       </c>
@@ -22877,8 +25705,14 @@
         <f t="shared" si="14"/>
         <v>580</v>
       </c>
-    </row>
-    <row r="286" spans="2:14" ht="163.69999999999999" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="P285" t="s">
+        <v>2329</v>
+      </c>
+      <c r="Q285" s="4" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="286" spans="2:17" ht="163.69999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B286" s="2">
         <v>284</v>
       </c>
@@ -22918,8 +25752,14 @@
         <f t="shared" si="14"/>
         <v>586</v>
       </c>
-    </row>
-    <row r="287" spans="2:14" ht="130.9" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="P286" t="s">
+        <v>2330</v>
+      </c>
+      <c r="Q286" s="4" t="s">
+        <v>910</v>
+      </c>
+    </row>
+    <row r="287" spans="2:17" ht="130.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B287" s="2">
         <v>285</v>
       </c>
@@ -22959,8 +25799,14 @@
         <f t="shared" si="14"/>
         <v>388</v>
       </c>
-    </row>
-    <row r="288" spans="2:14" ht="65.650000000000006" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="P287" t="s">
+        <v>2331</v>
+      </c>
+      <c r="Q287" s="4" t="s">
+        <v>699</v>
+      </c>
+    </row>
+    <row r="288" spans="2:17" ht="65.650000000000006" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B288" s="2">
         <v>286</v>
       </c>
@@ -23000,8 +25846,14 @@
         <f t="shared" si="14"/>
         <v>719</v>
       </c>
-    </row>
-    <row r="289" spans="2:14" ht="147.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="P288" t="s">
+        <v>2332</v>
+      </c>
+      <c r="Q288" s="4" t="s">
+        <v>740</v>
+      </c>
+    </row>
+    <row r="289" spans="2:17" ht="147.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B289" s="2">
         <v>287</v>
       </c>
@@ -23041,8 +25893,14 @@
         <f t="shared" si="14"/>
         <v>1701</v>
       </c>
-    </row>
-    <row r="290" spans="2:14" ht="98.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="P289" t="s">
+        <v>2333</v>
+      </c>
+      <c r="Q289" s="4" t="s">
+        <v>888</v>
+      </c>
+    </row>
+    <row r="290" spans="2:17" ht="98.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B290" s="2">
         <v>288</v>
       </c>
@@ -23082,8 +25940,14 @@
         <f t="shared" si="14"/>
         <v>677</v>
       </c>
-    </row>
-    <row r="291" spans="2:14" ht="163.69999999999999" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="P290" t="s">
+        <v>2334</v>
+      </c>
+      <c r="Q290" s="4" t="s">
+        <v>778</v>
+      </c>
+    </row>
+    <row r="291" spans="2:17" ht="163.69999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B291" s="2">
         <v>289</v>
       </c>
@@ -23123,8 +25987,14 @@
         <f t="shared" si="14"/>
         <v>448</v>
       </c>
-    </row>
-    <row r="292" spans="2:14" ht="81.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="P291" t="s">
+        <v>2335</v>
+      </c>
+      <c r="Q291" s="4" t="s">
+        <v>896</v>
+      </c>
+    </row>
+    <row r="292" spans="2:17" ht="81.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B292" s="2">
         <v>290</v>
       </c>
@@ -23164,8 +26034,14 @@
         <f t="shared" si="14"/>
         <v>321</v>
       </c>
-    </row>
-    <row r="293" spans="2:14" ht="114.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="P292" t="s">
+        <v>2336</v>
+      </c>
+      <c r="Q292" s="4" t="s">
+        <v>818</v>
+      </c>
+    </row>
+    <row r="293" spans="2:17" ht="114.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B293" s="2">
         <v>291</v>
       </c>
@@ -23205,8 +26081,14 @@
         <f t="shared" si="14"/>
         <v>389</v>
       </c>
-    </row>
-    <row r="294" spans="2:14" ht="147.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="P293" t="s">
+        <v>2337</v>
+      </c>
+      <c r="Q293" s="4" t="s">
+        <v>821</v>
+      </c>
+    </row>
+    <row r="294" spans="2:17" ht="147.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B294" s="2">
         <v>292</v>
       </c>
@@ -23246,8 +26128,14 @@
         <f t="shared" si="14"/>
         <v>428</v>
       </c>
-    </row>
-    <row r="295" spans="2:14" ht="81.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="P294" t="s">
+        <v>2338</v>
+      </c>
+      <c r="Q294" s="4" t="s">
+        <v>770</v>
+      </c>
+    </row>
+    <row r="295" spans="2:17" ht="81.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B295" s="2">
         <v>293</v>
       </c>
@@ -23287,8 +26175,14 @@
         <f t="shared" si="14"/>
         <v>494</v>
       </c>
-    </row>
-    <row r="296" spans="2:14" ht="81.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="P295" t="s">
+        <v>2339</v>
+      </c>
+      <c r="Q295" s="4" t="s">
+        <v>741</v>
+      </c>
+    </row>
+    <row r="296" spans="2:17" ht="81.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B296" s="2">
         <v>294</v>
       </c>
@@ -23328,8 +26222,14 @@
         <f t="shared" si="14"/>
         <v>408</v>
       </c>
-    </row>
-    <row r="297" spans="2:14" ht="130.9" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="P296" t="s">
+        <v>2340</v>
+      </c>
+      <c r="Q296" s="4" t="s">
+        <v>847</v>
+      </c>
+    </row>
+    <row r="297" spans="2:17" ht="130.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B297" s="2">
         <v>295</v>
       </c>
@@ -23369,8 +26269,14 @@
         <f t="shared" si="14"/>
         <v>578</v>
       </c>
-    </row>
-    <row r="298" spans="2:14" ht="98.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="P297" t="s">
+        <v>2341</v>
+      </c>
+      <c r="Q297" s="4" t="s">
+        <v>858</v>
+      </c>
+    </row>
+    <row r="298" spans="2:17" ht="98.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B298" s="2">
         <v>296</v>
       </c>
@@ -23410,8 +26316,14 @@
         <f t="shared" si="14"/>
         <v>527</v>
       </c>
-    </row>
-    <row r="299" spans="2:14" ht="130.9" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="P298" t="s">
+        <v>2342</v>
+      </c>
+      <c r="Q298" s="4" t="s">
+        <v>883</v>
+      </c>
+    </row>
+    <row r="299" spans="2:17" ht="130.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B299" s="2">
         <v>297</v>
       </c>
@@ -23451,8 +26363,14 @@
         <f t="shared" si="14"/>
         <v>539</v>
       </c>
-    </row>
-    <row r="300" spans="2:14" ht="114.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="P299" t="s">
+        <v>2343</v>
+      </c>
+      <c r="Q299" s="4" t="s">
+        <v>890</v>
+      </c>
+    </row>
+    <row r="300" spans="2:17" ht="114.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B300" s="2">
         <v>298</v>
       </c>
@@ -23492,8 +26410,14 @@
         <f t="shared" si="14"/>
         <v>495</v>
       </c>
-    </row>
-    <row r="301" spans="2:14" ht="147.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="P300" t="s">
+        <v>2344</v>
+      </c>
+      <c r="Q300" s="4" t="s">
+        <v>868</v>
+      </c>
+    </row>
+    <row r="301" spans="2:17" ht="147.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B301" s="2">
         <v>299</v>
       </c>
@@ -23533,8 +26457,14 @@
         <f t="shared" si="14"/>
         <v>716</v>
       </c>
-    </row>
-    <row r="302" spans="2:14" ht="130.9" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="P301" t="s">
+        <v>2345</v>
+      </c>
+      <c r="Q301" s="4" t="s">
+        <v>755</v>
+      </c>
+    </row>
+    <row r="302" spans="2:17" ht="130.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B302" s="2">
         <v>300</v>
       </c>
@@ -23574,8 +26504,14 @@
         <f t="shared" si="14"/>
         <v>716</v>
       </c>
-    </row>
-    <row r="303" spans="2:14" ht="130.9" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="P302" t="s">
+        <v>2346</v>
+      </c>
+      <c r="Q302" s="4" t="s">
+        <v>912</v>
+      </c>
+    </row>
+    <row r="303" spans="2:17" ht="130.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B303" s="2">
         <v>301</v>
       </c>
@@ -23615,8 +26551,14 @@
         <f t="shared" si="14"/>
         <v>796</v>
       </c>
-    </row>
-    <row r="304" spans="2:14" ht="98.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="P303" t="s">
+        <v>2347</v>
+      </c>
+      <c r="Q303" s="4" t="s">
+        <v>862</v>
+      </c>
+    </row>
+    <row r="304" spans="2:17" ht="98.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B304" s="2">
         <v>302</v>
       </c>
@@ -23656,8 +26598,14 @@
         <f t="shared" si="14"/>
         <v>450</v>
       </c>
-    </row>
-    <row r="305" spans="2:14" ht="180.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="P304" t="s">
+        <v>2348</v>
+      </c>
+      <c r="Q304" s="4" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="305" spans="2:17" ht="180.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B305" s="2">
         <v>303</v>
       </c>
@@ -23697,8 +26645,14 @@
         <f t="shared" si="14"/>
         <v>463</v>
       </c>
-    </row>
-    <row r="306" spans="2:14" ht="147.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="P305" t="s">
+        <v>2349</v>
+      </c>
+      <c r="Q305" s="4" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="306" spans="2:17" ht="147.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B306" s="2">
         <v>304</v>
       </c>
@@ -23738,8 +26692,14 @@
         <f t="shared" si="14"/>
         <v>657</v>
       </c>
-    </row>
-    <row r="307" spans="2:14" ht="98.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="P306" t="s">
+        <v>2350</v>
+      </c>
+      <c r="Q306" s="4" t="s">
+        <v>752</v>
+      </c>
+    </row>
+    <row r="307" spans="2:17" ht="98.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B307" s="2">
         <v>305</v>
       </c>
@@ -23779,8 +26739,14 @@
         <f t="shared" si="14"/>
         <v>342</v>
       </c>
-    </row>
-    <row r="308" spans="2:14" ht="114.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="P307" t="s">
+        <v>2351</v>
+      </c>
+      <c r="Q307" s="4" t="s">
+        <v>809</v>
+      </c>
+    </row>
+    <row r="308" spans="2:17" ht="114.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B308" s="2">
         <v>306</v>
       </c>
@@ -23820,8 +26786,14 @@
         <f t="shared" si="14"/>
         <v>640</v>
       </c>
-    </row>
-    <row r="309" spans="2:14" ht="147.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="P308" t="s">
+        <v>2352</v>
+      </c>
+      <c r="Q308" s="4" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="309" spans="2:17" ht="147.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B309" s="2">
         <v>307</v>
       </c>
@@ -23861,8 +26833,14 @@
         <f t="shared" si="14"/>
         <v>498</v>
       </c>
-    </row>
-    <row r="310" spans="2:14" ht="114.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="P309" t="s">
+        <v>2353</v>
+      </c>
+      <c r="Q309" s="4" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="310" spans="2:17" ht="114.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B310" s="2">
         <v>308</v>
       </c>
@@ -23902,8 +26880,14 @@
         <f t="shared" si="14"/>
         <v>675</v>
       </c>
-    </row>
-    <row r="311" spans="2:14" ht="81.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="P310" t="s">
+        <v>2354</v>
+      </c>
+      <c r="Q310" s="4" t="s">
+        <v>753</v>
+      </c>
+    </row>
+    <row r="311" spans="2:17" ht="81.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B311" s="2">
         <v>309</v>
       </c>
@@ -23943,8 +26927,14 @@
         <f t="shared" si="14"/>
         <v>442</v>
       </c>
-    </row>
-    <row r="312" spans="2:14" ht="163.69999999999999" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="P311" t="s">
+        <v>2355</v>
+      </c>
+      <c r="Q311" s="4" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="312" spans="2:17" ht="163.69999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B312" s="2">
         <v>310</v>
       </c>
@@ -23984,8 +26974,14 @@
         <f t="shared" si="14"/>
         <v>361</v>
       </c>
-    </row>
-    <row r="313" spans="2:14" ht="81.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="P312" t="s">
+        <v>2356</v>
+      </c>
+      <c r="Q312" s="4" t="s">
+        <v>733</v>
+      </c>
+    </row>
+    <row r="313" spans="2:17" ht="81.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B313" s="2">
         <v>311</v>
       </c>
@@ -24025,8 +27021,14 @@
         <f t="shared" si="14"/>
         <v>667</v>
       </c>
-    </row>
-    <row r="314" spans="2:14" ht="130.9" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="P313" t="s">
+        <v>2357</v>
+      </c>
+      <c r="Q313" s="4" t="s">
+        <v>877</v>
+      </c>
+    </row>
+    <row r="314" spans="2:17" ht="130.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B314" s="2">
         <v>312</v>
       </c>
@@ -24066,8 +27068,14 @@
         <f t="shared" si="14"/>
         <v>668</v>
       </c>
-    </row>
-    <row r="315" spans="2:14" ht="49.15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="P314" t="s">
+        <v>2358</v>
+      </c>
+      <c r="Q314" s="4" t="s">
+        <v>777</v>
+      </c>
+    </row>
+    <row r="315" spans="2:17" ht="49.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B315" s="2">
         <v>313</v>
       </c>
@@ -24107,8 +27115,14 @@
         <f t="shared" si="14"/>
         <v>666</v>
       </c>
-    </row>
-    <row r="316" spans="2:14" ht="114.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="P315" t="s">
+        <v>2359</v>
+      </c>
+      <c r="Q315" s="4" t="s">
+        <v>777</v>
+      </c>
+    </row>
+    <row r="316" spans="2:17" ht="114.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B316" s="2">
         <v>314</v>
       </c>
@@ -24148,8 +27162,14 @@
         <f t="shared" si="14"/>
         <v>707</v>
       </c>
-    </row>
-    <row r="317" spans="2:14" ht="130.9" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="P316" t="s">
+        <v>2360</v>
+      </c>
+      <c r="Q316" s="4" t="s">
+        <v>937</v>
+      </c>
+    </row>
+    <row r="317" spans="2:17" ht="130.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B317" s="2">
         <v>315</v>
       </c>
@@ -24189,8 +27209,14 @@
         <f t="shared" si="14"/>
         <v>573</v>
       </c>
-    </row>
-    <row r="318" spans="2:14" ht="147.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="P317" t="s">
+        <v>2361</v>
+      </c>
+      <c r="Q317" s="4" t="s">
+        <v>877</v>
+      </c>
+    </row>
+    <row r="318" spans="2:17" ht="147.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B318" s="2">
         <v>316</v>
       </c>
@@ -24230,8 +27256,14 @@
         <f t="shared" si="14"/>
         <v>564</v>
       </c>
-    </row>
-    <row r="319" spans="2:14" ht="81.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="P318" t="s">
+        <v>2362</v>
+      </c>
+      <c r="Q318" s="12" t="s">
+        <v>1556</v>
+      </c>
+    </row>
+    <row r="319" spans="2:17" ht="81.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B319" s="2">
         <v>317</v>
       </c>
@@ -24271,8 +27303,14 @@
         <f t="shared" si="14"/>
         <v>150</v>
       </c>
-    </row>
-    <row r="320" spans="2:14" ht="163.69999999999999" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="P319" t="s">
+        <v>2363</v>
+      </c>
+      <c r="Q319" s="4" t="s">
+        <v>925</v>
+      </c>
+    </row>
+    <row r="320" spans="2:17" ht="163.69999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B320" s="2">
         <v>318</v>
       </c>
@@ -24312,8 +27350,14 @@
         <f t="shared" si="14"/>
         <v>436</v>
       </c>
-    </row>
-    <row r="321" spans="2:14" ht="114.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="P320" t="s">
+        <v>2364</v>
+      </c>
+      <c r="Q320" s="4" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="321" spans="2:17" ht="114.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B321" s="2">
         <v>319</v>
       </c>
@@ -24353,8 +27397,14 @@
         <f t="shared" si="14"/>
         <v>547</v>
       </c>
-    </row>
-    <row r="322" spans="2:14" ht="130.9" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="P321" t="s">
+        <v>2365</v>
+      </c>
+      <c r="Q321" s="4" t="s">
+        <v>745</v>
+      </c>
+    </row>
+    <row r="322" spans="2:17" ht="130.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B322" s="2">
         <v>320</v>
       </c>
@@ -24394,8 +27444,14 @@
         <f t="shared" si="14"/>
         <v>669</v>
       </c>
-    </row>
-    <row r="323" spans="2:14" ht="163.69999999999999" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="P322" t="s">
+        <v>2366</v>
+      </c>
+      <c r="Q322" s="4" t="s">
+        <v>943</v>
+      </c>
+    </row>
+    <row r="323" spans="2:17" ht="163.69999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B323" s="2">
         <v>321</v>
       </c>
@@ -24435,8 +27491,14 @@
         <f t="shared" si="14"/>
         <v>734</v>
       </c>
-    </row>
-    <row r="324" spans="2:14" ht="163.69999999999999" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="P323" t="s">
+        <v>2367</v>
+      </c>
+      <c r="Q323" s="4" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="324" spans="2:17" ht="163.69999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B324" s="2">
         <v>322</v>
       </c>
@@ -24476,8 +27538,14 @@
         <f t="shared" ref="N324:N375" si="17" xml:space="preserve"> HOUR(F324) * 3600 + MINUTE(F324) * 60 + SECOND(F324)</f>
         <v>477</v>
       </c>
-    </row>
-    <row r="325" spans="2:14" ht="163.69999999999999" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="P324" t="s">
+        <v>2368</v>
+      </c>
+      <c r="Q324" s="4" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="325" spans="2:17" ht="163.69999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B325" s="2">
         <v>323</v>
       </c>
@@ -24517,8 +27585,14 @@
         <f t="shared" si="17"/>
         <v>387</v>
       </c>
-    </row>
-    <row r="326" spans="2:14" ht="180.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="P325" t="s">
+        <v>2369</v>
+      </c>
+      <c r="Q325" s="4" t="s">
+        <v>874</v>
+      </c>
+    </row>
+    <row r="326" spans="2:17" ht="180.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B326" s="2">
         <v>324</v>
       </c>
@@ -24558,8 +27632,14 @@
         <f t="shared" si="17"/>
         <v>392</v>
       </c>
-    </row>
-    <row r="327" spans="2:14" ht="147.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="P326" t="s">
+        <v>2370</v>
+      </c>
+      <c r="Q326" s="4" t="s">
+        <v>783</v>
+      </c>
+    </row>
+    <row r="327" spans="2:17" ht="147.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B327" s="2">
         <v>325</v>
       </c>
@@ -24599,8 +27679,14 @@
         <f t="shared" si="17"/>
         <v>538</v>
       </c>
-    </row>
-    <row r="328" spans="2:14" ht="147.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="P327" t="s">
+        <v>2371</v>
+      </c>
+      <c r="Q327" s="4" t="s">
+        <v>852</v>
+      </c>
+    </row>
+    <row r="328" spans="2:17" ht="147.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B328" s="2">
         <v>326</v>
       </c>
@@ -24640,8 +27726,14 @@
         <f t="shared" si="17"/>
         <v>406</v>
       </c>
-    </row>
-    <row r="329" spans="2:14" ht="163.69999999999999" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="P328" t="s">
+        <v>2372</v>
+      </c>
+      <c r="Q328" s="4" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="329" spans="2:17" ht="163.69999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B329" s="2">
         <v>327</v>
       </c>
@@ -24681,8 +27773,14 @@
         <f t="shared" si="17"/>
         <v>603</v>
       </c>
-    </row>
-    <row r="330" spans="2:14" ht="130.9" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="P329" t="s">
+        <v>2373</v>
+      </c>
+      <c r="Q329" s="4" t="s">
+        <v>786</v>
+      </c>
+    </row>
+    <row r="330" spans="2:17" ht="130.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B330" s="2">
         <v>328</v>
       </c>
@@ -24722,8 +27820,14 @@
         <f t="shared" si="17"/>
         <v>596</v>
       </c>
-    </row>
-    <row r="331" spans="2:14" ht="130.9" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="P330" t="s">
+        <v>2374</v>
+      </c>
+      <c r="Q330" s="4" t="s">
+        <v>834</v>
+      </c>
+    </row>
+    <row r="331" spans="2:17" ht="130.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B331" s="2">
         <v>329</v>
       </c>
@@ -24763,8 +27867,14 @@
         <f t="shared" si="17"/>
         <v>796</v>
       </c>
-    </row>
-    <row r="332" spans="2:14" ht="130.9" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="P331" t="s">
+        <v>2375</v>
+      </c>
+      <c r="Q331" s="4" t="s">
+        <v>774</v>
+      </c>
+    </row>
+    <row r="332" spans="2:17" ht="130.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B332" s="2">
         <v>330</v>
       </c>
@@ -24804,8 +27914,14 @@
         <f t="shared" si="17"/>
         <v>389</v>
       </c>
-    </row>
-    <row r="333" spans="2:14" ht="130.9" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="P332" t="s">
+        <v>2376</v>
+      </c>
+      <c r="Q332" s="4" t="s">
+        <v>817</v>
+      </c>
+    </row>
+    <row r="333" spans="2:17" ht="130.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B333" s="2">
         <v>331</v>
       </c>
@@ -24845,8 +27961,14 @@
         <f t="shared" si="17"/>
         <v>522</v>
       </c>
-    </row>
-    <row r="334" spans="2:14" ht="98.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="P333" t="s">
+        <v>2377</v>
+      </c>
+      <c r="Q333" s="4" t="s">
+        <v>773</v>
+      </c>
+    </row>
+    <row r="334" spans="2:17" ht="98.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B334" s="2">
         <v>332</v>
       </c>
@@ -24886,8 +28008,14 @@
         <f t="shared" si="17"/>
         <v>365</v>
       </c>
-    </row>
-    <row r="335" spans="2:14" ht="130.9" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="P334" t="s">
+        <v>2378</v>
+      </c>
+      <c r="Q334" s="4" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="335" spans="2:17" ht="130.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B335" s="2">
         <v>333</v>
       </c>
@@ -24927,8 +28055,14 @@
         <f t="shared" si="17"/>
         <v>527</v>
       </c>
-    </row>
-    <row r="336" spans="2:14" ht="81.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="P335" t="s">
+        <v>2379</v>
+      </c>
+      <c r="Q335" s="4" t="s">
+        <v>776</v>
+      </c>
+    </row>
+    <row r="336" spans="2:17" ht="81.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B336" s="2">
         <v>334</v>
       </c>
@@ -24968,8 +28102,14 @@
         <f t="shared" si="17"/>
         <v>509</v>
       </c>
-    </row>
-    <row r="337" spans="2:14" ht="114.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="P336" t="s">
+        <v>2380</v>
+      </c>
+      <c r="Q336" s="4" t="s">
+        <v>870</v>
+      </c>
+    </row>
+    <row r="337" spans="2:17" ht="114.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B337" s="2">
         <v>335</v>
       </c>
@@ -25009,8 +28149,14 @@
         <f t="shared" si="17"/>
         <v>471</v>
       </c>
-    </row>
-    <row r="338" spans="2:14" ht="114.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="P337" t="s">
+        <v>2381</v>
+      </c>
+      <c r="Q337" s="4" t="s">
+        <v>827</v>
+      </c>
+    </row>
+    <row r="338" spans="2:17" ht="114.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B338" s="2">
         <v>336</v>
       </c>
@@ -25050,8 +28196,14 @@
         <f t="shared" si="17"/>
         <v>630</v>
       </c>
-    </row>
-    <row r="339" spans="2:14" ht="98.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="P338" t="s">
+        <v>2382</v>
+      </c>
+      <c r="Q338" s="4" t="s">
+        <v>771</v>
+      </c>
+    </row>
+    <row r="339" spans="2:17" ht="98.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B339" s="2">
         <v>337</v>
       </c>
@@ -25091,8 +28243,14 @@
         <f t="shared" si="17"/>
         <v>796</v>
       </c>
-    </row>
-    <row r="340" spans="2:14" ht="147.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="P339" t="s">
+        <v>2383</v>
+      </c>
+      <c r="Q339" s="4" t="s">
+        <v>732</v>
+      </c>
+    </row>
+    <row r="340" spans="2:17" ht="147.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B340" s="2">
         <v>338</v>
       </c>
@@ -25132,8 +28290,14 @@
         <f t="shared" si="17"/>
         <v>391</v>
       </c>
-    </row>
-    <row r="341" spans="2:14" ht="98.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="P340" t="s">
+        <v>2384</v>
+      </c>
+      <c r="Q340" s="4" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="341" spans="2:17" ht="98.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B341" s="2">
         <v>339</v>
       </c>
@@ -25173,8 +28337,14 @@
         <f t="shared" si="17"/>
         <v>538</v>
       </c>
-    </row>
-    <row r="342" spans="2:14" ht="114.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="P341" t="s">
+        <v>2385</v>
+      </c>
+      <c r="Q341" s="12" t="s">
+        <v>1593</v>
+      </c>
+    </row>
+    <row r="342" spans="2:17" ht="114.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B342" s="2">
         <v>340</v>
       </c>
@@ -25214,8 +28384,14 @@
         <f t="shared" si="17"/>
         <v>584</v>
       </c>
-    </row>
-    <row r="343" spans="2:14" ht="130.9" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="P342" t="s">
+        <v>2386</v>
+      </c>
+      <c r="Q342" s="12" t="s">
+        <v>1595</v>
+      </c>
+    </row>
+    <row r="343" spans="2:17" ht="130.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B343" s="2">
         <v>341</v>
       </c>
@@ -25255,8 +28431,14 @@
         <f t="shared" si="17"/>
         <v>595</v>
       </c>
-    </row>
-    <row r="344" spans="2:14" ht="130.9" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="P343" t="s">
+        <v>2387</v>
+      </c>
+      <c r="Q343" s="12" t="s">
+        <v>1598</v>
+      </c>
+    </row>
+    <row r="344" spans="2:17" ht="130.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B344" s="2">
         <v>342</v>
       </c>
@@ -25296,8 +28478,14 @@
         <f t="shared" si="17"/>
         <v>465</v>
       </c>
-    </row>
-    <row r="345" spans="2:14" ht="130.9" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="P344" t="s">
+        <v>2388</v>
+      </c>
+      <c r="Q344" s="4" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="345" spans="2:17" ht="130.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B345" s="2">
         <v>343</v>
       </c>
@@ -25337,8 +28525,14 @@
         <f t="shared" si="17"/>
         <v>545</v>
       </c>
-    </row>
-    <row r="346" spans="2:14" ht="163.69999999999999" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="P345" t="s">
+        <v>2389</v>
+      </c>
+      <c r="Q345" s="4" t="s">
+        <v>702</v>
+      </c>
+    </row>
+    <row r="346" spans="2:17" ht="163.69999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B346" s="2">
         <v>344</v>
       </c>
@@ -25378,8 +28572,14 @@
         <f t="shared" si="17"/>
         <v>471</v>
       </c>
-    </row>
-    <row r="347" spans="2:14" ht="130.9" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="P346" t="s">
+        <v>2390</v>
+      </c>
+      <c r="Q346" s="4" t="s">
+        <v>789</v>
+      </c>
+    </row>
+    <row r="347" spans="2:17" ht="130.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B347" s="2">
         <v>345</v>
       </c>
@@ -25419,8 +28619,14 @@
         <f t="shared" si="17"/>
         <v>457</v>
       </c>
-    </row>
-    <row r="348" spans="2:14" ht="130.9" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="P347" t="s">
+        <v>2391</v>
+      </c>
+      <c r="Q347" s="4" t="s">
+        <v>922</v>
+      </c>
+    </row>
+    <row r="348" spans="2:17" ht="130.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B348" s="2">
         <v>346</v>
       </c>
@@ -25460,8 +28666,14 @@
         <f t="shared" si="17"/>
         <v>654</v>
       </c>
-    </row>
-    <row r="349" spans="2:14" ht="147.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="P348" t="s">
+        <v>2392</v>
+      </c>
+      <c r="Q348" s="4" t="s">
+        <v>788</v>
+      </c>
+    </row>
+    <row r="349" spans="2:17" ht="147.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B349" s="2">
         <v>347</v>
       </c>
@@ -25501,8 +28713,14 @@
         <f t="shared" si="17"/>
         <v>393</v>
       </c>
-    </row>
-    <row r="350" spans="2:14" ht="130.9" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="P349" t="s">
+        <v>2393</v>
+      </c>
+      <c r="Q349" s="4" t="s">
+        <v>950</v>
+      </c>
+    </row>
+    <row r="350" spans="2:17" ht="130.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B350" s="2">
         <v>348</v>
       </c>
@@ -25542,8 +28760,14 @@
         <f t="shared" si="17"/>
         <v>538</v>
       </c>
-    </row>
-    <row r="351" spans="2:14" ht="98.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="P350" t="s">
+        <v>2394</v>
+      </c>
+      <c r="Q350" s="4" t="s">
+        <v>397</v>
+      </c>
+    </row>
+    <row r="351" spans="2:17" ht="98.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B351" s="2">
         <v>349</v>
       </c>
@@ -25583,8 +28807,14 @@
         <f t="shared" si="17"/>
         <v>466</v>
       </c>
-    </row>
-    <row r="352" spans="2:14" ht="81.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="P351" t="s">
+        <v>2395</v>
+      </c>
+      <c r="Q351" s="4" t="s">
+        <v>860</v>
+      </c>
+    </row>
+    <row r="352" spans="2:17" ht="81.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B352" s="2">
         <v>350</v>
       </c>
@@ -25624,8 +28854,14 @@
         <f t="shared" si="17"/>
         <v>526</v>
       </c>
-    </row>
-    <row r="353" spans="2:14" ht="98.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="P352" t="s">
+        <v>2396</v>
+      </c>
+      <c r="Q352" s="4" t="s">
+        <v>926</v>
+      </c>
+    </row>
+    <row r="353" spans="2:17" ht="98.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B353" s="2">
         <v>351</v>
       </c>
@@ -25665,8 +28901,14 @@
         <f t="shared" si="17"/>
         <v>476</v>
       </c>
-    </row>
-    <row r="354" spans="2:14" ht="65.650000000000006" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="P353" t="s">
+        <v>2397</v>
+      </c>
+      <c r="Q353" s="4" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="354" spans="2:17" ht="65.650000000000006" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B354" s="2">
         <v>352</v>
       </c>
@@ -25706,8 +28948,14 @@
         <f t="shared" si="17"/>
         <v>390</v>
       </c>
-    </row>
-    <row r="355" spans="2:14" ht="81.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="P354" t="s">
+        <v>2398</v>
+      </c>
+      <c r="Q354" s="4" t="s">
+        <v>913</v>
+      </c>
+    </row>
+    <row r="355" spans="2:17" ht="81.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B355" s="2">
         <v>353</v>
       </c>
@@ -25747,8 +28995,14 @@
         <f t="shared" si="17"/>
         <v>576</v>
       </c>
-    </row>
-    <row r="356" spans="2:14" ht="147.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="P355" t="s">
+        <v>2399</v>
+      </c>
+      <c r="Q355" s="4" t="s">
+        <v>889</v>
+      </c>
+    </row>
+    <row r="356" spans="2:17" ht="147.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B356" s="2">
         <v>354</v>
       </c>
@@ -25788,8 +29042,14 @@
         <f t="shared" si="17"/>
         <v>669</v>
       </c>
-    </row>
-    <row r="357" spans="2:14" ht="180.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="P356" t="s">
+        <v>2400</v>
+      </c>
+      <c r="Q356" s="4" t="s">
+        <v>940</v>
+      </c>
+    </row>
+    <row r="357" spans="2:17" ht="180.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B357" s="2">
         <v>355</v>
       </c>
@@ -25829,8 +29089,14 @@
         <f t="shared" si="17"/>
         <v>442</v>
       </c>
-    </row>
-    <row r="358" spans="2:14" ht="147.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="P357" t="s">
+        <v>2401</v>
+      </c>
+      <c r="Q357" s="4" t="s">
+        <v>940</v>
+      </c>
+    </row>
+    <row r="358" spans="2:17" ht="147.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B358" s="2">
         <v>356</v>
       </c>
@@ -25870,8 +29136,14 @@
         <f t="shared" si="17"/>
         <v>556</v>
       </c>
-    </row>
-    <row r="359" spans="2:14" ht="81.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="P358" t="s">
+        <v>2402</v>
+      </c>
+      <c r="Q358" s="4" t="s">
+        <v>811</v>
+      </c>
+    </row>
+    <row r="359" spans="2:17" ht="81.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B359" s="2">
         <v>357</v>
       </c>
@@ -25911,8 +29183,14 @@
         <f t="shared" si="17"/>
         <v>683</v>
       </c>
-    </row>
-    <row r="360" spans="2:14" ht="147.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="P359" t="s">
+        <v>2403</v>
+      </c>
+      <c r="Q359" s="4" t="s">
+        <v>877</v>
+      </c>
+    </row>
+    <row r="360" spans="2:17" ht="147.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B360" s="2">
         <v>358</v>
       </c>
@@ -25952,8 +29230,14 @@
         <f t="shared" si="17"/>
         <v>661</v>
       </c>
-    </row>
-    <row r="361" spans="2:14" ht="98.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="P360" t="s">
+        <v>2404</v>
+      </c>
+      <c r="Q360" s="4" t="s">
+        <v>846</v>
+      </c>
+    </row>
+    <row r="361" spans="2:17" ht="98.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B361" s="2">
         <v>359</v>
       </c>
@@ -25993,8 +29277,14 @@
         <f t="shared" si="17"/>
         <v>579</v>
       </c>
-    </row>
-    <row r="362" spans="2:14" ht="49.15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="P361" t="s">
+        <v>2405</v>
+      </c>
+      <c r="Q361" s="4" t="s">
+        <v>402</v>
+      </c>
+    </row>
+    <row r="362" spans="2:17" ht="49.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B362" s="2">
         <v>360</v>
       </c>
@@ -26034,8 +29324,14 @@
         <f t="shared" si="17"/>
         <v>690</v>
       </c>
-    </row>
-    <row r="363" spans="2:14" ht="49.15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="P362" t="s">
+        <v>2406</v>
+      </c>
+      <c r="Q362" s="4" t="s">
+        <v>924</v>
+      </c>
+    </row>
+    <row r="363" spans="2:17" ht="49.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B363" s="2">
         <v>361</v>
       </c>
@@ -26075,8 +29371,14 @@
         <f t="shared" si="17"/>
         <v>642</v>
       </c>
-    </row>
-    <row r="364" spans="2:14" ht="98.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="P363" t="s">
+        <v>2407</v>
+      </c>
+      <c r="Q363" s="4" t="s">
+        <v>757</v>
+      </c>
+    </row>
+    <row r="364" spans="2:17" ht="98.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B364" s="2">
         <v>362</v>
       </c>
@@ -26116,8 +29418,14 @@
         <f t="shared" si="17"/>
         <v>447</v>
       </c>
-    </row>
-    <row r="365" spans="2:14" ht="49.15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="P364" t="s">
+        <v>2408</v>
+      </c>
+      <c r="Q364" s="4" t="s">
+        <v>832</v>
+      </c>
+    </row>
+    <row r="365" spans="2:17" ht="49.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B365" s="2">
         <v>363</v>
       </c>
@@ -26157,8 +29465,14 @@
         <f t="shared" si="17"/>
         <v>599</v>
       </c>
-    </row>
-    <row r="366" spans="2:14" ht="130.9" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="P365" t="s">
+        <v>2409</v>
+      </c>
+      <c r="Q365" s="4" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="366" spans="2:17" ht="130.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B366" s="2">
         <v>364</v>
       </c>
@@ -26198,8 +29512,14 @@
         <f t="shared" si="17"/>
         <v>470</v>
       </c>
-    </row>
-    <row r="367" spans="2:14" ht="130.9" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="P366" t="s">
+        <v>2410</v>
+      </c>
+      <c r="Q366" s="4" t="s">
+        <v>885</v>
+      </c>
+    </row>
+    <row r="367" spans="2:17" ht="130.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B367" s="2">
         <v>365</v>
       </c>
@@ -26239,8 +29559,14 @@
         <f t="shared" si="17"/>
         <v>392</v>
       </c>
-    </row>
-    <row r="368" spans="2:14" ht="147.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="P367" t="s">
+        <v>2411</v>
+      </c>
+      <c r="Q367" s="4" t="s">
+        <v>938</v>
+      </c>
+    </row>
+    <row r="368" spans="2:17" ht="147.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B368" s="2">
         <v>366</v>
       </c>
@@ -26280,8 +29606,14 @@
         <f t="shared" si="17"/>
         <v>469</v>
       </c>
-    </row>
-    <row r="369" spans="2:14" ht="163.69999999999999" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="P368" t="s">
+        <v>2412</v>
+      </c>
+      <c r="Q368" s="4" t="s">
+        <v>816</v>
+      </c>
+    </row>
+    <row r="369" spans="2:17" ht="163.69999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B369" s="2">
         <v>367</v>
       </c>
@@ -26321,8 +29653,14 @@
         <f t="shared" si="17"/>
         <v>611</v>
       </c>
-    </row>
-    <row r="370" spans="2:14" ht="163.69999999999999" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="P369" t="s">
+        <v>2413</v>
+      </c>
+      <c r="Q369" s="4" t="s">
+        <v>395</v>
+      </c>
+    </row>
+    <row r="370" spans="2:17" ht="163.69999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B370" s="2">
         <v>368</v>
       </c>
@@ -26362,8 +29700,14 @@
         <f t="shared" si="17"/>
         <v>560</v>
       </c>
-    </row>
-    <row r="371" spans="2:14" ht="81.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="P370" t="s">
+        <v>2414</v>
+      </c>
+      <c r="Q370" s="4" t="s">
+        <v>882</v>
+      </c>
+    </row>
+    <row r="371" spans="2:17" ht="81.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B371" s="2">
         <v>369</v>
       </c>
@@ -26403,8 +29747,14 @@
         <f t="shared" si="17"/>
         <v>518</v>
       </c>
-    </row>
-    <row r="372" spans="2:14" ht="130.9" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="P371" t="s">
+        <v>2415</v>
+      </c>
+      <c r="Q371" s="4" t="s">
+        <v>835</v>
+      </c>
+    </row>
+    <row r="372" spans="2:17" ht="130.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B372" s="2">
         <v>370</v>
       </c>
@@ -26444,8 +29794,14 @@
         <f t="shared" si="17"/>
         <v>648</v>
       </c>
-    </row>
-    <row r="373" spans="2:14" ht="130.9" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="P372" t="s">
+        <v>2416</v>
+      </c>
+      <c r="Q372" s="4" t="s">
+        <v>746</v>
+      </c>
+    </row>
+    <row r="373" spans="2:17" ht="130.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B373" s="2">
         <v>371</v>
       </c>
@@ -26485,8 +29841,14 @@
         <f t="shared" si="17"/>
         <v>592</v>
       </c>
-    </row>
-    <row r="374" spans="2:14" ht="147.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="P373" t="s">
+        <v>2417</v>
+      </c>
+      <c r="Q373" s="4" t="s">
+        <v>744</v>
+      </c>
+    </row>
+    <row r="374" spans="2:17" ht="147.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B374" s="2">
         <v>372</v>
       </c>
@@ -26529,13 +29891,19 @@
         <f t="shared" si="17"/>
         <v>541</v>
       </c>
-    </row>
-    <row r="375" spans="2:14" ht="147.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="P374" t="s">
+        <v>2418</v>
+      </c>
+      <c r="Q374" s="4" t="s">
+        <v>951</v>
+      </c>
+    </row>
+    <row r="375" spans="2:17" ht="147.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B375" s="2">
         <v>373</v>
       </c>
-      <c r="C375" s="4" t="s">
-        <v>824</v>
+      <c r="C375" s="12" t="s">
+        <v>2420</v>
       </c>
       <c r="D375" s="4" t="s">
         <v>54</v>
@@ -26569,6 +29937,12 @@
       <c r="N375" s="22">
         <f t="shared" si="17"/>
         <v>422</v>
+      </c>
+      <c r="P375" t="s">
+        <v>2419</v>
+      </c>
+      <c r="Q375" s="4" t="s">
+        <v>824</v>
       </c>
     </row>
   </sheetData>
